--- a/DM/databank/banking/deal_management/BANK_82_6_Test_43707.xlsx
+++ b/DM/databank/banking/deal_management/BANK_82_6_Test_43707.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="553">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1639,135 +1639,6 @@
     <t>Revenue Variation (Standard)</t>
   </si>
   <si>
-    <t>213921768239</t>
-  </si>
-  <si>
-    <t>213040702687</t>
-  </si>
-  <si>
-    <t>213458667311</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015764","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4658602695","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"N","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"4650015764","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015765","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4658602695","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015766","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4658602697","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4658602698","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4658602699","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4650015766","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015767","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602697","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602698","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602699","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015768","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4658602703","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4658602704","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4658602705","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4650015768","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015769","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602703","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602704","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602705","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300044","valueAmt":"3","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"paTypeFlag":"RGLR","priceItemDescription":"V8-Cheque Collections","aggregateSw":"Y","priceItemCode":"PI_028","priceCurrencyCode":"USD","priceAsgnId":"5410009212","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015770","actionFlag":"OVRD","priceItemCode":"PI_028","priceItemDescription":"V8-Cheque Collections","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300044","priceCompDesc":"FLAT","valueAmt":"3","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4658602709","valueAmt":"2","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"paTypeFlag":"RGLR","priceItemDescription":"V8-Cheque Collections","aggregateSw":"N","priceItemCode":"PI_028","priceCurrencyCode":"USD","priceAsgnId":"4650015770","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015771","actionFlag":"OVRD","priceItemCode":"PI_028","priceItemDescription":"V8-Cheque Collections","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_CURRENCY","parameterValue":"INR"},{"parameterCode":"DM_TYPE","parameterValue":"BT"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4658602709","priceCompDesc":"FLAT","valueAmt":"2","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4658602692","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4658602693","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4658602694","valueAmt":"14","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"4650015763","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015763","actionFlag":"UPD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602692","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602693","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602694","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4658602692","valueAmt":"11","priceCompDesc":"Price Per Transaction Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4658602693","valueAmt":"12","priceCompDesc":"Price Per Transaction Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4658602694","valueAmt":"13","priceCompDesc":"Price Per Transaction Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"4650015763","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015772","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"KA"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602692","priceCompDesc":"Price Per Transaction Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602693","priceCompDesc":"Price Per Transaction Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602694","priceCompDesc":"Price Per Transaction Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4658602689","valueAmt":"32","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4658602690","valueAmt":"33","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4658602691","valueAmt":"34","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"N","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"4650015762","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015762","actionFlag":"UPD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602689","priceCompDesc":"Threshold price per transaction1","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602690","priceCompDesc":"Threshold price per transaction 2","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602691","priceCompDesc":"Threshold price per transaction 3","valueAmt":"34","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4658602689","valueAmt":"31","priceCompDesc":"Threshold price per transaction1","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4658602690","valueAmt":"32","priceCompDesc":"Threshold price per transaction 2","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4658602691","valueAmt":"33","priceCompDesc":"Threshold price per transaction 3","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_036","aggregateSw":"Y","priceItemCode":"NPI_036","priceCurrencyCode":"USD","priceAsgnId":"4650015762","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015773","actionFlag":"OVRD","priceItemCode":"NPI_036","priceItemDescription":"Price Item NPI_036","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","parameterDetails":[{"parameterCode":"DM_COUNTRY","parameterValue":"IND"},{"parameterCode":"DM_STATE","parameterValue":"AP"}],"txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602689","priceCompDesc":"Threshold price per transaction1","valueAmt":"31","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602690","priceCompDesc":"Threshold price per transaction 2","valueAmt":"32","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"99999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4658602691","priceCompDesc":"Threshold price per transaction 3","valueAmt":"33","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300002","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"MT943_SWIFT_01","aggregateSw":"Y","priceItemCode":"PI_031","priceCurrencyCode":"USD","priceAsgnId":"5410009201","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015774","actionFlag":"OVRD","priceItemCode":"PI_031","priceItemDescription":"MT943_SWIFT_01","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300002","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4658602717","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"MT943_SWIFT_01","aggregateSw":"N","priceItemCode":"PI_031","priceCurrencyCode":"USD","priceAsgnId":"4650015774","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015775","actionFlag":"OVRD","priceItemCode":"PI_031","priceItemDescription":"MT943_SWIFT_01","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4658602717","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300038","valueAmt":"777","priceCompDesc":"Basic BK-NBR","rcMapId":"9384470053","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V7-Direct Debit","aggregateSw":"Y","priceItemCode":"PI_027","priceCurrencyCode":"USD","priceAsgnId":"5410009209","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT03","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015776","actionFlag":"OVRD","priceItemCode":"PI_027","priceItemDescription":"V7-Direct Debit","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT03","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300038","priceCompDesc":"Basic BK-NBR","valueAmt":"777","displaySw":"true","rcMapId":"9384470053","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4658602719","valueAmt":"775","priceCompDesc":"Basic BK-NBR","rcMapId":"9384470053","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V7-Direct Debit","aggregateSw":"N","priceItemCode":"PI_027","priceCurrencyCode":"USD","priceAsgnId":"4650015776","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT03","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015777","actionFlag":"OVRD","priceItemCode":"PI_027","priceItemDescription":"V7-Direct Debit","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT03","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4658602719","priceCompDesc":"Basic BK-NBR","valueAmt":"775","displaySw":"true","rcMapId":"9384470053","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"13","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-06-27","assignmentLevel":"Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015778","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-06-27","isEligible":"false","assignmentLevel":"Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"13","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4658602721","valueAmt":"12","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"N","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"4650015778","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-07-27","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015779","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-07-27","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4658602721","priceCompDesc":"FLAT","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4658602687","valueAmt":"12","priceCompDesc":"Basic","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_024","aggregateSw":"N","priceItemCode":"NPI_024","priceCurrencyCode":"USD","priceAsgnId":"4650015760","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2020-01-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015780","actionFlag":"RECM","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2020-01-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4658602687","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1658673375","dealId":"2926214439","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"4658602687","valueAmt":"12","priceCompDesc":"Basic","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"Price Item NPI_024","aggregateSw":"N","priceItemCode":"NPI_024","priceCurrencyCode":"USD","priceAsgnId":"4650015760","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2020-01-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2926214439","modelId":"1658673375","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4650015760","actionFlag":"UPD","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2020-01-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"4658602687","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
-  </si>
-  <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5589822600","dealId":"2499015837","entityType":"PERS","entityId":"8797366188","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"8797366188","entityIdentifierValue":"Reg_BANK_82_EPER_001","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-02","assignmentLevel":"Customer Price List"}]}}}</t>
   </si>
   <si>
@@ -1886,6 +1757,21 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2499015837","modelId":"5589822600","entityId":"8797366188","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"8797366188","entityType":"PERS","entityIdentifierValue":"Reg_BANK_82_EPER_001","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3590014337","actionFlag":"UPD","priceItemCode":"NPI_024","priceItemDescription":"Price Item NPI_024","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2020-01-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"3598600545","priceCompDesc":"Basic","valueAmt":"12","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>213302550456</t>
+  </si>
+  <si>
+    <t>213987150438</t>
+  </si>
+  <si>
+    <t>213594038079</t>
+  </si>
+  <si>
+    <t>213816883486</t>
+  </si>
+  <si>
+    <t>213035745140</t>
   </si>
 </sst>
 </file>
@@ -2296,7 +2182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2413,7 +2299,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2624,17 +2509,32 @@
     <xf numFmtId="0" fontId="11" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2651,11 +2551,23 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2684,22 +2596,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2726,26 +2623,14 @@
     <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3039,15 +2924,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E236" sqref="E236"/>
+    <sheetView tabSelected="1" topLeftCell="H49" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
-    <col min="3" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="94.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -3778,11 +3663,11 @@
       <c r="I16" s="14"/>
     </row>
     <row r="18" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="152" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="149"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
     </row>
     <row r="19" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
@@ -3832,24 +3717,24 @@
       <c r="E21" s="34"/>
     </row>
     <row r="23" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="153" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
       <c r="BM23" s="16"/>
       <c r="BN23" s="16"/>
       <c r="BO23" s="16"/>
@@ -6726,12 +6611,12 @@
       <c r="DM56" s="16"/>
     </row>
     <row r="58" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="152" t="s">
+      <c r="A58" s="155" t="s">
         <v>260</v>
       </c>
-      <c r="B58" s="153"/>
-      <c r="C58" s="153"/>
-      <c r="D58" s="154"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="157"/>
     </row>
     <row r="59" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
@@ -6767,12 +6652,12 @@
       </c>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="152" t="s">
+      <c r="A62" s="155" t="s">
         <v>252</v>
       </c>
-      <c r="B62" s="153"/>
-      <c r="C62" s="153"/>
-      <c r="D62" s="154"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="157"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6799,7 +6684,7 @@
       <c r="A64" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="40" t="s">
         <v>257</v>
       </c>
       <c r="C64" s="31" t="s">
@@ -6820,7 +6705,7 @@
       <c r="A65" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="40" t="s">
         <v>257</v>
       </c>
       <c r="C65" s="31" t="s">
@@ -6841,7 +6726,7 @@
       <c r="A66" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="40" t="s">
         <v>257</v>
       </c>
       <c r="C66" s="31" t="s">
@@ -6859,17 +6744,17 @@
       <c r="G66" s="31"/>
     </row>
     <row r="68" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="152" t="s">
+      <c r="A68" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="153"/>
-      <c r="C68" s="153"/>
-      <c r="D68" s="153"/>
-      <c r="E68" s="153"/>
-      <c r="F68" s="153"/>
-      <c r="G68" s="153"/>
-      <c r="H68" s="153"/>
-      <c r="I68" s="154"/>
+      <c r="B68" s="156"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="157"/>
     </row>
     <row r="69" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="25" t="s">
@@ -6913,6 +6798,9 @@
       </c>
       <c r="N69" s="25" t="s">
         <v>245</v>
+      </c>
+      <c r="O69" s="25" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -6937,13 +6825,13 @@
       <c r="G70" s="31"/>
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
-      <c r="J70" s="43" t="str">
+      <c r="J70" s="42" t="str">
         <f ca="1">TEXT(TODAY()-320,"MM-DD-YYYY")</f>
-        <v>08-11-2022</v>
-      </c>
-      <c r="K70" s="43" t="str">
+        <v>09-21-2022</v>
+      </c>
+      <c r="K70" s="42" t="str">
         <f ca="1">TEXT(TODAY()-290,"MM-DD-YYYY")</f>
-        <v>09-10-2022</v>
+        <v>10-21-2022</v>
       </c>
       <c r="L70" s="32" t="s">
         <v>168</v>
@@ -6951,11 +6839,11 @@
       <c r="M70" s="32">
         <v>12</v>
       </c>
-      <c r="N70" s="40" t="s">
-        <v>508</v>
+      <c r="N70" s="44" t="s">
+        <v>548</v>
       </c>
       <c r="O70" s="32" t="s">
-        <v>343</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -6980,13 +6868,13 @@
       <c r="G71" s="31"/>
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
-      <c r="J71" s="43" t="str">
+      <c r="J71" s="42" t="str">
         <f ca="1">TEXT(TODAY()-289,"MM-DD-YYYY")</f>
-        <v>09-11-2022</v>
-      </c>
-      <c r="K71" s="43" t="str">
+        <v>10-22-2022</v>
+      </c>
+      <c r="K71" s="42" t="str">
         <f ca="1">TEXT(TODAY()-259,"MM-DD-YYYY")</f>
-        <v>10-11-2022</v>
+        <v>11-21-2022</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6994,9 +6882,11 @@
       <c r="M71" s="32">
         <v>13</v>
       </c>
-      <c r="N71" s="40"/>
+      <c r="N71" s="44" t="s">
+        <v>549</v>
+      </c>
       <c r="O71" s="32" t="s">
-        <v>343</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -7021,13 +6911,13 @@
       <c r="G72" s="31"/>
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
-      <c r="J72" s="43" t="str">
+      <c r="J72" s="42" t="str">
         <f ca="1">TEXT(TODAY()-258,"MM-DD-YYYY")</f>
-        <v>10-12-2022</v>
-      </c>
-      <c r="K72" s="43" t="str">
+        <v>11-22-2022</v>
+      </c>
+      <c r="K72" s="42" t="str">
         <f ca="1">TEXT(TODAY()-229,"MM-DD-YYYY")</f>
-        <v>11-10-2022</v>
+        <v>12-21-2022</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -7035,11 +6925,11 @@
       <c r="M72" s="32">
         <v>6</v>
       </c>
-      <c r="N72" s="40" t="s">
-        <v>509</v>
+      <c r="N72" s="44" t="s">
+        <v>550</v>
       </c>
       <c r="O72" s="32" t="s">
-        <v>343</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -7072,13 +6962,13 @@
       <c r="I73" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="J73" s="43" t="str">
+      <c r="J73" s="42" t="str">
         <f ca="1">TEXT(TODAY()-381,"MM-DD-YYYY")</f>
-        <v>06-11-2022</v>
-      </c>
-      <c r="K73" s="43" t="str">
+        <v>07-22-2022</v>
+      </c>
+      <c r="K73" s="42" t="str">
         <f ca="1">TEXT(TODAY()-351,"MM-DD-YYYY")</f>
-        <v>07-11-2022</v>
+        <v>08-21-2022</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -7086,18 +6976,18 @@
       <c r="M73" s="32">
         <v>7</v>
       </c>
-      <c r="N73" s="40" t="s">
-        <v>510</v>
+      <c r="N73" s="44" t="s">
+        <v>551</v>
       </c>
       <c r="O73" s="32" t="s">
-        <v>343</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="B74" s="42">
+      <c r="B74" s="41">
         <f>C10</f>
         <v>2131846854</v>
       </c>
@@ -7123,13 +7013,13 @@
       <c r="I74" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="J74" s="43" t="str">
+      <c r="J74" s="42" t="str">
         <f ca="1">TEXT(TODAY()-350,"MM-DD-YYYY")</f>
-        <v>07-12-2022</v>
-      </c>
-      <c r="K74" s="43" t="str">
+        <v>08-22-2022</v>
+      </c>
+      <c r="K74" s="42" t="str">
         <f ca="1">TEXT(TODAY()-321,"MM-DD-YYYY")</f>
-        <v>08-10-2022</v>
+        <v>09-20-2022</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -7137,45 +7027,47 @@
       <c r="M74" s="32">
         <v>10</v>
       </c>
-      <c r="N74" s="40"/>
+      <c r="N74" s="44" t="s">
+        <v>552</v>
+      </c>
       <c r="O74" s="32" t="s">
-        <v>343</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="147" t="s">
+      <c r="A76" s="150" t="s">
         <v>269</v>
       </c>
-      <c r="B76" s="147"/>
-      <c r="C76" s="147"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="147"/>
-      <c r="F76" s="147"/>
-      <c r="G76" s="147"/>
-      <c r="H76" s="147"/>
-      <c r="I76" s="147"/>
-      <c r="J76" s="147"/>
-      <c r="K76" s="147"/>
+      <c r="B76" s="150"/>
+      <c r="C76" s="150"/>
+      <c r="D76" s="150"/>
+      <c r="E76" s="150"/>
+      <c r="F76" s="150"/>
+      <c r="G76" s="150"/>
+      <c r="H76" s="150"/>
+      <c r="I76" s="150"/>
+      <c r="J76" s="150"/>
+      <c r="K76" s="150"/>
     </row>
     <row r="78" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="148" t="s">
+      <c r="A78" s="151" t="s">
         <v>270</v>
       </c>
-      <c r="B78" s="148"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="148"/>
+      <c r="B78" s="151"/>
+      <c r="C78" s="151"/>
+      <c r="D78" s="151"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="C79" s="44" t="s">
+      <c r="C79" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D79" s="44" t="s">
+      <c r="D79" s="43" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7186,7 +7078,7 @@
       <c r="B80" s="28">
         <v>8797366188</v>
       </c>
-      <c r="C80" s="45" t="s">
+      <c r="C80" s="44" t="s">
         <v>275</v>
       </c>
       <c r="D80" s="28" t="s">
@@ -7194,332 +7086,332 @@
       </c>
     </row>
     <row r="82" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="47"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="47"/>
-      <c r="Q82" s="47"/>
-      <c r="R82" s="47"/>
-      <c r="S82" s="47"/>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
-      <c r="V82" s="47"/>
-      <c r="W82" s="47"/>
-      <c r="X82" s="47"/>
-      <c r="Y82" s="47"/>
-      <c r="Z82" s="47"/>
-      <c r="AA82" s="47"/>
-      <c r="AB82" s="47"/>
-      <c r="AC82" s="47"/>
-      <c r="AD82" s="47"/>
-      <c r="AE82" s="47"/>
-      <c r="AF82" s="47"/>
-      <c r="AG82" s="47"/>
-      <c r="AH82" s="47"/>
-      <c r="AI82" s="47"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="46"/>
+      <c r="V82" s="46"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="46"/>
+      <c r="Y82" s="46"/>
+      <c r="Z82" s="46"/>
+      <c r="AA82" s="46"/>
+      <c r="AB82" s="46"/>
+      <c r="AC82" s="46"/>
+      <c r="AD82" s="46"/>
+      <c r="AE82" s="46"/>
+      <c r="AF82" s="46"/>
+      <c r="AG82" s="46"/>
+      <c r="AH82" s="46"/>
+      <c r="AI82" s="46"/>
     </row>
     <row r="83" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="C83" s="48" t="s">
+      <c r="C83" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D83" s="48" t="s">
+      <c r="D83" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E83" s="48" t="s">
+      <c r="E83" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="F83" s="48" t="s">
+      <c r="F83" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="G83" s="48" t="s">
+      <c r="G83" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="H83" s="48" t="s">
+      <c r="H83" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="I83" s="48" t="s">
+      <c r="I83" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="J83" s="48" t="s">
+      <c r="J83" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="K83" s="48" t="s">
+      <c r="K83" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="L83" s="48" t="s">
+      <c r="L83" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="M83" s="48" t="s">
+      <c r="M83" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="N83" s="48" t="s">
+      <c r="N83" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="O83" s="48" t="s">
+      <c r="O83" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="P83" s="48" t="s">
+      <c r="P83" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="Q83" s="48" t="s">
+      <c r="Q83" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="R83" s="48" t="s">
+      <c r="R83" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="S83" s="49" t="s">
+      <c r="S83" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="T83" s="158" t="s">
+      <c r="T83" s="134" t="s">
         <v>296</v>
       </c>
-      <c r="U83" s="159"/>
-      <c r="V83" s="160"/>
-      <c r="W83" s="158" t="s">
+      <c r="U83" s="135"/>
+      <c r="V83" s="136"/>
+      <c r="W83" s="134" t="s">
         <v>297</v>
       </c>
-      <c r="X83" s="160"/>
-      <c r="Y83" s="50"/>
-      <c r="Z83" s="155" t="s">
+      <c r="X83" s="136"/>
+      <c r="Y83" s="49"/>
+      <c r="Z83" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="AA83" s="156"/>
-      <c r="AB83" s="156"/>
-      <c r="AC83" s="156"/>
-      <c r="AD83" s="156"/>
-      <c r="AE83" s="156"/>
-      <c r="AF83" s="157"/>
-      <c r="AG83" s="155" t="s">
+      <c r="AA83" s="138"/>
+      <c r="AB83" s="138"/>
+      <c r="AC83" s="138"/>
+      <c r="AD83" s="138"/>
+      <c r="AE83" s="138"/>
+      <c r="AF83" s="139"/>
+      <c r="AG83" s="137" t="s">
         <v>299</v>
       </c>
-      <c r="AH83" s="156"/>
-      <c r="AI83" s="156"/>
-      <c r="AJ83" s="156"/>
-      <c r="AK83" s="156"/>
-      <c r="AL83" s="157"/>
-      <c r="AM83" s="51"/>
-      <c r="AN83" s="52"/>
-      <c r="AO83" s="52"/>
-      <c r="AP83" s="52"/>
-      <c r="AS83" s="53"/>
-      <c r="AT83" s="53"/>
-      <c r="AU83" s="53"/>
-      <c r="AV83" s="53"/>
-      <c r="AW83" s="53"/>
-      <c r="AX83" s="53"/>
-      <c r="AY83" s="53"/>
-      <c r="AZ83" s="53"/>
-      <c r="BA83" s="53"/>
-      <c r="BB83" s="53"/>
-      <c r="BC83" s="53"/>
-      <c r="BD83" s="53"/>
-      <c r="BE83" s="53"/>
-      <c r="BF83" s="53"/>
-      <c r="BG83" s="53"/>
-      <c r="BH83" s="53"/>
-      <c r="BI83" s="53"/>
-      <c r="BJ83" s="53"/>
-      <c r="BK83" s="53"/>
-      <c r="BL83" s="53"/>
-      <c r="BM83" s="53"/>
-      <c r="BN83" s="53"/>
-      <c r="BO83" s="53"/>
-      <c r="BP83" s="53"/>
-      <c r="BQ83" s="53"/>
-      <c r="BR83" s="53"/>
-      <c r="BS83" s="53"/>
-      <c r="BT83" s="53"/>
-      <c r="BU83" s="53"/>
-      <c r="BV83" s="53"/>
-      <c r="BW83" s="53"/>
-      <c r="BX83" s="53"/>
-      <c r="BY83" s="53"/>
-      <c r="BZ83" s="53"/>
+      <c r="AH83" s="138"/>
+      <c r="AI83" s="138"/>
+      <c r="AJ83" s="138"/>
+      <c r="AK83" s="138"/>
+      <c r="AL83" s="139"/>
+      <c r="AM83" s="50"/>
+      <c r="AN83" s="51"/>
+      <c r="AO83" s="51"/>
+      <c r="AP83" s="51"/>
+      <c r="AS83" s="52"/>
+      <c r="AT83" s="52"/>
+      <c r="AU83" s="52"/>
+      <c r="AV83" s="52"/>
+      <c r="AW83" s="52"/>
+      <c r="AX83" s="52"/>
+      <c r="AY83" s="52"/>
+      <c r="AZ83" s="52"/>
+      <c r="BA83" s="52"/>
+      <c r="BB83" s="52"/>
+      <c r="BC83" s="52"/>
+      <c r="BD83" s="52"/>
+      <c r="BE83" s="52"/>
+      <c r="BF83" s="52"/>
+      <c r="BG83" s="52"/>
+      <c r="BH83" s="52"/>
+      <c r="BI83" s="52"/>
+      <c r="BJ83" s="52"/>
+      <c r="BK83" s="52"/>
+      <c r="BL83" s="52"/>
+      <c r="BM83" s="52"/>
+      <c r="BN83" s="52"/>
+      <c r="BO83" s="52"/>
+      <c r="BP83" s="52"/>
+      <c r="BQ83" s="52"/>
+      <c r="BR83" s="52"/>
+      <c r="BS83" s="52"/>
+      <c r="BT83" s="52"/>
+      <c r="BU83" s="52"/>
+      <c r="BV83" s="52"/>
+      <c r="BW83" s="52"/>
+      <c r="BX83" s="52"/>
+      <c r="BY83" s="52"/>
+      <c r="BZ83" s="52"/>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="54"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="54"/>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="54"/>
-      <c r="R84" s="54"/>
-      <c r="S84" s="54"/>
-      <c r="T84" s="55" t="s">
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="53"/>
+      <c r="L84" s="53"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="53"/>
+      <c r="O84" s="53"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="53"/>
+      <c r="R84" s="53"/>
+      <c r="S84" s="53"/>
+      <c r="T84" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="U84" s="55" t="s">
+      <c r="U84" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="V84" s="55" t="s">
+      <c r="V84" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="W84" s="55" t="s">
+      <c r="W84" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="X84" s="55" t="s">
+      <c r="X84" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="Y84" s="55" t="s">
+      <c r="Y84" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="Z84" s="55" t="s">
+      <c r="Z84" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="AA84" s="55" t="s">
+      <c r="AA84" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="AB84" s="55" t="s">
+      <c r="AB84" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="AC84" s="55" t="s">
+      <c r="AC84" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="AD84" s="55" t="s">
+      <c r="AD84" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="AE84" s="55" t="s">
+      <c r="AE84" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="AF84" s="55" t="s">
+      <c r="AF84" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="AG84" s="55" t="s">
+      <c r="AG84" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="AH84" s="55" t="s">
+      <c r="AH84" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="AI84" s="55" t="s">
+      <c r="AI84" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="AJ84" s="55" t="s">
+      <c r="AJ84" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="AK84" s="55" t="s">
+      <c r="AK84" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="AL84" s="55" t="s">
+      <c r="AL84" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="AM84" s="54" t="s">
+      <c r="AM84" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="AN84" s="55" t="s">
+      <c r="AN84" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="AO84" s="55" t="s">
+      <c r="AO84" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="AP84" s="56" t="s">
+      <c r="AP84" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="AS84" s="53"/>
-      <c r="AT84" s="53"/>
-      <c r="AU84" s="53"/>
-      <c r="AV84" s="53"/>
-      <c r="AW84" s="53"/>
-      <c r="AX84" s="53"/>
-      <c r="AY84" s="53"/>
-      <c r="AZ84" s="53"/>
-      <c r="BA84" s="53"/>
-      <c r="BB84" s="53"/>
-      <c r="BC84" s="53"/>
-      <c r="BD84" s="53"/>
-      <c r="BE84" s="53"/>
-      <c r="BF84" s="53"/>
-      <c r="BG84" s="53"/>
-      <c r="BH84" s="53"/>
-      <c r="BI84" s="53"/>
-      <c r="BJ84" s="53"/>
-      <c r="BK84" s="53"/>
-      <c r="BL84" s="53"/>
-      <c r="BM84" s="53"/>
-      <c r="BN84" s="53"/>
-      <c r="BO84" s="53"/>
-      <c r="BP84" s="53"/>
-      <c r="BQ84" s="53"/>
-      <c r="BR84" s="53"/>
-      <c r="BS84" s="53"/>
-      <c r="BT84" s="53"/>
-      <c r="BU84" s="53"/>
-      <c r="BV84" s="53"/>
-      <c r="BW84" s="53"/>
-      <c r="BX84" s="53"/>
-      <c r="BY84" s="53"/>
-      <c r="BZ84" s="53"/>
+      <c r="AS84" s="52"/>
+      <c r="AT84" s="52"/>
+      <c r="AU84" s="52"/>
+      <c r="AV84" s="52"/>
+      <c r="AW84" s="52"/>
+      <c r="AX84" s="52"/>
+      <c r="AY84" s="52"/>
+      <c r="AZ84" s="52"/>
+      <c r="BA84" s="52"/>
+      <c r="BB84" s="52"/>
+      <c r="BC84" s="52"/>
+      <c r="BD84" s="52"/>
+      <c r="BE84" s="52"/>
+      <c r="BF84" s="52"/>
+      <c r="BG84" s="52"/>
+      <c r="BH84" s="52"/>
+      <c r="BI84" s="52"/>
+      <c r="BJ84" s="52"/>
+      <c r="BK84" s="52"/>
+      <c r="BL84" s="52"/>
+      <c r="BM84" s="52"/>
+      <c r="BN84" s="52"/>
+      <c r="BO84" s="52"/>
+      <c r="BP84" s="52"/>
+      <c r="BQ84" s="52"/>
+      <c r="BR84" s="52"/>
+      <c r="BS84" s="52"/>
+      <c r="BT84" s="52"/>
+      <c r="BU84" s="52"/>
+      <c r="BV84" s="52"/>
+      <c r="BW84" s="52"/>
+      <c r="BX84" s="52"/>
+      <c r="BY84" s="52"/>
+      <c r="BZ84" s="52"/>
     </row>
     <row r="85" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="56" t="s">
         <v>323</v>
       </c>
       <c r="B85" s="28">
         <v>8797366188</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="E85" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F85" s="57" t="s">
+      <c r="F85" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="G85" s="59" t="str">
+      <c r="G85" s="58" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="H85" s="59" t="str">
+        <v>2023-08-07</v>
+      </c>
+      <c r="H85" s="58" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="I85" s="57">
+        <v>2023-08-07</v>
+      </c>
+      <c r="I85" s="56">
         <v>12</v>
       </c>
-      <c r="J85" s="57">
+      <c r="J85" s="56">
         <v>12</v>
       </c>
-      <c r="K85" s="57">
+      <c r="K85" s="56">
         <v>12</v>
       </c>
-      <c r="L85" s="57" t="s">
+      <c r="L85" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="M85" s="57" t="s">
+      <c r="M85" s="56" t="s">
         <v>346</v>
       </c>
       <c r="N85" s="30" t="s">
@@ -7537,147 +7429,147 @@
       <c r="R85" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="S85" s="42"/>
-      <c r="T85" s="42" t="s">
+      <c r="S85" s="41"/>
+      <c r="T85" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="U85" s="42" t="s">
+      <c r="U85" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="V85" s="42"/>
-      <c r="W85" s="42" t="s">
+      <c r="V85" s="41"/>
+      <c r="W85" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="X85" s="42" t="s">
+      <c r="X85" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="Y85" s="42"/>
-      <c r="Z85" s="42"/>
-      <c r="AA85" s="42"/>
-      <c r="AB85" s="42"/>
-      <c r="AC85" s="42"/>
-      <c r="AD85" s="42" t="s">
+      <c r="Y85" s="41"/>
+      <c r="Z85" s="41"/>
+      <c r="AA85" s="41"/>
+      <c r="AB85" s="41"/>
+      <c r="AC85" s="41"/>
+      <c r="AD85" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AE85" s="42" t="s">
+      <c r="AE85" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AF85" s="42" t="s">
+      <c r="AF85" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AG85" s="42"/>
-      <c r="AH85" s="42"/>
-      <c r="AI85" s="42"/>
-      <c r="AJ85" s="42" t="s">
+      <c r="AG85" s="41"/>
+      <c r="AH85" s="41"/>
+      <c r="AI85" s="41"/>
+      <c r="AJ85" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AK85" s="42" t="s">
+      <c r="AK85" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AL85" s="42" t="s">
+      <c r="AL85" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AM85" s="57"/>
-      <c r="AN85" s="57">
+      <c r="AM85" s="56"/>
+      <c r="AN85" s="56">
         <v>26</v>
       </c>
-      <c r="AO85" s="57">
+      <c r="AO85" s="56">
         <v>26</v>
       </c>
-      <c r="AP85" s="57">
+      <c r="AP85" s="56">
         <v>8</v>
       </c>
-      <c r="AS85" s="53"/>
-      <c r="AT85" s="53"/>
-      <c r="AU85" s="53"/>
-      <c r="AV85" s="53"/>
-      <c r="AW85" s="53"/>
-      <c r="AX85" s="53"/>
-      <c r="AY85" s="53"/>
-      <c r="AZ85" s="53"/>
-      <c r="BA85" s="53"/>
-      <c r="BB85" s="53"/>
-      <c r="BC85" s="53"/>
-      <c r="BD85" s="53"/>
-      <c r="BE85" s="53"/>
-      <c r="BF85" s="53"/>
-      <c r="BG85" s="53"/>
-      <c r="BH85" s="53"/>
-      <c r="BI85" s="53"/>
-      <c r="BJ85" s="53"/>
-      <c r="BK85" s="53"/>
-      <c r="BL85" s="53"/>
-      <c r="BM85" s="53"/>
-      <c r="BN85" s="53"/>
-      <c r="BO85" s="53"/>
-      <c r="BP85" s="53"/>
-      <c r="BQ85" s="53"/>
-      <c r="BR85" s="53"/>
-      <c r="BS85" s="53"/>
-      <c r="BT85" s="53"/>
-      <c r="BU85" s="53"/>
-      <c r="BV85" s="53"/>
-      <c r="BW85" s="53"/>
-      <c r="BX85" s="53"/>
-      <c r="BY85" s="53"/>
-      <c r="BZ85" s="53"/>
+      <c r="AS85" s="52"/>
+      <c r="AT85" s="52"/>
+      <c r="AU85" s="52"/>
+      <c r="AV85" s="52"/>
+      <c r="AW85" s="52"/>
+      <c r="AX85" s="52"/>
+      <c r="AY85" s="52"/>
+      <c r="AZ85" s="52"/>
+      <c r="BA85" s="52"/>
+      <c r="BB85" s="52"/>
+      <c r="BC85" s="52"/>
+      <c r="BD85" s="52"/>
+      <c r="BE85" s="52"/>
+      <c r="BF85" s="52"/>
+      <c r="BG85" s="52"/>
+      <c r="BH85" s="52"/>
+      <c r="BI85" s="52"/>
+      <c r="BJ85" s="52"/>
+      <c r="BK85" s="52"/>
+      <c r="BL85" s="52"/>
+      <c r="BM85" s="52"/>
+      <c r="BN85" s="52"/>
+      <c r="BO85" s="52"/>
+      <c r="BP85" s="52"/>
+      <c r="BQ85" s="52"/>
+      <c r="BR85" s="52"/>
+      <c r="BS85" s="52"/>
+      <c r="BT85" s="52"/>
+      <c r="BU85" s="52"/>
+      <c r="BV85" s="52"/>
+      <c r="BW85" s="52"/>
+      <c r="BX85" s="52"/>
+      <c r="BY85" s="52"/>
+      <c r="BZ85" s="52"/>
     </row>
     <row r="86" spans="1:78" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="52"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
     </row>
     <row r="87" spans="1:78" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="61" t="s">
+      <c r="A87" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="BB87" s="53"/>
-      <c r="BC87" s="53"/>
-      <c r="BD87" s="53"/>
-      <c r="BE87" s="53"/>
-      <c r="BF87" s="53"/>
-      <c r="BG87" s="53"/>
-      <c r="BH87" s="53"/>
-      <c r="BI87" s="53"/>
-      <c r="BJ87" s="53"/>
-      <c r="BK87" s="53"/>
-      <c r="BL87" s="53"/>
-      <c r="BM87" s="53"/>
-      <c r="BN87" s="53"/>
-      <c r="BO87" s="53"/>
-      <c r="BP87" s="53"/>
-      <c r="BQ87" s="53"/>
-      <c r="BR87" s="53"/>
-      <c r="BS87" s="53"/>
-      <c r="BT87" s="53"/>
-      <c r="BU87" s="53"/>
-      <c r="BV87" s="53"/>
-      <c r="BW87" s="53"/>
-      <c r="BX87" s="53"/>
-      <c r="BY87" s="53"/>
-      <c r="BZ87" s="53"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="BB87" s="52"/>
+      <c r="BC87" s="52"/>
+      <c r="BD87" s="52"/>
+      <c r="BE87" s="52"/>
+      <c r="BF87" s="52"/>
+      <c r="BG87" s="52"/>
+      <c r="BH87" s="52"/>
+      <c r="BI87" s="52"/>
+      <c r="BJ87" s="52"/>
+      <c r="BK87" s="52"/>
+      <c r="BL87" s="52"/>
+      <c r="BM87" s="52"/>
+      <c r="BN87" s="52"/>
+      <c r="BO87" s="52"/>
+      <c r="BP87" s="52"/>
+      <c r="BQ87" s="52"/>
+      <c r="BR87" s="52"/>
+      <c r="BS87" s="52"/>
+      <c r="BT87" s="52"/>
+      <c r="BU87" s="52"/>
+      <c r="BV87" s="52"/>
+      <c r="BW87" s="52"/>
+      <c r="BX87" s="52"/>
+      <c r="BY87" s="52"/>
+      <c r="BZ87" s="52"/>
     </row>
     <row r="88" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="24" t="s">
@@ -7713,33 +7605,33 @@
       <c r="K88" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="BB88" s="53"/>
-      <c r="BC88" s="53"/>
-      <c r="BD88" s="53"/>
-      <c r="BE88" s="53"/>
-      <c r="BF88" s="53"/>
-      <c r="BG88" s="53"/>
-      <c r="BH88" s="53"/>
-      <c r="BI88" s="53"/>
-      <c r="BJ88" s="53"/>
-      <c r="BK88" s="53"/>
-      <c r="BL88" s="53"/>
-      <c r="BM88" s="53"/>
-      <c r="BN88" s="53"/>
-      <c r="BO88" s="53"/>
-      <c r="BP88" s="53"/>
-      <c r="BQ88" s="53"/>
-      <c r="BR88" s="53"/>
-      <c r="BS88" s="53"/>
-      <c r="BT88" s="53"/>
-      <c r="BU88" s="53"/>
-      <c r="BV88" s="53"/>
-      <c r="BW88" s="53"/>
-      <c r="BX88" s="53"/>
-      <c r="BY88" s="53"/>
-      <c r="BZ88" s="53"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="52"/>
+      <c r="BB88" s="52"/>
+      <c r="BC88" s="52"/>
+      <c r="BD88" s="52"/>
+      <c r="BE88" s="52"/>
+      <c r="BF88" s="52"/>
+      <c r="BG88" s="52"/>
+      <c r="BH88" s="52"/>
+      <c r="BI88" s="52"/>
+      <c r="BJ88" s="52"/>
+      <c r="BK88" s="52"/>
+      <c r="BL88" s="52"/>
+      <c r="BM88" s="52"/>
+      <c r="BN88" s="52"/>
+      <c r="BO88" s="52"/>
+      <c r="BP88" s="52"/>
+      <c r="BQ88" s="52"/>
+      <c r="BR88" s="52"/>
+      <c r="BS88" s="52"/>
+      <c r="BT88" s="52"/>
+      <c r="BU88" s="52"/>
+      <c r="BV88" s="52"/>
+      <c r="BW88" s="52"/>
+      <c r="BX88" s="52"/>
+      <c r="BY88" s="52"/>
+      <c r="BZ88" s="52"/>
     </row>
     <row r="89" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
@@ -7750,7 +7642,7 @@
       </c>
       <c r="C89" s="34" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
+        <v>2023-08-07</v>
       </c>
       <c r="D89" s="34" t="s">
         <v>153</v>
@@ -7758,11 +7650,11 @@
       <c r="E89" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="F89" s="63" t="str">
+      <c r="F89" s="62" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="G89" s="59" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="G89" s="58" t="s">
         <v>326</v>
       </c>
       <c r="H89" s="28">
@@ -7776,33 +7668,33 @@
         <v>343</v>
       </c>
       <c r="K89" s="34"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="53"/>
-      <c r="BB89" s="53"/>
-      <c r="BC89" s="53"/>
-      <c r="BD89" s="53"/>
-      <c r="BE89" s="53"/>
-      <c r="BF89" s="53"/>
-      <c r="BG89" s="53"/>
-      <c r="BH89" s="53"/>
-      <c r="BI89" s="53"/>
-      <c r="BJ89" s="53"/>
-      <c r="BK89" s="53"/>
-      <c r="BL89" s="53"/>
-      <c r="BM89" s="53"/>
-      <c r="BN89" s="53"/>
-      <c r="BO89" s="53"/>
-      <c r="BP89" s="53"/>
-      <c r="BQ89" s="53"/>
-      <c r="BR89" s="53"/>
-      <c r="BS89" s="53"/>
-      <c r="BT89" s="53"/>
-      <c r="BU89" s="53"/>
-      <c r="BV89" s="53"/>
-      <c r="BW89" s="53"/>
-      <c r="BX89" s="53"/>
-      <c r="BY89" s="53"/>
-      <c r="BZ89" s="53"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="52"/>
+      <c r="BB89" s="52"/>
+      <c r="BC89" s="52"/>
+      <c r="BD89" s="52"/>
+      <c r="BE89" s="52"/>
+      <c r="BF89" s="52"/>
+      <c r="BG89" s="52"/>
+      <c r="BH89" s="52"/>
+      <c r="BI89" s="52"/>
+      <c r="BJ89" s="52"/>
+      <c r="BK89" s="52"/>
+      <c r="BL89" s="52"/>
+      <c r="BM89" s="52"/>
+      <c r="BN89" s="52"/>
+      <c r="BO89" s="52"/>
+      <c r="BP89" s="52"/>
+      <c r="BQ89" s="52"/>
+      <c r="BR89" s="52"/>
+      <c r="BS89" s="52"/>
+      <c r="BT89" s="52"/>
+      <c r="BU89" s="52"/>
+      <c r="BV89" s="52"/>
+      <c r="BW89" s="52"/>
+      <c r="BX89" s="52"/>
+      <c r="BY89" s="52"/>
+      <c r="BZ89" s="52"/>
     </row>
     <row r="90" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A90" s="34" t="s">
@@ -7813,7 +7705,7 @@
       </c>
       <c r="C90" s="34" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
+        <v>2023-08-07</v>
       </c>
       <c r="D90" s="34" t="s">
         <v>153</v>
@@ -7821,11 +7713,11 @@
       <c r="E90" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F90" s="63" t="str">
+      <c r="F90" s="62" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="G90" s="59" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="G90" s="58" t="s">
         <v>326</v>
       </c>
       <c r="H90" s="28">
@@ -7839,173 +7731,173 @@
         <v>339</v>
       </c>
       <c r="K90" s="34"/>
-      <c r="L90" s="53"/>
-      <c r="M90" s="53"/>
-      <c r="BB90" s="53"/>
-      <c r="BC90" s="53"/>
-      <c r="BD90" s="53"/>
-      <c r="BE90" s="53"/>
-      <c r="BF90" s="53"/>
-      <c r="BG90" s="53"/>
-      <c r="BH90" s="53"/>
-      <c r="BI90" s="53"/>
-      <c r="BJ90" s="53"/>
-      <c r="BK90" s="53"/>
-      <c r="BL90" s="53"/>
-      <c r="BM90" s="53"/>
-      <c r="BN90" s="53"/>
-      <c r="BO90" s="53"/>
-      <c r="BP90" s="53"/>
-      <c r="BQ90" s="53"/>
-      <c r="BR90" s="53"/>
-      <c r="BS90" s="53"/>
-      <c r="BT90" s="53"/>
-      <c r="BU90" s="53"/>
-      <c r="BV90" s="53"/>
-      <c r="BW90" s="53"/>
-      <c r="BX90" s="53"/>
-      <c r="BY90" s="53"/>
-      <c r="BZ90" s="53"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="BB90" s="52"/>
+      <c r="BC90" s="52"/>
+      <c r="BD90" s="52"/>
+      <c r="BE90" s="52"/>
+      <c r="BF90" s="52"/>
+      <c r="BG90" s="52"/>
+      <c r="BH90" s="52"/>
+      <c r="BI90" s="52"/>
+      <c r="BJ90" s="52"/>
+      <c r="BK90" s="52"/>
+      <c r="BL90" s="52"/>
+      <c r="BM90" s="52"/>
+      <c r="BN90" s="52"/>
+      <c r="BO90" s="52"/>
+      <c r="BP90" s="52"/>
+      <c r="BQ90" s="52"/>
+      <c r="BR90" s="52"/>
+      <c r="BS90" s="52"/>
+      <c r="BT90" s="52"/>
+      <c r="BU90" s="52"/>
+      <c r="BV90" s="52"/>
+      <c r="BW90" s="52"/>
+      <c r="BX90" s="52"/>
+      <c r="BY90" s="52"/>
+      <c r="BZ90" s="52"/>
     </row>
     <row r="92" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A92" s="108" t="s">
+      <c r="A92" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="109"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="47"/>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
+      <c r="B92" s="108"/>
+      <c r="C92" s="108"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="108"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="108"/>
+      <c r="H92" s="108"/>
+      <c r="I92" s="108"/>
+      <c r="J92" s="108"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
+      <c r="S92" s="46"/>
     </row>
     <row r="93" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A93" s="103"/>
-      <c r="B93" s="104"/>
-      <c r="C93" s="105" t="s">
+      <c r="A93" s="102"/>
+      <c r="B93" s="103"/>
+      <c r="C93" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="105"/>
-      <c r="L93" s="105"/>
-      <c r="M93" s="105"/>
-      <c r="N93" s="105"/>
-      <c r="O93" s="106"/>
-      <c r="P93" s="118" t="s">
+      <c r="D93" s="104"/>
+      <c r="E93" s="104"/>
+      <c r="F93" s="104"/>
+      <c r="G93" s="104"/>
+      <c r="H93" s="104"/>
+      <c r="I93" s="104"/>
+      <c r="J93" s="104"/>
+      <c r="K93" s="104"/>
+      <c r="L93" s="104"/>
+      <c r="M93" s="104"/>
+      <c r="N93" s="104"/>
+      <c r="O93" s="105"/>
+      <c r="P93" s="117" t="s">
         <v>466</v>
       </c>
-      <c r="Q93" s="119"/>
-      <c r="R93" s="119"/>
-      <c r="S93" s="119"/>
+      <c r="Q93" s="118"/>
+      <c r="R93" s="118"/>
+      <c r="S93" s="118"/>
     </row>
     <row r="94" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A94" s="110" t="s">
+      <c r="A94" s="109" t="s">
         <v>349</v>
       </c>
-      <c r="B94" s="110" t="s">
+      <c r="B94" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="C94" s="111" t="s">
+      <c r="C94" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="113"/>
-      <c r="G94" s="114" t="s">
+      <c r="D94" s="111"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="112"/>
+      <c r="G94" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="H94" s="115"/>
-      <c r="I94" s="115"/>
-      <c r="J94" s="116"/>
-      <c r="K94" s="121" t="s">
+      <c r="H94" s="114"/>
+      <c r="I94" s="114"/>
+      <c r="J94" s="115"/>
+      <c r="K94" s="122" t="s">
         <v>504</v>
       </c>
-      <c r="L94" s="121" t="s">
+      <c r="L94" s="122" t="s">
         <v>507</v>
       </c>
-      <c r="M94" s="121" t="s">
+      <c r="M94" s="122" t="s">
         <v>505</v>
       </c>
-      <c r="N94" s="121" t="s">
+      <c r="N94" s="122" t="s">
         <v>506</v>
       </c>
-      <c r="O94" s="123" t="s">
+      <c r="O94" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="P94" s="118" t="s">
+      <c r="P94" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="Q94" s="119"/>
-      <c r="R94" s="120"/>
-      <c r="S94" s="120"/>
+      <c r="Q94" s="118"/>
+      <c r="R94" s="119"/>
+      <c r="S94" s="119"/>
     </row>
     <row r="95" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A95" s="117"/>
-      <c r="B95" s="117"/>
-      <c r="C95" s="66" t="s">
+      <c r="A95" s="116"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="D95" s="66" t="s">
+      <c r="D95" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="E95" s="66" t="s">
+      <c r="E95" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="F95" s="66" t="s">
+      <c r="F95" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="G95" s="67" t="s">
+      <c r="G95" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="H95" s="67" t="s">
+      <c r="H95" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="I95" s="67" t="s">
+      <c r="I95" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="J95" s="67" t="s">
+      <c r="J95" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="K95" s="122"/>
-      <c r="L95" s="122"/>
-      <c r="M95" s="122"/>
-      <c r="N95" s="122"/>
-      <c r="O95" s="124"/>
-      <c r="P95" s="97" t="s">
+      <c r="K95" s="123"/>
+      <c r="L95" s="123"/>
+      <c r="M95" s="123"/>
+      <c r="N95" s="123"/>
+      <c r="O95" s="127"/>
+      <c r="P95" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="Q95" s="97" t="s">
+      <c r="Q95" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="R95" s="97" t="s">
+      <c r="R95" s="96" t="s">
         <v>356</v>
       </c>
-      <c r="S95" s="97" t="s">
+      <c r="S95" s="96" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="41" t="s">
         <v>359</v>
       </c>
       <c r="C96" s="30" t="str">
@@ -8047,339 +7939,339 @@
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
       <c r="N96" s="30"/>
-      <c r="O96" s="42" t="s">
+      <c r="O96" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="P96" s="107"/>
-      <c r="Q96" s="107"/>
-      <c r="R96" s="107"/>
-      <c r="S96" s="107"/>
+      <c r="P96" s="106"/>
+      <c r="Q96" s="106"/>
+      <c r="R96" s="106"/>
+      <c r="S96" s="106"/>
     </row>
     <row r="98" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="130" t="s">
+      <c r="A98" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="B98" s="131"/>
-      <c r="C98" s="131"/>
-      <c r="D98" s="131"/>
-      <c r="E98" s="131"/>
-      <c r="F98" s="131"/>
-      <c r="G98" s="131"/>
-      <c r="H98" s="131"/>
-      <c r="I98" s="131"/>
-      <c r="J98" s="131"/>
-      <c r="K98" s="131"/>
-      <c r="L98" s="131"/>
+      <c r="B98" s="125"/>
+      <c r="C98" s="125"/>
+      <c r="D98" s="125"/>
+      <c r="E98" s="125"/>
+      <c r="F98" s="125"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="125"/>
+      <c r="I98" s="125"/>
+      <c r="J98" s="125"/>
+      <c r="K98" s="125"/>
+      <c r="L98" s="125"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="132" t="s">
+      <c r="A99" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="132" t="s">
+      <c r="B99" s="140" t="s">
         <v>361</v>
       </c>
-      <c r="C99" s="135" t="s">
+      <c r="C99" s="143" t="s">
         <v>362</v>
       </c>
-      <c r="D99" s="138" t="s">
+      <c r="D99" s="146" t="s">
         <v>363</v>
       </c>
-      <c r="E99" s="141" t="s">
+      <c r="E99" s="128" t="s">
         <v>348</v>
       </c>
-      <c r="F99" s="141"/>
-      <c r="G99" s="141"/>
-      <c r="H99" s="141"/>
-      <c r="I99" s="125" t="s">
+      <c r="F99" s="128"/>
+      <c r="G99" s="128"/>
+      <c r="H99" s="128"/>
+      <c r="I99" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="J99" s="125"/>
-      <c r="K99" s="125"/>
-      <c r="L99" s="125"/>
+      <c r="J99" s="129"/>
+      <c r="K99" s="129"/>
+      <c r="L99" s="129"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="133"/>
-      <c r="B100" s="133"/>
-      <c r="C100" s="136"/>
-      <c r="D100" s="139"/>
-      <c r="E100" s="126" t="s">
+      <c r="A100" s="141"/>
+      <c r="B100" s="141"/>
+      <c r="C100" s="144"/>
+      <c r="D100" s="147"/>
+      <c r="E100" s="130" t="s">
         <v>365</v>
       </c>
-      <c r="F100" s="127"/>
-      <c r="G100" s="128" t="s">
+      <c r="F100" s="131"/>
+      <c r="G100" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="H100" s="129"/>
-      <c r="I100" s="126" t="s">
+      <c r="H100" s="133"/>
+      <c r="I100" s="130" t="s">
         <v>365</v>
       </c>
-      <c r="J100" s="127"/>
-      <c r="K100" s="128" t="s">
+      <c r="J100" s="131"/>
+      <c r="K100" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="L100" s="129"/>
+      <c r="L100" s="133"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A101" s="134"/>
-      <c r="B101" s="134" t="s">
+      <c r="A101" s="142"/>
+      <c r="B101" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="137"/>
-      <c r="D101" s="140"/>
-      <c r="E101" s="66" t="s">
+      <c r="C101" s="145"/>
+      <c r="D101" s="148"/>
+      <c r="E101" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="F101" s="66" t="s">
+      <c r="F101" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="G101" s="67" t="s">
+      <c r="G101" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="H101" s="67" t="s">
+      <c r="H101" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="I101" s="66" t="s">
+      <c r="I101" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="J101" s="66" t="s">
+      <c r="J101" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="K101" s="67" t="s">
+      <c r="K101" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="L101" s="67" t="s">
+      <c r="L101" s="66" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A102" s="42" t="str">
+      <c r="A102" s="41" t="str">
         <f>C4</f>
         <v>BANK_82_EPER_001,IND</v>
       </c>
-      <c r="B102" s="42" t="s">
+      <c r="B102" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="C102" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="D102" s="68" t="str">
+      <c r="D102" s="67" t="str">
         <f>TEXT(541.08,"0.00")</f>
         <v>541.08</v>
       </c>
-      <c r="E102" s="69" t="str">
+      <c r="E102" s="68" t="str">
         <f>"$"&amp;TEXT(54601.06,"0.00")</f>
         <v>$54601.06</v>
       </c>
-      <c r="F102" s="69" t="str">
+      <c r="F102" s="68" t="str">
         <f>"$"&amp;TEXT(2041,"0.00")</f>
         <v>$2041.00</v>
       </c>
-      <c r="G102" s="69" t="str">
+      <c r="G102" s="68" t="str">
         <f>"$"&amp;TEXT(8517,"0.00")</f>
         <v>$8517.00</v>
       </c>
-      <c r="H102" s="69" t="str">
+      <c r="H102" s="68" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
-      <c r="I102" s="70" t="str">
+      <c r="I102" s="69" t="str">
         <f>"$"&amp;TEXT(54601.06,"0.00")</f>
         <v>$54601.06</v>
       </c>
-      <c r="J102" s="70" t="str">
+      <c r="J102" s="69" t="str">
         <f>"$"&amp;TEXT(2041,"0.00")</f>
         <v>$2041.00</v>
       </c>
-      <c r="K102" s="70" t="str">
+      <c r="K102" s="69" t="str">
         <f>"$"&amp;TEXT(8517,"0.00")</f>
         <v>$8517.00</v>
       </c>
-      <c r="L102" s="70" t="str">
+      <c r="L102" s="69" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A103" s="57" t="s">
+      <c r="A103" s="56" t="s">
         <v>479</v>
       </c>
-      <c r="B103" s="42" t="s">
+      <c r="B103" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C103" s="57" t="s">
+      <c r="C103" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="D103" s="68" t="str">
+      <c r="D103" s="67" t="str">
         <f>TEXT(196.63,"0.00")</f>
         <v>196.63</v>
       </c>
-      <c r="E103" s="69" t="str">
+      <c r="E103" s="68" t="str">
         <f>"$"&amp;TEXT(19590.64,"0.00")</f>
         <v>$19590.64</v>
       </c>
-      <c r="F103" s="69" t="str">
+      <c r="F103" s="68" t="str">
         <f>"$"&amp;TEXT(1300,"0.00")</f>
         <v>$1300.00</v>
       </c>
-      <c r="G103" s="69" t="str">
+      <c r="G103" s="68" t="str">
         <f>"$"&amp;TEXT(6604.5,"0.00")</f>
         <v>$6604.50</v>
       </c>
-      <c r="H103" s="69" t="str">
+      <c r="H103" s="68" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
-      <c r="I103" s="70" t="str">
+      <c r="I103" s="69" t="str">
         <f>"$"&amp;TEXT(19590.64,"0.00")</f>
         <v>$19590.64</v>
       </c>
-      <c r="J103" s="70" t="str">
+      <c r="J103" s="69" t="str">
         <f>"$"&amp;TEXT(1300,"0.00")</f>
         <v>$1300.00</v>
       </c>
-      <c r="K103" s="70" t="str">
+      <c r="K103" s="69" t="str">
         <f>"$"&amp;TEXT(6604.5,"0.00")</f>
         <v>$6604.50</v>
       </c>
-      <c r="L103" s="70" t="str">
+      <c r="L103" s="69" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A104" s="57" t="s">
+      <c r="A104" s="56" t="s">
         <v>480</v>
       </c>
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="C104" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="D104" s="68" t="str">
+      <c r="D104" s="67" t="str">
         <f>TEXT(2044.34,"0.00")</f>
         <v>2044.34</v>
       </c>
-      <c r="E104" s="69" t="str">
+      <c r="E104" s="68" t="str">
         <f>"$"&amp;TEXT(13670.14,"0.00")</f>
         <v>$13670.14</v>
       </c>
-      <c r="F104" s="69" t="str">
+      <c r="F104" s="68" t="str">
         <f>"$"&amp;TEXT(247,"0.00")</f>
         <v>$247.00</v>
       </c>
-      <c r="G104" s="69" t="str">
+      <c r="G104" s="68" t="str">
         <f>"$"&amp;TEXT(637.5,"0.00")</f>
         <v>$637.50</v>
       </c>
-      <c r="H104" s="69" t="str">
+      <c r="H104" s="68" t="str">
         <f>"$"&amp;TEXT(0,"0.00")</f>
         <v>$0.00</v>
       </c>
-      <c r="I104" s="70" t="str">
+      <c r="I104" s="69" t="str">
         <f>"$"&amp;TEXT(13670.14,"0.00")</f>
         <v>$13670.14</v>
       </c>
-      <c r="J104" s="70" t="str">
+      <c r="J104" s="69" t="str">
         <f>"$"&amp;TEXT(247,"0.00")</f>
         <v>$247.00</v>
       </c>
-      <c r="K104" s="70" t="str">
+      <c r="K104" s="69" t="str">
         <f>"$"&amp;TEXT(637.5,"0.00")</f>
         <v>$637.50</v>
       </c>
-      <c r="L104" s="70" t="str">
+      <c r="L104" s="69" t="str">
         <f>"$"&amp;TEXT(0,"0.00")</f>
         <v>$0.00</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="130" t="s">
+      <c r="A106" s="124" t="s">
         <v>371</v>
       </c>
-      <c r="B106" s="131"/>
-      <c r="C106" s="131"/>
-      <c r="D106" s="131"/>
-      <c r="E106" s="131"/>
-      <c r="F106" s="131"/>
-      <c r="G106" s="131"/>
-      <c r="H106" s="131"/>
-      <c r="I106" s="131"/>
-      <c r="J106" s="131"/>
+      <c r="B106" s="125"/>
+      <c r="C106" s="125"/>
+      <c r="D106" s="125"/>
+      <c r="E106" s="125"/>
+      <c r="F106" s="125"/>
+      <c r="G106" s="125"/>
+      <c r="H106" s="125"/>
+      <c r="I106" s="125"/>
+      <c r="J106" s="125"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A107" s="64"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="145" t="s">
+      <c r="A107" s="63"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="158" t="s">
         <v>348</v>
       </c>
-      <c r="D107" s="145"/>
-      <c r="E107" s="145"/>
-      <c r="F107" s="145"/>
-      <c r="G107" s="145"/>
-      <c r="H107" s="145"/>
-      <c r="I107" s="145"/>
-      <c r="J107" s="145"/>
-      <c r="K107" s="145"/>
-      <c r="Z107" s="71"/>
+      <c r="D107" s="158"/>
+      <c r="E107" s="158"/>
+      <c r="F107" s="158"/>
+      <c r="G107" s="158"/>
+      <c r="H107" s="158"/>
+      <c r="I107" s="158"/>
+      <c r="J107" s="158"/>
+      <c r="K107" s="158"/>
+      <c r="Z107" s="70"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A108" s="123" t="s">
+      <c r="A108" s="126" t="s">
         <v>349</v>
       </c>
-      <c r="B108" s="123" t="s">
+      <c r="B108" s="126" t="s">
         <v>350</v>
       </c>
-      <c r="C108" s="126" t="s">
+      <c r="C108" s="130" t="s">
         <v>351</v>
       </c>
-      <c r="D108" s="146"/>
-      <c r="E108" s="146"/>
-      <c r="F108" s="127"/>
-      <c r="G108" s="128" t="s">
+      <c r="D108" s="159"/>
+      <c r="E108" s="159"/>
+      <c r="F108" s="131"/>
+      <c r="G108" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="H108" s="161"/>
-      <c r="I108" s="161"/>
-      <c r="J108" s="129"/>
-      <c r="K108" s="121" t="s">
+      <c r="H108" s="149"/>
+      <c r="I108" s="149"/>
+      <c r="J108" s="133"/>
+      <c r="K108" s="122" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A109" s="124"/>
-      <c r="B109" s="124"/>
-      <c r="C109" s="66" t="s">
+      <c r="A109" s="127"/>
+      <c r="B109" s="127"/>
+      <c r="C109" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="D109" s="66" t="s">
+      <c r="D109" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="E109" s="66" t="s">
+      <c r="E109" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="F109" s="66" t="s">
+      <c r="F109" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="G109" s="67" t="s">
+      <c r="G109" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="H109" s="67" t="s">
+      <c r="H109" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="I109" s="67" t="s">
+      <c r="I109" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="J109" s="67" t="s">
+      <c r="J109" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="K109" s="122"/>
+      <c r="K109" s="123"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A110" s="57" t="s">
+      <c r="A110" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="B110" s="72"/>
+      <c r="B110" s="71"/>
       <c r="C110" s="30" t="str">
         <f>"$"&amp;TEXT(54601.06,"0.00")</f>
         <v>$54601.06</v>
@@ -8418,2889 +8310,2889 @@
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A112" s="46" t="s">
+      <c r="A112" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A113" s="44" t="s">
+      <c r="A113" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="C113" s="44" t="s">
+      <c r="C113" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="D113" s="44" t="s">
+      <c r="D113" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="E113" s="44" t="s">
+      <c r="E113" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F113" s="44" t="s">
+      <c r="F113" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="G113" s="44" t="s">
+      <c r="G113" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="H113" s="44" t="s">
+      <c r="H113" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="I113" s="44" t="s">
+      <c r="I113" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="J113" s="44" t="s">
+      <c r="J113" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="K113" s="44" t="s">
+      <c r="K113" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="L113" s="44" t="s">
+      <c r="L113" s="43" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:48" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="73" t="s">
+      <c r="A114" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B114" s="74" t="s">
+      <c r="B114" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="C114" s="74" t="s">
+      <c r="C114" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="D114" s="74" t="s">
+      <c r="D114" s="73" t="s">
         <v>382</v>
       </c>
-      <c r="E114" s="74" t="s">
+      <c r="E114" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="75">
+      <c r="F114" s="73"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="74">
         <f ca="1">TODAY()</f>
-        <v>45104</v>
-      </c>
-      <c r="K114" s="75">
+        <v>45145</v>
+      </c>
+      <c r="K114" s="74">
         <v>234</v>
       </c>
-      <c r="L114" s="74" t="s">
+      <c r="L114" s="73" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A116" s="46" t="s">
+      <c r="A116" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
     </row>
     <row r="117" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A117" s="44" t="s">
+      <c r="A117" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="B117" s="44" t="s">
+      <c r="B117" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="C117" s="44" t="s">
+      <c r="C117" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="D117" s="44" t="s">
+      <c r="D117" s="43" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="118" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A118" s="76" t="str">
+      <c r="A118" s="75" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B118" s="77" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B118" s="76" t="s">
         <v>391</v>
       </c>
-      <c r="C118" s="77" t="s">
+      <c r="C118" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="D118" s="77" t="s">
+      <c r="D118" s="76" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A119" s="76" t="str">
+      <c r="A119" s="75" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B119" s="77" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B119" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="C119" s="77" t="s">
+      <c r="C119" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="D119" s="77" t="s">
+      <c r="D119" s="76" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="120" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A120" s="76" t="str">
+      <c r="A120" s="75" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B120" s="77" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B120" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="C120" s="77" t="s">
+      <c r="C120" s="76" t="s">
         <v>389</v>
       </c>
-      <c r="D120" s="77" t="s">
+      <c r="D120" s="76" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="122" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A122" s="142" t="s">
+      <c r="A122" s="120" t="s">
         <v>395</v>
       </c>
-      <c r="B122" s="143"/>
-      <c r="C122" s="143"/>
-      <c r="D122" s="143"/>
-      <c r="E122" s="143"/>
-      <c r="F122" s="143"/>
-      <c r="G122" s="143"/>
-      <c r="H122" s="143"/>
-      <c r="I122" s="143"/>
-      <c r="J122" s="143"/>
-      <c r="K122" s="143"/>
-      <c r="L122" s="143"/>
-      <c r="M122" s="143"/>
-      <c r="N122" s="143"/>
-      <c r="O122" s="143"/>
-      <c r="P122" s="143"/>
-      <c r="Q122" s="143"/>
-      <c r="R122" s="143"/>
-      <c r="S122" s="65"/>
-      <c r="T122" s="65"/>
-      <c r="U122" s="65"/>
-      <c r="V122" s="65"/>
-      <c r="W122" s="65"/>
-      <c r="X122" s="65"/>
-      <c r="Y122" s="65"/>
-      <c r="Z122" s="65"/>
+      <c r="B122" s="121"/>
+      <c r="C122" s="121"/>
+      <c r="D122" s="121"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="121"/>
+      <c r="G122" s="121"/>
+      <c r="H122" s="121"/>
+      <c r="I122" s="121"/>
+      <c r="J122" s="121"/>
+      <c r="K122" s="121"/>
+      <c r="L122" s="121"/>
+      <c r="M122" s="121"/>
+      <c r="N122" s="121"/>
+      <c r="O122" s="121"/>
+      <c r="P122" s="121"/>
+      <c r="Q122" s="121"/>
+      <c r="R122" s="121"/>
+      <c r="S122" s="64"/>
+      <c r="T122" s="64"/>
+      <c r="U122" s="64"/>
+      <c r="V122" s="64"/>
+      <c r="W122" s="64"/>
+      <c r="X122" s="64"/>
+      <c r="Y122" s="64"/>
+      <c r="Z122" s="64"/>
     </row>
     <row r="123" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A123" s="78" t="s">
+      <c r="A123" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B123" s="78" t="s">
+      <c r="B123" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C123" s="78" t="s">
+      <c r="C123" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D123" s="78" t="s">
+      <c r="D123" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E123" s="78" t="s">
+      <c r="E123" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F123" s="78" t="s">
+      <c r="F123" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G123" s="78" t="s">
+      <c r="G123" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H123" s="78" t="s">
+      <c r="H123" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I123" s="78" t="s">
+      <c r="I123" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J123" s="78" t="s">
+      <c r="J123" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="K123" s="78" t="s">
+      <c r="K123" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="L123" s="78" t="s">
+      <c r="L123" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M123" s="78" t="s">
+      <c r="M123" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="N123" s="78" t="s">
+      <c r="N123" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="O123" s="78" t="s">
+      <c r="O123" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="P123" s="78" t="s">
+      <c r="P123" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q123" s="78" t="s">
+      <c r="Q123" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="R123" s="78" t="s">
+      <c r="R123" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="S123" s="78" t="s">
+      <c r="S123" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="T123" s="78" t="s">
+      <c r="T123" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="U123" s="78" t="s">
+      <c r="U123" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="V123" s="78" t="s">
+      <c r="V123" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="W123" s="78" t="s">
+      <c r="W123" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="X123" s="78" t="s">
+      <c r="X123" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="Y123" s="78" t="s">
+      <c r="Y123" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="Z123" s="78" t="s">
+      <c r="Z123" s="77" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A124" s="79" t="s">
+      <c r="A124" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="B124" s="80"/>
-      <c r="C124" s="81" t="s">
+      <c r="B124" s="79"/>
+      <c r="C124" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="D124" s="81" t="str">
+      <c r="D124" s="80" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E124" s="82"/>
-      <c r="F124" s="82">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E124" s="81"/>
+      <c r="F124" s="81">
         <v>11</v>
       </c>
-      <c r="G124" s="82" t="s">
+      <c r="G124" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="H124" s="82">
+      <c r="H124" s="81">
         <f>F124</f>
         <v>11</v>
       </c>
-      <c r="I124" s="81" t="s">
+      <c r="I124" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="J124" s="82" t="str">
+      <c r="J124" s="81" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
-      <c r="K124" s="82" t="str">
+      <c r="K124" s="81" t="str">
         <f>TEXT(H124*J124,"0")</f>
         <v>44</v>
       </c>
-      <c r="L124" s="82"/>
-      <c r="M124" s="82" t="str">
+      <c r="L124" s="81"/>
+      <c r="M124" s="81" t="str">
         <f>TEXT(52,"0")</f>
         <v>52</v>
       </c>
-      <c r="N124" s="81" t="s">
+      <c r="N124" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="O124" s="81" t="s">
+      <c r="O124" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="P124" s="81" t="s">
+      <c r="P124" s="80" t="s">
         <v>419</v>
       </c>
-      <c r="Q124" s="81" t="s">
+      <c r="Q124" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="R124" s="81"/>
-      <c r="S124" s="81" t="s">
+      <c r="R124" s="80"/>
+      <c r="S124" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="T124" s="81" t="s">
+      <c r="T124" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="U124" s="81">
+      <c r="U124" s="80">
         <v>8797366188</v>
       </c>
-      <c r="V124" s="81" t="s">
+      <c r="V124" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="W124" s="81" t="s">
+      <c r="W124" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="X124" s="81" t="s">
+      <c r="X124" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="Y124" s="81" t="s">
+      <c r="Y124" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="Z124" s="81"/>
+      <c r="Z124" s="80"/>
       <c r="AU124" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="AV124" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A125" s="79" t="s">
+      <c r="A125" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="B125" s="80"/>
-      <c r="C125" s="86" t="s">
+      <c r="B125" s="79"/>
+      <c r="C125" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="D125" s="86" t="str">
+      <c r="D125" s="85" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-07-27</v>
-      </c>
-      <c r="E125" s="86"/>
-      <c r="F125" s="86">
+        <v>2023-09-06</v>
+      </c>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85">
         <v>10</v>
       </c>
-      <c r="G125" s="86" t="s">
+      <c r="G125" s="85" t="s">
         <v>414</v>
       </c>
-      <c r="H125" s="86">
+      <c r="H125" s="85">
         <f>F125</f>
         <v>10</v>
       </c>
-      <c r="I125" s="86" t="s">
+      <c r="I125" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J125" s="86" t="str">
+      <c r="J125" s="85" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
-      <c r="K125" s="86" t="str">
+      <c r="K125" s="85" t="str">
         <f>TEXT(H125*J125,"0")</f>
         <v>40</v>
       </c>
-      <c r="L125" s="86"/>
-      <c r="M125" s="86" t="str">
+      <c r="L125" s="85"/>
+      <c r="M125" s="85" t="str">
         <f>TEXT(52,"0")</f>
         <v>52</v>
       </c>
-      <c r="N125" s="86"/>
-      <c r="O125" s="86" t="s">
+      <c r="N125" s="85"/>
+      <c r="O125" s="85" t="s">
         <v>421</v>
       </c>
-      <c r="P125" s="86" t="s">
+      <c r="P125" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="Q125" s="86" t="s">
+      <c r="Q125" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="R125" s="86"/>
-      <c r="S125" s="86" t="s">
+      <c r="R125" s="85"/>
+      <c r="S125" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="T125" s="86" t="s">
+      <c r="T125" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="U125" s="86">
+      <c r="U125" s="85">
         <v>8797366188</v>
       </c>
-      <c r="V125" s="86" t="s">
+      <c r="V125" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="W125" s="86" t="s">
+      <c r="W125" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="X125" s="86" t="s">
+      <c r="X125" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="Y125" s="86" t="s">
+      <c r="Y125" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="Z125" s="86"/>
+      <c r="Z125" s="85"/>
       <c r="AU125" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="AV125" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A126" s="79" t="s">
+      <c r="A126" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="B126" s="80"/>
-      <c r="C126" s="83" t="s">
+      <c r="B126" s="79"/>
+      <c r="C126" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="D126" s="83" t="str">
+      <c r="D126" s="82" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E126" s="83" t="str">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E126" s="82" t="str">
         <f ca="1">TEXT(TODAY()+29,"YYYY-MM-DD")</f>
-        <v>2023-07-26</v>
-      </c>
-      <c r="F126" s="83">
+        <v>2023-09-05</v>
+      </c>
+      <c r="F126" s="82">
         <v>11</v>
       </c>
-      <c r="G126" s="83" t="s">
+      <c r="G126" s="82" t="s">
         <v>414</v>
       </c>
-      <c r="H126" s="83">
+      <c r="H126" s="82">
         <f>F126</f>
         <v>11</v>
       </c>
-      <c r="I126" s="83" t="s">
+      <c r="I126" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="J126" s="83" t="str">
+      <c r="J126" s="82" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
-      <c r="K126" s="83" t="str">
+      <c r="K126" s="82" t="str">
         <f>TEXT(H126*J126,"0")</f>
         <v>44</v>
       </c>
-      <c r="L126" s="83"/>
-      <c r="M126" s="83" t="str">
+      <c r="L126" s="82"/>
+      <c r="M126" s="82" t="str">
         <f>TEXT(52,"0")</f>
         <v>52</v>
       </c>
-      <c r="N126" s="83"/>
-      <c r="O126" s="83" t="s">
+      <c r="N126" s="82"/>
+      <c r="O126" s="82" t="s">
         <v>421</v>
       </c>
-      <c r="P126" s="83" t="s">
+      <c r="P126" s="82" t="s">
         <v>419</v>
       </c>
-      <c r="Q126" s="83" t="s">
+      <c r="Q126" s="82" t="s">
         <v>420</v>
       </c>
-      <c r="R126" s="83"/>
-      <c r="S126" s="83" t="s">
+      <c r="R126" s="82"/>
+      <c r="S126" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="T126" s="83" t="s">
+      <c r="T126" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="U126" s="83">
+      <c r="U126" s="82">
         <v>8797366188</v>
       </c>
-      <c r="V126" s="83" t="s">
+      <c r="V126" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="W126" s="83" t="s">
+      <c r="W126" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="X126" s="83" t="s">
+      <c r="X126" s="82" t="s">
         <v>416</v>
       </c>
-      <c r="Y126" s="83" t="s">
+      <c r="Y126" s="82" t="s">
         <v>417</v>
       </c>
-      <c r="Z126" s="83"/>
+      <c r="Z126" s="82"/>
       <c r="AU126" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="128" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A128" s="142" t="s">
+      <c r="A128" s="120" t="s">
         <v>427</v>
       </c>
-      <c r="B128" s="143"/>
-      <c r="C128" s="143"/>
-      <c r="D128" s="143"/>
-      <c r="E128" s="143"/>
-      <c r="F128" s="143"/>
-      <c r="G128" s="143"/>
-      <c r="H128" s="143"/>
-      <c r="I128" s="143"/>
-      <c r="J128" s="143"/>
-      <c r="K128" s="143"/>
-      <c r="L128" s="143"/>
-      <c r="M128" s="143"/>
-      <c r="N128" s="143"/>
-      <c r="O128" s="143"/>
-      <c r="P128" s="143"/>
-      <c r="Q128" s="143"/>
-      <c r="R128" s="143"/>
-      <c r="S128" s="84"/>
-      <c r="T128" s="84"/>
-      <c r="U128" s="84"/>
-      <c r="V128" s="84"/>
-      <c r="W128" s="84"/>
-      <c r="X128" s="84"/>
-      <c r="Y128" s="84"/>
-      <c r="Z128" s="84"/>
+      <c r="B128" s="121"/>
+      <c r="C128" s="121"/>
+      <c r="D128" s="121"/>
+      <c r="E128" s="121"/>
+      <c r="F128" s="121"/>
+      <c r="G128" s="121"/>
+      <c r="H128" s="121"/>
+      <c r="I128" s="121"/>
+      <c r="J128" s="121"/>
+      <c r="K128" s="121"/>
+      <c r="L128" s="121"/>
+      <c r="M128" s="121"/>
+      <c r="N128" s="121"/>
+      <c r="O128" s="121"/>
+      <c r="P128" s="121"/>
+      <c r="Q128" s="121"/>
+      <c r="R128" s="121"/>
+      <c r="S128" s="83"/>
+      <c r="T128" s="83"/>
+      <c r="U128" s="83"/>
+      <c r="V128" s="83"/>
+      <c r="W128" s="83"/>
+      <c r="X128" s="83"/>
+      <c r="Y128" s="83"/>
+      <c r="Z128" s="83"/>
     </row>
     <row r="129" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A129" s="78" t="s">
+      <c r="A129" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B129" s="78" t="s">
+      <c r="B129" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C129" s="78" t="s">
+      <c r="C129" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D129" s="78" t="s">
+      <c r="D129" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E129" s="78" t="s">
+      <c r="E129" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F129" s="78" t="s">
+      <c r="F129" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G129" s="78" t="s">
+      <c r="G129" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H129" s="78" t="s">
+      <c r="H129" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I129" s="78" t="s">
+      <c r="I129" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J129" s="78" t="s">
+      <c r="J129" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="K129" s="78" t="s">
+      <c r="K129" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="L129" s="78" t="s">
+      <c r="L129" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M129" s="78" t="s">
+      <c r="M129" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="N129" s="78" t="s">
+      <c r="N129" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="O129" s="78" t="s">
+      <c r="O129" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="P129" s="78" t="s">
+      <c r="P129" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q129" s="78" t="s">
+      <c r="Q129" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="R129" s="78" t="s">
+      <c r="R129" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="S129" s="78" t="s">
+      <c r="S129" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="T129" s="78" t="s">
+      <c r="T129" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="U129" s="78" t="s">
+      <c r="U129" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="V129" s="78" t="s">
+      <c r="V129" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="W129" s="78" t="s">
+      <c r="W129" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="X129" s="78" t="s">
+      <c r="X129" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="Y129" s="78" t="s">
+      <c r="Y129" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="Z129" s="78" t="s">
+      <c r="Z129" s="77" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="130" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="80" t="s">
+      <c r="A130" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B130" s="80"/>
-      <c r="C130" s="81" t="s">
+      <c r="B130" s="79"/>
+      <c r="C130" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="D130" s="82" t="str">
+      <c r="D130" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E130" s="81"/>
-      <c r="F130" s="81" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E130" s="80"/>
+      <c r="F130" s="80" t="s">
         <v>424</v>
       </c>
-      <c r="G130" s="81" t="s">
+      <c r="G130" s="80" t="s">
         <v>414</v>
       </c>
-      <c r="H130" s="81" t="s">
+      <c r="H130" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="I130" s="81" t="s">
+      <c r="I130" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="J130" s="81" t="s">
+      <c r="J130" s="80" t="s">
         <v>431</v>
       </c>
-      <c r="K130" s="81" t="s">
+      <c r="K130" s="80" t="s">
         <v>430</v>
       </c>
-      <c r="L130" s="81"/>
-      <c r="M130" s="81" t="s">
+      <c r="L130" s="80"/>
+      <c r="M130" s="80" t="s">
         <v>429</v>
       </c>
-      <c r="N130" s="81" t="s">
+      <c r="N130" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="O130" s="81" t="s">
+      <c r="O130" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="P130" s="81" t="s">
+      <c r="P130" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="Q130" s="81"/>
-      <c r="R130" s="81"/>
-      <c r="S130" s="87" t="s">
+      <c r="Q130" s="80"/>
+      <c r="R130" s="80"/>
+      <c r="S130" s="86" t="s">
         <v>426</v>
       </c>
-      <c r="T130" s="81" t="s">
+      <c r="T130" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="U130" s="81">
+      <c r="U130" s="80">
         <v>8797366188</v>
       </c>
-      <c r="V130" s="81" t="s">
+      <c r="V130" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="W130" s="81">
+      <c r="W130" s="80">
         <v>1</v>
       </c>
-      <c r="X130" s="81">
+      <c r="X130" s="80">
         <v>0</v>
       </c>
-      <c r="Y130" s="81"/>
-      <c r="Z130" s="81"/>
+      <c r="Y130" s="80"/>
+      <c r="Z130" s="80"/>
       <c r="AU130" t="s">
-        <v>555</v>
+        <v>512</v>
       </c>
       <c r="AV130" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
     </row>
     <row r="131" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="80" t="s">
+      <c r="A131" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B131" s="80"/>
-      <c r="C131" s="86" t="s">
+      <c r="B131" s="79"/>
+      <c r="C131" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="D131" s="86" t="str">
+      <c r="D131" s="85" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-07-27</v>
-      </c>
-      <c r="E131" s="86"/>
-      <c r="F131" s="86" t="s">
+        <v>2023-09-06</v>
+      </c>
+      <c r="E131" s="85"/>
+      <c r="F131" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="G131" s="86" t="s">
+      <c r="G131" s="85" t="s">
         <v>414</v>
       </c>
-      <c r="H131" s="86" t="s">
+      <c r="H131" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="I131" s="86" t="s">
+      <c r="I131" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J131" s="86" t="s">
+      <c r="J131" s="85" t="s">
         <v>431</v>
       </c>
-      <c r="K131" s="86" t="s">
+      <c r="K131" s="85" t="s">
         <v>430</v>
       </c>
-      <c r="L131" s="86"/>
-      <c r="M131" s="86" t="s">
+      <c r="L131" s="85"/>
+      <c r="M131" s="85" t="s">
         <v>429</v>
       </c>
-      <c r="N131" s="86" t="s">
+      <c r="N131" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="O131" s="86" t="s">
+      <c r="O131" s="85" t="s">
         <v>428</v>
       </c>
-      <c r="P131" s="86" t="s">
+      <c r="P131" s="85" t="s">
         <v>425</v>
       </c>
-      <c r="Q131" s="86"/>
-      <c r="R131" s="86"/>
-      <c r="S131" s="86" t="s">
+      <c r="Q131" s="85"/>
+      <c r="R131" s="85"/>
+      <c r="S131" s="85" t="s">
         <v>426</v>
       </c>
-      <c r="T131" s="86" t="s">
+      <c r="T131" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="U131" s="86">
+      <c r="U131" s="85">
         <v>8797366188</v>
       </c>
-      <c r="V131" s="86" t="s">
+      <c r="V131" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="W131" s="86">
+      <c r="W131" s="85">
         <v>1</v>
       </c>
-      <c r="X131" s="86">
+      <c r="X131" s="85">
         <v>0</v>
       </c>
-      <c r="Y131" s="86"/>
-      <c r="Z131" s="86"/>
+      <c r="Y131" s="85"/>
+      <c r="Z131" s="85"/>
       <c r="AU131" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="AV131" t="s">
-        <v>558</v>
+        <v>515</v>
       </c>
     </row>
     <row r="132" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="80" t="s">
+      <c r="A132" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B132" s="80"/>
-      <c r="C132" s="83" t="s">
+      <c r="B132" s="79"/>
+      <c r="C132" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="D132" s="83" t="str">
+      <c r="D132" s="82" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E132" s="83" t="str">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E132" s="82" t="str">
         <f ca="1">TEXT(TODAY()+29,"YYYY-MM-DD")</f>
-        <v>2023-07-26</v>
-      </c>
-      <c r="F132" s="83" t="s">
+        <v>2023-09-05</v>
+      </c>
+      <c r="F132" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="G132" s="83" t="s">
+      <c r="G132" s="82" t="s">
         <v>414</v>
       </c>
-      <c r="H132" s="83" t="s">
+      <c r="H132" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="I132" s="83" t="s">
+      <c r="I132" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="J132" s="83" t="s">
+      <c r="J132" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="K132" s="83" t="s">
+      <c r="K132" s="82" t="s">
         <v>430</v>
       </c>
-      <c r="L132" s="83"/>
-      <c r="M132" s="83" t="s">
+      <c r="L132" s="82"/>
+      <c r="M132" s="82" t="s">
         <v>429</v>
       </c>
-      <c r="N132" s="83" t="s">
+      <c r="N132" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="O132" s="83" t="s">
+      <c r="O132" s="82" t="s">
         <v>428</v>
       </c>
-      <c r="P132" s="83" t="s">
+      <c r="P132" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="Q132" s="83"/>
-      <c r="R132" s="83"/>
-      <c r="S132" s="83" t="s">
+      <c r="Q132" s="82"/>
+      <c r="R132" s="82"/>
+      <c r="S132" s="82" t="s">
         <v>426</v>
       </c>
-      <c r="T132" s="83" t="s">
+      <c r="T132" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="U132" s="83">
+      <c r="U132" s="82">
         <v>8797366188</v>
       </c>
-      <c r="V132" s="83" t="s">
+      <c r="V132" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="W132" s="83">
+      <c r="W132" s="82">
         <v>1</v>
       </c>
-      <c r="X132" s="83">
+      <c r="X132" s="82">
         <v>0</v>
       </c>
-      <c r="Y132" s="83"/>
-      <c r="Z132" s="83"/>
+      <c r="Y132" s="82"/>
+      <c r="Z132" s="82"/>
       <c r="AU132" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A134" s="142" t="s">
+      <c r="A134" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="B134" s="143"/>
-      <c r="C134" s="143"/>
-      <c r="D134" s="143"/>
-      <c r="E134" s="143"/>
-      <c r="F134" s="143"/>
-      <c r="G134" s="143"/>
-      <c r="H134" s="143"/>
-      <c r="I134" s="143"/>
-      <c r="J134" s="143"/>
-      <c r="K134" s="143"/>
-      <c r="L134" s="143"/>
-      <c r="M134" s="143"/>
-      <c r="N134" s="143"/>
-      <c r="O134" s="143"/>
-      <c r="P134" s="143"/>
-      <c r="Q134" s="143"/>
-      <c r="R134" s="143"/>
-      <c r="S134" s="85"/>
-      <c r="T134" s="85"/>
-      <c r="U134" s="85"/>
-      <c r="V134" s="85"/>
-      <c r="W134" s="85"/>
-      <c r="X134" s="85"/>
-      <c r="Y134" s="85"/>
-      <c r="Z134" s="85"/>
+      <c r="B134" s="121"/>
+      <c r="C134" s="121"/>
+      <c r="D134" s="121"/>
+      <c r="E134" s="121"/>
+      <c r="F134" s="121"/>
+      <c r="G134" s="121"/>
+      <c r="H134" s="121"/>
+      <c r="I134" s="121"/>
+      <c r="J134" s="121"/>
+      <c r="K134" s="121"/>
+      <c r="L134" s="121"/>
+      <c r="M134" s="121"/>
+      <c r="N134" s="121"/>
+      <c r="O134" s="121"/>
+      <c r="P134" s="121"/>
+      <c r="Q134" s="121"/>
+      <c r="R134" s="121"/>
+      <c r="S134" s="84"/>
+      <c r="T134" s="84"/>
+      <c r="U134" s="84"/>
+      <c r="V134" s="84"/>
+      <c r="W134" s="84"/>
+      <c r="X134" s="84"/>
+      <c r="Y134" s="84"/>
+      <c r="Z134" s="84"/>
     </row>
     <row r="135" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A135" s="78" t="s">
+      <c r="A135" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="78" t="s">
+      <c r="B135" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C135" s="78" t="s">
+      <c r="C135" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D135" s="78" t="s">
+      <c r="D135" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E135" s="78" t="s">
+      <c r="E135" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F135" s="78" t="s">
+      <c r="F135" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G135" s="78" t="s">
+      <c r="G135" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H135" s="78" t="s">
+      <c r="H135" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I135" s="78" t="s">
+      <c r="I135" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J135" s="78" t="s">
+      <c r="J135" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="K135" s="78" t="s">
+      <c r="K135" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="L135" s="78" t="s">
+      <c r="L135" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M135" s="78" t="s">
+      <c r="M135" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="N135" s="78" t="s">
+      <c r="N135" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="O135" s="78" t="s">
+      <c r="O135" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="P135" s="78" t="s">
+      <c r="P135" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q135" s="78" t="s">
+      <c r="Q135" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="R135" s="78" t="s">
+      <c r="R135" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="S135" s="78" t="s">
+      <c r="S135" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="T135" s="78" t="s">
+      <c r="T135" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="U135" s="78" t="s">
+      <c r="U135" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="V135" s="78" t="s">
+      <c r="V135" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="W135" s="78" t="s">
+      <c r="W135" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="X135" s="78" t="s">
+      <c r="X135" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="Y135" s="78" t="s">
+      <c r="Y135" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="Z135" s="78" t="s">
+      <c r="Z135" s="77" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="80" t="s">
+      <c r="A136" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="B136" s="80"/>
-      <c r="C136" s="81" t="s">
+      <c r="B136" s="79"/>
+      <c r="C136" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="D136" s="82" t="str">
+      <c r="D136" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E136" s="81"/>
-      <c r="F136" s="81" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E136" s="80"/>
+      <c r="F136" s="80" t="s">
         <v>424</v>
       </c>
-      <c r="G136" s="81" t="s">
+      <c r="G136" s="80" t="s">
         <v>435</v>
       </c>
-      <c r="H136" s="81" t="s">
+      <c r="H136" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="I136" s="81" t="s">
+      <c r="I136" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="J136" s="81" t="s">
+      <c r="J136" s="80" t="s">
         <v>431</v>
       </c>
-      <c r="K136" s="81" t="s">
+      <c r="K136" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="L136" s="81"/>
-      <c r="M136" s="81" t="s">
+      <c r="L136" s="80"/>
+      <c r="M136" s="80" t="s">
         <v>429</v>
       </c>
-      <c r="N136" s="81" t="s">
+      <c r="N136" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="O136" s="81" t="s">
+      <c r="O136" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="P136" s="81" t="s">
+      <c r="P136" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="Q136" s="81"/>
-      <c r="R136" s="81"/>
-      <c r="S136" s="87" t="s">
+      <c r="Q136" s="80"/>
+      <c r="R136" s="80"/>
+      <c r="S136" s="86" t="s">
         <v>426</v>
       </c>
-      <c r="T136" s="81" t="s">
+      <c r="T136" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="U136" s="81">
+      <c r="U136" s="80">
         <v>8797366188</v>
       </c>
-      <c r="V136" s="81" t="s">
+      <c r="V136" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="W136" s="81">
+      <c r="W136" s="80">
         <v>1</v>
       </c>
-      <c r="X136" s="81">
+      <c r="X136" s="80">
         <v>0</v>
       </c>
-      <c r="Y136" s="81"/>
-      <c r="Z136" s="81"/>
+      <c r="Y136" s="80"/>
+      <c r="Z136" s="80"/>
       <c r="AU136" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
       <c r="AV136" t="s">
-        <v>560</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="80" t="s">
+      <c r="A137" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="B137" s="80"/>
-      <c r="C137" s="86" t="s">
+      <c r="B137" s="79"/>
+      <c r="C137" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="D137" s="86" t="str">
+      <c r="D137" s="85" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-07-27</v>
-      </c>
-      <c r="E137" s="86"/>
-      <c r="F137" s="86" t="s">
+        <v>2023-09-06</v>
+      </c>
+      <c r="E137" s="85"/>
+      <c r="F137" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="G137" s="86" t="s">
+      <c r="G137" s="85" t="s">
         <v>435</v>
       </c>
-      <c r="H137" s="86">
+      <c r="H137" s="85">
         <v>12.95</v>
       </c>
-      <c r="I137" s="86" t="s">
+      <c r="I137" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J137" s="86">
+      <c r="J137" s="85">
         <v>4</v>
       </c>
-      <c r="K137" s="86" t="s">
+      <c r="K137" s="85" t="s">
         <v>434</v>
       </c>
-      <c r="L137" s="86"/>
-      <c r="M137" s="86" t="s">
+      <c r="L137" s="85"/>
+      <c r="M137" s="85" t="s">
         <v>429</v>
       </c>
-      <c r="N137" s="86" t="s">
+      <c r="N137" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="O137" s="86" t="s">
+      <c r="O137" s="85" t="s">
         <v>428</v>
       </c>
-      <c r="P137" s="86" t="s">
+      <c r="P137" s="85" t="s">
         <v>425</v>
       </c>
-      <c r="Q137" s="86"/>
-      <c r="R137" s="86"/>
-      <c r="S137" s="86" t="s">
+      <c r="Q137" s="85"/>
+      <c r="R137" s="85"/>
+      <c r="S137" s="85" t="s">
         <v>426</v>
       </c>
-      <c r="T137" s="86" t="s">
+      <c r="T137" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="U137" s="86">
+      <c r="U137" s="85">
         <v>8797366188</v>
       </c>
-      <c r="V137" s="86" t="s">
+      <c r="V137" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="W137" s="86">
+      <c r="W137" s="85">
         <v>1</v>
       </c>
-      <c r="X137" s="86">
+      <c r="X137" s="85">
         <v>0</v>
       </c>
-      <c r="Y137" s="86"/>
-      <c r="Z137" s="86"/>
+      <c r="Y137" s="85"/>
+      <c r="Z137" s="85"/>
       <c r="AU137" t="s">
-        <v>561</v>
+        <v>518</v>
       </c>
       <c r="AV137" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="80" t="s">
+      <c r="A138" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="B138" s="80"/>
-      <c r="C138" s="83" t="s">
+      <c r="B138" s="79"/>
+      <c r="C138" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="D138" s="83" t="str">
+      <c r="D138" s="82" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E138" s="83" t="str">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E138" s="82" t="str">
         <f ca="1">TEXT(TODAY()+29,"YYYY-MM-DD")</f>
-        <v>2023-07-26</v>
-      </c>
-      <c r="F138" s="83" t="s">
+        <v>2023-09-05</v>
+      </c>
+      <c r="F138" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="G138" s="83" t="s">
+      <c r="G138" s="82" t="s">
         <v>435</v>
       </c>
-      <c r="H138" s="83" t="s">
+      <c r="H138" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="I138" s="83" t="s">
+      <c r="I138" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="J138" s="83" t="s">
+      <c r="J138" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="K138" s="83" t="s">
+      <c r="K138" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="L138" s="83"/>
-      <c r="M138" s="83" t="s">
+      <c r="L138" s="82"/>
+      <c r="M138" s="82" t="s">
         <v>429</v>
       </c>
-      <c r="N138" s="83" t="s">
+      <c r="N138" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="O138" s="83" t="s">
+      <c r="O138" s="82" t="s">
         <v>428</v>
       </c>
-      <c r="P138" s="83" t="s">
+      <c r="P138" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="Q138" s="83"/>
-      <c r="R138" s="83"/>
-      <c r="S138" s="83" t="s">
+      <c r="Q138" s="82"/>
+      <c r="R138" s="82"/>
+      <c r="S138" s="82" t="s">
         <v>426</v>
       </c>
-      <c r="T138" s="83" t="s">
+      <c r="T138" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="U138" s="83">
+      <c r="U138" s="82">
         <v>8797366188</v>
       </c>
-      <c r="V138" s="83" t="s">
+      <c r="V138" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="W138" s="83">
+      <c r="W138" s="82">
         <v>1</v>
       </c>
-      <c r="X138" s="83">
+      <c r="X138" s="82">
         <v>0</v>
       </c>
-      <c r="Y138" s="83"/>
-      <c r="Z138" s="83"/>
+      <c r="Y138" s="82"/>
+      <c r="Z138" s="82"/>
       <c r="AU138" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="140" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A140" s="142" t="s">
+      <c r="A140" s="120" t="s">
         <v>436</v>
       </c>
-      <c r="B140" s="143"/>
-      <c r="C140" s="143"/>
-      <c r="D140" s="143"/>
-      <c r="E140" s="143"/>
-      <c r="F140" s="143"/>
-      <c r="G140" s="143"/>
-      <c r="H140" s="143"/>
-      <c r="I140" s="143"/>
-      <c r="J140" s="143"/>
-      <c r="K140" s="143"/>
-      <c r="L140" s="143"/>
-      <c r="M140" s="143"/>
-      <c r="N140" s="143"/>
-      <c r="O140" s="143"/>
-      <c r="P140" s="143"/>
-      <c r="Q140" s="143"/>
-      <c r="R140" s="143"/>
-      <c r="S140" s="88"/>
-      <c r="T140" s="88"/>
-      <c r="U140" s="88"/>
-      <c r="V140" s="88"/>
-      <c r="W140" s="88"/>
-      <c r="X140" s="88"/>
-      <c r="Y140" s="88"/>
-      <c r="Z140" s="88"/>
+      <c r="B140" s="121"/>
+      <c r="C140" s="121"/>
+      <c r="D140" s="121"/>
+      <c r="E140" s="121"/>
+      <c r="F140" s="121"/>
+      <c r="G140" s="121"/>
+      <c r="H140" s="121"/>
+      <c r="I140" s="121"/>
+      <c r="J140" s="121"/>
+      <c r="K140" s="121"/>
+      <c r="L140" s="121"/>
+      <c r="M140" s="121"/>
+      <c r="N140" s="121"/>
+      <c r="O140" s="121"/>
+      <c r="P140" s="121"/>
+      <c r="Q140" s="121"/>
+      <c r="R140" s="121"/>
+      <c r="S140" s="87"/>
+      <c r="T140" s="87"/>
+      <c r="U140" s="87"/>
+      <c r="V140" s="87"/>
+      <c r="W140" s="87"/>
+      <c r="X140" s="87"/>
+      <c r="Y140" s="87"/>
+      <c r="Z140" s="87"/>
     </row>
     <row r="141" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A141" s="78" t="s">
+      <c r="A141" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B141" s="78" t="s">
+      <c r="B141" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C141" s="78" t="s">
+      <c r="C141" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D141" s="78" t="s">
+      <c r="D141" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E141" s="78" t="s">
+      <c r="E141" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F141" s="78" t="s">
+      <c r="F141" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G141" s="78" t="s">
+      <c r="G141" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H141" s="78" t="s">
+      <c r="H141" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I141" s="78" t="s">
+      <c r="I141" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J141" s="78" t="s">
+      <c r="J141" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="K141" s="78" t="s">
+      <c r="K141" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="L141" s="78" t="s">
+      <c r="L141" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M141" s="78" t="s">
+      <c r="M141" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="N141" s="78" t="s">
+      <c r="N141" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="O141" s="78" t="s">
+      <c r="O141" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="P141" s="78" t="s">
+      <c r="P141" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q141" s="78" t="s">
+      <c r="Q141" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="R141" s="78" t="s">
+      <c r="R141" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="S141" s="78" t="s">
+      <c r="S141" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="T141" s="78" t="s">
+      <c r="T141" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="U141" s="78" t="s">
+      <c r="U141" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="V141" s="78" t="s">
+      <c r="V141" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="W141" s="78" t="s">
+      <c r="W141" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="X141" s="78" t="s">
+      <c r="X141" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="Y141" s="78" t="s">
+      <c r="Y141" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="Z141" s="78" t="s">
+      <c r="Z141" s="77" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="79" t="s">
+      <c r="A142" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="B142" s="80" t="s">
+      <c r="B142" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="C142" s="81" t="s">
+      <c r="C142" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="D142" s="81" t="str">
+      <c r="D142" s="80" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E142" s="81"/>
-      <c r="F142" s="81" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="G142" s="81" t="str">
+      <c r="G142" s="80" t="str">
         <f>CONCATENATE("USD,FLAT ",TEXT(F142,"0.00"))</f>
         <v>USD,FLAT 3.00</v>
       </c>
-      <c r="H142" s="81" t="s">
+      <c r="H142" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="I142" s="81" t="s">
+      <c r="I142" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="J142" s="81">
+      <c r="J142" s="80">
         <v>4</v>
       </c>
-      <c r="K142" s="81" t="s">
+      <c r="K142" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="L142" s="81"/>
-      <c r="M142" s="81">
+      <c r="L142" s="80"/>
+      <c r="M142" s="80">
         <f>10+(J142*3)</f>
         <v>22</v>
       </c>
-      <c r="N142" s="81" t="s">
+      <c r="N142" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="O142" s="81" t="s">
+      <c r="O142" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="P142" s="81" t="s">
+      <c r="P142" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="Q142" s="81"/>
-      <c r="R142" s="81"/>
-      <c r="S142" s="87" t="s">
+      <c r="Q142" s="80"/>
+      <c r="R142" s="80"/>
+      <c r="S142" s="86" t="s">
         <v>426</v>
       </c>
-      <c r="T142" s="81" t="s">
+      <c r="T142" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="U142" s="81">
+      <c r="U142" s="80">
         <v>8797366188</v>
       </c>
-      <c r="V142" s="81" t="s">
+      <c r="V142" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="W142" s="81" t="s">
+      <c r="W142" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="X142" s="81" t="s">
+      <c r="X142" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="Y142" s="81" t="s">
+      <c r="Y142" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="Z142" s="81"/>
+      <c r="Z142" s="80"/>
       <c r="AU142" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="AV142" t="s">
-        <v>564</v>
+        <v>521</v>
       </c>
     </row>
     <row r="143" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="79" t="s">
+      <c r="A143" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="B143" s="80" t="s">
+      <c r="B143" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="C143" s="86" t="s">
+      <c r="C143" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="D143" s="86" t="str">
+      <c r="D143" s="85" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-07-27</v>
-      </c>
-      <c r="E143" s="86"/>
-      <c r="F143" s="86" t="s">
+        <v>2023-09-06</v>
+      </c>
+      <c r="E143" s="85"/>
+      <c r="F143" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="G143" s="86" t="str">
+      <c r="G143" s="85" t="str">
         <f>CONCATENATE("USD,FLAT ",TEXT(F143,"0.00"))</f>
         <v>USD,FLAT 2.00</v>
       </c>
-      <c r="H143" s="86" t="s">
+      <c r="H143" s="85" t="s">
         <v>441</v>
       </c>
-      <c r="I143" s="86" t="s">
+      <c r="I143" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J143" s="86">
+      <c r="J143" s="85">
         <v>4</v>
       </c>
-      <c r="K143" s="86" t="s">
+      <c r="K143" s="85" t="s">
         <v>434</v>
       </c>
-      <c r="L143" s="86"/>
-      <c r="M143" s="86">
+      <c r="L143" s="85"/>
+      <c r="M143" s="85">
         <f>10+(J143*3)</f>
         <v>22</v>
       </c>
-      <c r="N143" s="86" t="s">
+      <c r="N143" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="O143" s="86" t="s">
+      <c r="O143" s="85" t="s">
         <v>428</v>
       </c>
-      <c r="P143" s="86" t="s">
+      <c r="P143" s="85" t="s">
         <v>425</v>
       </c>
-      <c r="Q143" s="86"/>
-      <c r="R143" s="86"/>
-      <c r="S143" s="86" t="s">
+      <c r="Q143" s="85"/>
+      <c r="R143" s="85"/>
+      <c r="S143" s="85" t="s">
         <v>426</v>
       </c>
-      <c r="T143" s="86" t="s">
+      <c r="T143" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="U143" s="86">
+      <c r="U143" s="85">
         <v>8797366188</v>
       </c>
-      <c r="V143" s="86" t="s">
+      <c r="V143" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="W143" s="86" t="s">
+      <c r="W143" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="X143" s="86" t="s">
+      <c r="X143" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="Y143" s="86" t="s">
+      <c r="Y143" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="Z143" s="86"/>
+      <c r="Z143" s="85"/>
       <c r="AU143" t="s">
-        <v>565</v>
+        <v>522</v>
       </c>
       <c r="AV143" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="79" t="s">
+      <c r="A144" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="B144" s="80" t="s">
+      <c r="B144" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="C144" s="83" t="s">
+      <c r="C144" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="D144" s="83" t="str">
+      <c r="D144" s="82" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E144" s="83" t="str">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E144" s="82" t="str">
         <f ca="1">TEXT(TODAY()+29,"YYYY-MM-DD")</f>
-        <v>2023-07-26</v>
-      </c>
-      <c r="F144" s="83" t="s">
+        <v>2023-09-05</v>
+      </c>
+      <c r="F144" s="82" t="s">
         <v>440</v>
       </c>
-      <c r="G144" s="83" t="str">
+      <c r="G144" s="82" t="str">
         <f>CONCATENATE("USD,FLAT ",TEXT(F144,"0.00"))</f>
         <v>USD,FLAT 3.00</v>
       </c>
-      <c r="H144" s="83" t="s">
+      <c r="H144" s="82" t="s">
         <v>441</v>
       </c>
-      <c r="I144" s="83" t="s">
+      <c r="I144" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="J144" s="83">
+      <c r="J144" s="82">
         <v>4</v>
       </c>
-      <c r="K144" s="83" t="s">
+      <c r="K144" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="L144" s="83"/>
-      <c r="M144" s="83">
+      <c r="L144" s="82"/>
+      <c r="M144" s="82">
         <f>10+(J144*3)</f>
         <v>22</v>
       </c>
-      <c r="N144" s="83" t="s">
+      <c r="N144" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="O144" s="83" t="s">
+      <c r="O144" s="82" t="s">
         <v>428</v>
       </c>
-      <c r="P144" s="83" t="s">
+      <c r="P144" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="Q144" s="83"/>
-      <c r="R144" s="83"/>
-      <c r="S144" s="83" t="s">
+      <c r="Q144" s="82"/>
+      <c r="R144" s="82"/>
+      <c r="S144" s="82" t="s">
         <v>426</v>
       </c>
-      <c r="T144" s="83" t="s">
+      <c r="T144" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="U144" s="83">
+      <c r="U144" s="82">
         <v>8797366188</v>
       </c>
-      <c r="V144" s="83" t="s">
+      <c r="V144" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="W144" s="83" t="s">
+      <c r="W144" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="X144" s="83" t="s">
+      <c r="X144" s="82" t="s">
         <v>416</v>
       </c>
-      <c r="Y144" s="83" t="s">
+      <c r="Y144" s="82" t="s">
         <v>417</v>
       </c>
-      <c r="Z144" s="83"/>
+      <c r="Z144" s="82"/>
       <c r="AU144" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="146" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A146" s="142" t="s">
+      <c r="A146" s="120" t="s">
         <v>436</v>
       </c>
-      <c r="B146" s="143"/>
-      <c r="C146" s="143"/>
-      <c r="D146" s="143"/>
-      <c r="E146" s="143"/>
-      <c r="F146" s="143"/>
-      <c r="G146" s="143"/>
-      <c r="H146" s="143"/>
-      <c r="I146" s="143"/>
-      <c r="J146" s="143"/>
-      <c r="K146" s="143"/>
-      <c r="L146" s="143"/>
-      <c r="M146" s="143"/>
-      <c r="N146" s="143"/>
-      <c r="O146" s="143"/>
-      <c r="P146" s="143"/>
-      <c r="Q146" s="143"/>
-      <c r="R146" s="143"/>
-      <c r="S146" s="89"/>
-      <c r="T146" s="89"/>
-      <c r="U146" s="89"/>
-      <c r="V146" s="89"/>
-      <c r="W146" s="89"/>
-      <c r="X146" s="89"/>
-      <c r="Y146" s="89"/>
-      <c r="Z146" s="89"/>
+      <c r="B146" s="121"/>
+      <c r="C146" s="121"/>
+      <c r="D146" s="121"/>
+      <c r="E146" s="121"/>
+      <c r="F146" s="121"/>
+      <c r="G146" s="121"/>
+      <c r="H146" s="121"/>
+      <c r="I146" s="121"/>
+      <c r="J146" s="121"/>
+      <c r="K146" s="121"/>
+      <c r="L146" s="121"/>
+      <c r="M146" s="121"/>
+      <c r="N146" s="121"/>
+      <c r="O146" s="121"/>
+      <c r="P146" s="121"/>
+      <c r="Q146" s="121"/>
+      <c r="R146" s="121"/>
+      <c r="S146" s="88"/>
+      <c r="T146" s="88"/>
+      <c r="U146" s="88"/>
+      <c r="V146" s="88"/>
+      <c r="W146" s="88"/>
+      <c r="X146" s="88"/>
+      <c r="Y146" s="88"/>
+      <c r="Z146" s="88"/>
     </row>
     <row r="147" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A147" s="78" t="s">
+      <c r="A147" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B147" s="78" t="s">
+      <c r="B147" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C147" s="78" t="s">
+      <c r="C147" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D147" s="78" t="s">
+      <c r="D147" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E147" s="78" t="s">
+      <c r="E147" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F147" s="78" t="s">
+      <c r="F147" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G147" s="78" t="s">
+      <c r="G147" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H147" s="78" t="s">
+      <c r="H147" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I147" s="78" t="s">
+      <c r="I147" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J147" s="78" t="s">
+      <c r="J147" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="K147" s="78" t="s">
+      <c r="K147" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="L147" s="78" t="s">
+      <c r="L147" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M147" s="78" t="s">
+      <c r="M147" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="N147" s="78" t="s">
+      <c r="N147" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="O147" s="78" t="s">
+      <c r="O147" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="P147" s="78" t="s">
+      <c r="P147" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q147" s="78" t="s">
+      <c r="Q147" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="R147" s="78" t="s">
+      <c r="R147" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="S147" s="78" t="s">
+      <c r="S147" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="T147" s="78" t="s">
+      <c r="T147" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="U147" s="78" t="s">
+      <c r="U147" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="V147" s="78" t="s">
+      <c r="V147" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="W147" s="78" t="s">
+      <c r="W147" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="X147" s="78" t="s">
+      <c r="X147" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="Y147" s="78" t="s">
+      <c r="Y147" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="Z147" s="78" t="s">
+      <c r="Z147" s="77" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="79" t="s">
+      <c r="A148" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B148" s="80" t="s">
+      <c r="B148" s="79" t="s">
         <v>443</v>
       </c>
-      <c r="C148" s="90" t="s">
+      <c r="C148" s="89" t="s">
         <v>438</v>
       </c>
-      <c r="D148" s="91" t="str">
+      <c r="D148" s="90" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E148" s="90"/>
-      <c r="F148" s="90" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E148" s="89"/>
+      <c r="F148" s="89" t="s">
         <v>445</v>
       </c>
-      <c r="G148" s="92" t="s">
+      <c r="G148" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="H148" s="92"/>
-      <c r="I148" s="90" t="s">
+      <c r="H148" s="91"/>
+      <c r="I148" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J148" s="92"/>
-      <c r="K148" s="92"/>
-      <c r="L148" s="92"/>
-      <c r="M148" s="92"/>
-      <c r="N148" s="90"/>
-      <c r="O148" s="90" t="s">
+      <c r="J148" s="91"/>
+      <c r="K148" s="91"/>
+      <c r="L148" s="91"/>
+      <c r="M148" s="91"/>
+      <c r="N148" s="89"/>
+      <c r="O148" s="89" t="s">
         <v>421</v>
       </c>
-      <c r="P148" s="90" t="s">
+      <c r="P148" s="89" t="s">
         <v>419</v>
       </c>
-      <c r="Q148" s="90"/>
-      <c r="R148" s="90"/>
-      <c r="S148" s="90"/>
-      <c r="T148" s="90" t="s">
+      <c r="Q148" s="89"/>
+      <c r="R148" s="89"/>
+      <c r="S148" s="89"/>
+      <c r="T148" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="U148" s="90">
+      <c r="U148" s="89">
         <v>8797366188</v>
       </c>
-      <c r="V148" s="90" t="s">
+      <c r="V148" s="89" t="s">
         <v>415</v>
       </c>
-      <c r="W148" s="90" t="s">
+      <c r="W148" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="X148" s="90" t="s">
+      <c r="X148" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="Y148" s="90" t="s">
+      <c r="Y148" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="Z148" s="90"/>
+      <c r="Z148" s="89"/>
       <c r="AU148" t="s">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="AV148" t="s">
-        <v>568</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="79" t="s">
+      <c r="A149" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B149" s="80" t="s">
+      <c r="B149" s="79" t="s">
         <v>443</v>
       </c>
-      <c r="C149" s="86" t="s">
+      <c r="C149" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="D149" s="86" t="str">
+      <c r="D149" s="85" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-07-27</v>
-      </c>
-      <c r="E149" s="86"/>
-      <c r="F149" s="86" t="s">
+        <v>2023-09-06</v>
+      </c>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="G149" s="86" t="s">
+      <c r="G149" s="85" t="s">
         <v>414</v>
       </c>
-      <c r="H149" s="86"/>
-      <c r="I149" s="86" t="s">
+      <c r="H149" s="85"/>
+      <c r="I149" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J149" s="86"/>
-      <c r="K149" s="86"/>
-      <c r="L149" s="86"/>
-      <c r="M149" s="86"/>
-      <c r="N149" s="86"/>
-      <c r="O149" s="86" t="s">
+      <c r="J149" s="85"/>
+      <c r="K149" s="85"/>
+      <c r="L149" s="85"/>
+      <c r="M149" s="85"/>
+      <c r="N149" s="85"/>
+      <c r="O149" s="85" t="s">
         <v>421</v>
       </c>
-      <c r="P149" s="86" t="s">
+      <c r="P149" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="Q149" s="86"/>
-      <c r="R149" s="86"/>
-      <c r="S149" s="86"/>
-      <c r="T149" s="86" t="s">
+      <c r="Q149" s="85"/>
+      <c r="R149" s="85"/>
+      <c r="S149" s="85"/>
+      <c r="T149" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="U149" s="86">
+      <c r="U149" s="85">
         <v>8797366188</v>
       </c>
-      <c r="V149" s="86" t="s">
+      <c r="V149" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="W149" s="86" t="s">
+      <c r="W149" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="X149" s="86" t="s">
+      <c r="X149" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="Y149" s="86" t="s">
+      <c r="Y149" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="Z149" s="86"/>
+      <c r="Z149" s="85"/>
       <c r="AU149" t="s">
-        <v>569</v>
+        <v>526</v>
       </c>
       <c r="AV149" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="79" t="s">
+      <c r="A151" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B151" s="80" t="s">
+      <c r="B151" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="C151" s="90" t="s">
+      <c r="C151" s="89" t="s">
         <v>438</v>
       </c>
-      <c r="D151" s="91" t="str">
+      <c r="D151" s="90" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E151" s="90"/>
-      <c r="F151" s="90" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E151" s="89"/>
+      <c r="F151" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="G151" s="92" t="s">
+      <c r="G151" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="H151" s="92"/>
-      <c r="I151" s="90" t="s">
+      <c r="H151" s="91"/>
+      <c r="I151" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="J151" s="92"/>
-      <c r="K151" s="92"/>
-      <c r="L151" s="92"/>
-      <c r="M151" s="92"/>
-      <c r="N151" s="90"/>
-      <c r="O151" s="90" t="s">
+      <c r="J151" s="91"/>
+      <c r="K151" s="91"/>
+      <c r="L151" s="91"/>
+      <c r="M151" s="91"/>
+      <c r="N151" s="89"/>
+      <c r="O151" s="89" t="s">
         <v>421</v>
       </c>
-      <c r="P151" s="90" t="s">
+      <c r="P151" s="89" t="s">
         <v>419</v>
       </c>
-      <c r="Q151" s="90"/>
-      <c r="R151" s="90"/>
-      <c r="S151" s="90"/>
-      <c r="T151" s="90" t="s">
+      <c r="Q151" s="89"/>
+      <c r="R151" s="89"/>
+      <c r="S151" s="89"/>
+      <c r="T151" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="U151" s="90">
+      <c r="U151" s="89">
         <v>8797366188</v>
       </c>
-      <c r="V151" s="90" t="s">
+      <c r="V151" s="89" t="s">
         <v>415</v>
       </c>
-      <c r="W151" s="90" t="s">
+      <c r="W151" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="X151" s="90" t="s">
+      <c r="X151" s="89" t="s">
         <v>416</v>
       </c>
-      <c r="Y151" s="90" t="s">
+      <c r="Y151" s="89" t="s">
         <v>417</v>
       </c>
-      <c r="Z151" s="90"/>
+      <c r="Z151" s="89"/>
       <c r="AU151" t="s">
-        <v>571</v>
+        <v>528</v>
       </c>
       <c r="AV151" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
     </row>
     <row r="152" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="79" t="s">
+      <c r="A152" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B152" s="80" t="s">
+      <c r="B152" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="C152" s="86" t="s">
+      <c r="C152" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="D152" s="86" t="str">
+      <c r="D152" s="85" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-07-27</v>
-      </c>
-      <c r="E152" s="86"/>
-      <c r="F152" s="86" t="s">
+        <v>2023-09-06</v>
+      </c>
+      <c r="E152" s="85"/>
+      <c r="F152" s="85" t="s">
         <v>448</v>
       </c>
-      <c r="G152" s="86" t="s">
+      <c r="G152" s="85" t="s">
         <v>414</v>
       </c>
-      <c r="H152" s="86"/>
-      <c r="I152" s="86" t="s">
+      <c r="H152" s="85"/>
+      <c r="I152" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J152" s="86"/>
-      <c r="K152" s="86"/>
-      <c r="L152" s="86"/>
-      <c r="M152" s="86"/>
-      <c r="N152" s="86"/>
-      <c r="O152" s="86" t="s">
+      <c r="J152" s="85"/>
+      <c r="K152" s="85"/>
+      <c r="L152" s="85"/>
+      <c r="M152" s="85"/>
+      <c r="N152" s="85"/>
+      <c r="O152" s="85" t="s">
         <v>421</v>
       </c>
-      <c r="P152" s="86" t="s">
+      <c r="P152" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="Q152" s="86"/>
-      <c r="R152" s="86"/>
-      <c r="S152" s="86"/>
-      <c r="T152" s="86" t="s">
+      <c r="Q152" s="85"/>
+      <c r="R152" s="85"/>
+      <c r="S152" s="85"/>
+      <c r="T152" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="U152" s="86">
+      <c r="U152" s="85">
         <v>8797366188</v>
       </c>
-      <c r="V152" s="86" t="s">
+      <c r="V152" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="W152" s="86" t="s">
+      <c r="W152" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="X152" s="86" t="s">
+      <c r="X152" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="Y152" s="86" t="s">
+      <c r="Y152" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="Z152" s="86"/>
+      <c r="Z152" s="85"/>
       <c r="AU152" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="AV152" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
     </row>
     <row r="154" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A154" s="142" t="s">
+      <c r="A154" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="B154" s="143"/>
-      <c r="C154" s="143"/>
-      <c r="D154" s="143"/>
-      <c r="E154" s="143"/>
-      <c r="F154" s="143"/>
-      <c r="G154" s="143"/>
-      <c r="H154" s="143"/>
-      <c r="I154" s="143"/>
-      <c r="J154" s="143"/>
-      <c r="K154" s="143"/>
-      <c r="L154" s="143"/>
-      <c r="M154" s="143"/>
-      <c r="N154" s="143"/>
-      <c r="O154" s="143"/>
-      <c r="P154" s="143"/>
-      <c r="Q154" s="143"/>
-      <c r="R154" s="143"/>
-      <c r="S154" s="93"/>
-      <c r="T154" s="93"/>
-      <c r="U154" s="93"/>
-      <c r="V154" s="93"/>
-      <c r="W154" s="93"/>
-      <c r="X154" s="93"/>
-      <c r="Y154" s="93"/>
-      <c r="Z154" s="93"/>
+      <c r="B154" s="121"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="121"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="121"/>
+      <c r="G154" s="121"/>
+      <c r="H154" s="121"/>
+      <c r="I154" s="121"/>
+      <c r="J154" s="121"/>
+      <c r="K154" s="121"/>
+      <c r="L154" s="121"/>
+      <c r="M154" s="121"/>
+      <c r="N154" s="121"/>
+      <c r="O154" s="121"/>
+      <c r="P154" s="121"/>
+      <c r="Q154" s="121"/>
+      <c r="R154" s="121"/>
+      <c r="S154" s="92"/>
+      <c r="T154" s="92"/>
+      <c r="U154" s="92"/>
+      <c r="V154" s="92"/>
+      <c r="W154" s="92"/>
+      <c r="X154" s="92"/>
+      <c r="Y154" s="92"/>
+      <c r="Z154" s="92"/>
     </row>
     <row r="155" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A155" s="78" t="s">
+      <c r="A155" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B155" s="78" t="s">
+      <c r="B155" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C155" s="78" t="s">
+      <c r="C155" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D155" s="78" t="s">
+      <c r="D155" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E155" s="78" t="s">
+      <c r="E155" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F155" s="78" t="s">
+      <c r="F155" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G155" s="78" t="s">
+      <c r="G155" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H155" s="78" t="s">
+      <c r="H155" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I155" s="78" t="s">
+      <c r="I155" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J155" s="78" t="s">
+      <c r="J155" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="K155" s="78" t="s">
+      <c r="K155" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="L155" s="78" t="s">
+      <c r="L155" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M155" s="78" t="s">
+      <c r="M155" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="N155" s="78" t="s">
+      <c r="N155" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="O155" s="78" t="s">
+      <c r="O155" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="P155" s="78" t="s">
+      <c r="P155" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q155" s="78" t="s">
+      <c r="Q155" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="R155" s="78" t="s">
+      <c r="R155" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="S155" s="78" t="s">
+      <c r="S155" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="T155" s="78" t="s">
+      <c r="T155" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="U155" s="78" t="s">
+      <c r="U155" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="V155" s="78" t="s">
+      <c r="V155" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="W155" s="78" t="s">
+      <c r="W155" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="X155" s="78" t="s">
+      <c r="X155" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="Y155" s="78" t="s">
+      <c r="Y155" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="Z155" s="78" t="s">
+      <c r="Z155" s="77" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="156" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="80" t="s">
+      <c r="A156" s="79" t="s">
         <v>444</v>
       </c>
-      <c r="B156" s="80"/>
-      <c r="C156" s="81" t="s">
+      <c r="B156" s="79"/>
+      <c r="C156" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="D156" s="82" t="str">
+      <c r="D156" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E156" s="81"/>
-      <c r="F156" s="82">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E156" s="80"/>
+      <c r="F156" s="81">
         <v>11</v>
       </c>
-      <c r="G156" s="82" t="s">
+      <c r="G156" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="H156" s="82">
+      <c r="H156" s="81">
         <f>F156</f>
         <v>11</v>
       </c>
-      <c r="I156" s="81" t="s">
+      <c r="I156" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="J156" s="82"/>
-      <c r="K156" s="82"/>
-      <c r="L156" s="82"/>
-      <c r="M156" s="82"/>
-      <c r="N156" s="81" t="s">
+      <c r="J156" s="81"/>
+      <c r="K156" s="81"/>
+      <c r="L156" s="81"/>
+      <c r="M156" s="81"/>
+      <c r="N156" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="O156" s="81" t="s">
+      <c r="O156" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="P156" s="81" t="s">
+      <c r="P156" s="80" t="s">
         <v>419</v>
       </c>
-      <c r="Q156" s="81" t="s">
+      <c r="Q156" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="R156" s="81"/>
-      <c r="S156" s="81" t="s">
+      <c r="R156" s="80"/>
+      <c r="S156" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="T156" s="81" t="s">
+      <c r="T156" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="U156" s="81">
+      <c r="U156" s="80">
         <v>8797366188</v>
       </c>
-      <c r="V156" s="81" t="s">
+      <c r="V156" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="W156" s="81" t="s">
+      <c r="W156" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="X156" s="81" t="s">
+      <c r="X156" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="Y156" s="81" t="s">
+      <c r="Y156" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="Z156" s="81"/>
+      <c r="Z156" s="80"/>
       <c r="AU156" t="s">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="AV156" t="s">
-        <v>576</v>
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="80" t="s">
+      <c r="A157" s="79" t="s">
         <v>444</v>
       </c>
-      <c r="B157" s="80"/>
-      <c r="C157" s="86" t="s">
+      <c r="B157" s="79"/>
+      <c r="C157" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="D157" s="86" t="str">
+      <c r="D157" s="85" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-07-27</v>
-      </c>
-      <c r="E157" s="86"/>
-      <c r="F157" s="86">
+        <v>2023-09-06</v>
+      </c>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85">
         <v>12</v>
       </c>
-      <c r="G157" s="86" t="s">
+      <c r="G157" s="85" t="s">
         <v>414</v>
       </c>
-      <c r="H157" s="86">
+      <c r="H157" s="85">
         <f>F157</f>
         <v>12</v>
       </c>
-      <c r="I157" s="86" t="s">
+      <c r="I157" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J157" s="86"/>
-      <c r="K157" s="86"/>
-      <c r="L157" s="86"/>
-      <c r="M157" s="86"/>
-      <c r="N157" s="86" t="s">
+      <c r="J157" s="85"/>
+      <c r="K157" s="85"/>
+      <c r="L157" s="85"/>
+      <c r="M157" s="85"/>
+      <c r="N157" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="O157" s="86" t="s">
+      <c r="O157" s="85" t="s">
         <v>428</v>
       </c>
-      <c r="P157" s="86" t="s">
+      <c r="P157" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="Q157" s="86" t="s">
+      <c r="Q157" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="R157" s="86"/>
-      <c r="S157" s="86" t="s">
+      <c r="R157" s="85"/>
+      <c r="S157" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="T157" s="86" t="s">
+      <c r="T157" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="U157" s="86">
+      <c r="U157" s="85">
         <v>8797366188</v>
       </c>
-      <c r="V157" s="86" t="s">
+      <c r="V157" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="W157" s="86" t="s">
+      <c r="W157" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="X157" s="86" t="s">
+      <c r="X157" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="Y157" s="86" t="s">
+      <c r="Y157" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="Z157" s="86"/>
+      <c r="Z157" s="85"/>
       <c r="AU157" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="AV157" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
     </row>
     <row r="159" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A159" s="142" t="s">
+      <c r="A159" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="B159" s="143"/>
-      <c r="C159" s="143"/>
-      <c r="D159" s="143"/>
-      <c r="E159" s="143"/>
-      <c r="F159" s="143"/>
-      <c r="G159" s="143"/>
-      <c r="H159" s="143"/>
-      <c r="I159" s="143"/>
-      <c r="J159" s="143"/>
-      <c r="K159" s="143"/>
-      <c r="L159" s="143"/>
-      <c r="M159" s="143"/>
-      <c r="N159" s="143"/>
-      <c r="O159" s="143"/>
-      <c r="P159" s="143"/>
-      <c r="Q159" s="143"/>
-      <c r="R159" s="143"/>
-      <c r="S159" s="94"/>
-      <c r="T159" s="94"/>
-      <c r="U159" s="94"/>
-      <c r="V159" s="94"/>
-      <c r="W159" s="94"/>
-      <c r="X159" s="94"/>
-      <c r="Y159" s="94"/>
-      <c r="Z159" s="94"/>
+      <c r="B159" s="121"/>
+      <c r="C159" s="121"/>
+      <c r="D159" s="121"/>
+      <c r="E159" s="121"/>
+      <c r="F159" s="121"/>
+      <c r="G159" s="121"/>
+      <c r="H159" s="121"/>
+      <c r="I159" s="121"/>
+      <c r="J159" s="121"/>
+      <c r="K159" s="121"/>
+      <c r="L159" s="121"/>
+      <c r="M159" s="121"/>
+      <c r="N159" s="121"/>
+      <c r="O159" s="121"/>
+      <c r="P159" s="121"/>
+      <c r="Q159" s="121"/>
+      <c r="R159" s="121"/>
+      <c r="S159" s="93"/>
+      <c r="T159" s="93"/>
+      <c r="U159" s="93"/>
+      <c r="V159" s="93"/>
+      <c r="W159" s="93"/>
+      <c r="X159" s="93"/>
+      <c r="Y159" s="93"/>
+      <c r="Z159" s="93"/>
     </row>
     <row r="160" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A160" s="78" t="s">
+      <c r="A160" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B160" s="78" t="s">
+      <c r="B160" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C160" s="78" t="s">
+      <c r="C160" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D160" s="78" t="s">
+      <c r="D160" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E160" s="78" t="s">
+      <c r="E160" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F160" s="78" t="s">
+      <c r="F160" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G160" s="78" t="s">
+      <c r="G160" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H160" s="78" t="s">
+      <c r="H160" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I160" s="78" t="s">
+      <c r="I160" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J160" s="78" t="s">
+      <c r="J160" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="K160" s="78" t="s">
+      <c r="K160" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="L160" s="78" t="s">
+      <c r="L160" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M160" s="78" t="s">
+      <c r="M160" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="N160" s="78" t="s">
+      <c r="N160" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="O160" s="78" t="s">
+      <c r="O160" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="P160" s="78" t="s">
+      <c r="P160" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q160" s="78" t="s">
+      <c r="Q160" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="R160" s="78" t="s">
+      <c r="R160" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="S160" s="78" t="s">
+      <c r="S160" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="T160" s="78" t="s">
+      <c r="T160" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="U160" s="78" t="s">
+      <c r="U160" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="V160" s="78" t="s">
+      <c r="V160" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="W160" s="78" t="s">
+      <c r="W160" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="X160" s="78" t="s">
+      <c r="X160" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="Y160" s="78" t="s">
+      <c r="Y160" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="Z160" s="78" t="s">
+      <c r="Z160" s="77" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="161" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="80" t="s">
+      <c r="A161" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="B161" s="80"/>
-      <c r="C161" s="81" t="s">
+      <c r="B161" s="79"/>
+      <c r="C161" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="D161" s="82" t="str">
+      <c r="D161" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E161" s="81"/>
-      <c r="F161" s="82">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E161" s="80"/>
+      <c r="F161" s="81">
         <v>777</v>
       </c>
-      <c r="G161" s="82" t="s">
+      <c r="G161" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="H161" s="82">
+      <c r="H161" s="81">
         <f>F161</f>
         <v>777</v>
       </c>
-      <c r="I161" s="81" t="s">
+      <c r="I161" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="J161" s="82"/>
-      <c r="K161" s="82"/>
-      <c r="L161" s="82"/>
-      <c r="M161" s="82"/>
-      <c r="N161" s="81" t="s">
+      <c r="J161" s="81"/>
+      <c r="K161" s="81"/>
+      <c r="L161" s="81"/>
+      <c r="M161" s="81"/>
+      <c r="N161" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="O161" s="81" t="s">
+      <c r="O161" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="P161" s="81" t="s">
+      <c r="P161" s="80" t="s">
         <v>419</v>
       </c>
-      <c r="Q161" s="81" t="s">
+      <c r="Q161" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="R161" s="81"/>
-      <c r="S161" s="81" t="s">
+      <c r="R161" s="80"/>
+      <c r="S161" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="T161" s="81" t="s">
+      <c r="T161" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="U161" s="81">
+      <c r="U161" s="80">
         <v>8797366188</v>
       </c>
-      <c r="V161" s="81" t="s">
+      <c r="V161" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="W161" s="81" t="s">
+      <c r="W161" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="X161" s="81" t="s">
+      <c r="X161" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="Y161" s="81" t="s">
+      <c r="Y161" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="Z161" s="81"/>
+      <c r="Z161" s="80"/>
       <c r="AU161" t="s">
-        <v>579</v>
+        <v>536</v>
       </c>
       <c r="AV161" t="s">
-        <v>580</v>
+        <v>537</v>
       </c>
     </row>
     <row r="162" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="80" t="s">
+      <c r="A162" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="B162" s="80"/>
-      <c r="C162" s="86" t="s">
+      <c r="B162" s="79"/>
+      <c r="C162" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="D162" s="86" t="str">
+      <c r="D162" s="85" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-07-27</v>
-      </c>
-      <c r="E162" s="86"/>
-      <c r="F162" s="86">
+        <v>2023-09-06</v>
+      </c>
+      <c r="E162" s="85"/>
+      <c r="F162" s="85">
         <v>775</v>
       </c>
-      <c r="G162" s="86" t="s">
+      <c r="G162" s="85" t="s">
         <v>414</v>
       </c>
-      <c r="H162" s="86">
+      <c r="H162" s="85">
         <f>F162</f>
         <v>775</v>
       </c>
-      <c r="I162" s="86" t="s">
+      <c r="I162" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J162" s="86"/>
-      <c r="K162" s="86"/>
-      <c r="L162" s="86"/>
-      <c r="M162" s="86"/>
-      <c r="N162" s="86" t="s">
+      <c r="J162" s="85"/>
+      <c r="K162" s="85"/>
+      <c r="L162" s="85"/>
+      <c r="M162" s="85"/>
+      <c r="N162" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="O162" s="86" t="s">
+      <c r="O162" s="85" t="s">
         <v>428</v>
       </c>
-      <c r="P162" s="86" t="s">
+      <c r="P162" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="Q162" s="86" t="s">
+      <c r="Q162" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="R162" s="86"/>
-      <c r="S162" s="86" t="s">
+      <c r="R162" s="85"/>
+      <c r="S162" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="T162" s="86" t="s">
+      <c r="T162" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="U162" s="86">
+      <c r="U162" s="85">
         <v>8797366188</v>
       </c>
-      <c r="V162" s="86" t="s">
+      <c r="V162" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="W162" s="86" t="s">
+      <c r="W162" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="X162" s="86" t="s">
+      <c r="X162" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="Y162" s="86" t="s">
+      <c r="Y162" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="Z162" s="86"/>
+      <c r="Z162" s="85"/>
       <c r="AU162" t="s">
-        <v>581</v>
+        <v>538</v>
       </c>
       <c r="AV162" t="s">
-        <v>582</v>
+        <v>539</v>
       </c>
     </row>
     <row r="164" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A164" s="142" t="s">
+      <c r="A164" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="B164" s="143"/>
-      <c r="C164" s="143"/>
-      <c r="D164" s="143"/>
-      <c r="E164" s="143"/>
-      <c r="F164" s="143"/>
-      <c r="G164" s="143"/>
-      <c r="H164" s="143"/>
-      <c r="I164" s="143"/>
-      <c r="J164" s="143"/>
-      <c r="K164" s="143"/>
-      <c r="L164" s="143"/>
-      <c r="M164" s="143"/>
-      <c r="N164" s="143"/>
-      <c r="O164" s="143"/>
-      <c r="P164" s="143"/>
-      <c r="Q164" s="143"/>
-      <c r="R164" s="143"/>
-      <c r="S164" s="98"/>
-      <c r="T164" s="98"/>
-      <c r="U164" s="98"/>
-      <c r="V164" s="98"/>
-      <c r="W164" s="98"/>
-      <c r="X164" s="98"/>
-      <c r="Y164" s="98"/>
-      <c r="Z164" s="98"/>
+      <c r="B164" s="121"/>
+      <c r="C164" s="121"/>
+      <c r="D164" s="121"/>
+      <c r="E164" s="121"/>
+      <c r="F164" s="121"/>
+      <c r="G164" s="121"/>
+      <c r="H164" s="121"/>
+      <c r="I164" s="121"/>
+      <c r="J164" s="121"/>
+      <c r="K164" s="121"/>
+      <c r="L164" s="121"/>
+      <c r="M164" s="121"/>
+      <c r="N164" s="121"/>
+      <c r="O164" s="121"/>
+      <c r="P164" s="121"/>
+      <c r="Q164" s="121"/>
+      <c r="R164" s="121"/>
+      <c r="S164" s="97"/>
+      <c r="T164" s="97"/>
+      <c r="U164" s="97"/>
+      <c r="V164" s="97"/>
+      <c r="W164" s="97"/>
+      <c r="X164" s="97"/>
+      <c r="Y164" s="97"/>
+      <c r="Z164" s="97"/>
     </row>
     <row r="165" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A165" s="78" t="s">
+      <c r="A165" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B165" s="78" t="s">
+      <c r="B165" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C165" s="78" t="s">
+      <c r="C165" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D165" s="78" t="s">
+      <c r="D165" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E165" s="78" t="s">
+      <c r="E165" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F165" s="78" t="s">
+      <c r="F165" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G165" s="78" t="s">
+      <c r="G165" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H165" s="78" t="s">
+      <c r="H165" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I165" s="78" t="s">
+      <c r="I165" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J165" s="78" t="s">
+      <c r="J165" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="K165" s="78" t="s">
+      <c r="K165" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="L165" s="78" t="s">
+      <c r="L165" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M165" s="78" t="s">
+      <c r="M165" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="N165" s="78" t="s">
+      <c r="N165" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="O165" s="78" t="s">
+      <c r="O165" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="P165" s="78" t="s">
+      <c r="P165" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q165" s="78" t="s">
+      <c r="Q165" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="R165" s="78" t="s">
+      <c r="R165" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="S165" s="78" t="s">
+      <c r="S165" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="T165" s="78" t="s">
+      <c r="T165" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="U165" s="78" t="s">
+      <c r="U165" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="V165" s="78" t="s">
+      <c r="V165" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="W165" s="78" t="s">
+      <c r="W165" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="X165" s="78" t="s">
+      <c r="X165" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="Y165" s="78" t="s">
+      <c r="Y165" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="Z165" s="78" t="s">
+      <c r="Z165" s="77" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="166" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="80" t="s">
+      <c r="A166" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="B166" s="80"/>
-      <c r="C166" s="81" t="s">
+      <c r="B166" s="79"/>
+      <c r="C166" s="80" t="s">
         <v>413</v>
       </c>
-      <c r="D166" s="82" t="str">
+      <c r="D166" s="81" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="E166" s="81"/>
-      <c r="F166" s="82">
+        <v>2023-08-07</v>
+      </c>
+      <c r="E166" s="80"/>
+      <c r="F166" s="81">
         <v>13</v>
       </c>
-      <c r="G166" s="82" t="s">
+      <c r="G166" s="81" t="s">
         <v>414</v>
       </c>
-      <c r="H166" s="82">
+      <c r="H166" s="81">
         <f>F166</f>
         <v>13</v>
       </c>
-      <c r="I166" s="81" t="s">
+      <c r="I166" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="J166" s="82"/>
-      <c r="K166" s="82"/>
-      <c r="L166" s="82"/>
-      <c r="M166" s="82"/>
-      <c r="N166" s="81"/>
-      <c r="O166" s="81"/>
-      <c r="P166" s="81"/>
-      <c r="Q166" s="81"/>
-      <c r="R166" s="81"/>
-      <c r="S166" s="81" t="s">
+      <c r="J166" s="81"/>
+      <c r="K166" s="81"/>
+      <c r="L166" s="81"/>
+      <c r="M166" s="81"/>
+      <c r="N166" s="80"/>
+      <c r="O166" s="80"/>
+      <c r="P166" s="80"/>
+      <c r="Q166" s="80"/>
+      <c r="R166" s="80"/>
+      <c r="S166" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="T166" s="81" t="s">
+      <c r="T166" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="U166" s="81">
+      <c r="U166" s="80">
         <v>8797366188</v>
       </c>
-      <c r="V166" s="81" t="s">
+      <c r="V166" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="W166" s="81" t="s">
+      <c r="W166" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="X166" s="81" t="s">
+      <c r="X166" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="Y166" s="81" t="s">
+      <c r="Y166" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="Z166" s="81"/>
+      <c r="Z166" s="80"/>
       <c r="AU166" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="AV166" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
     </row>
     <row r="167" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="80" t="s">
+      <c r="A167" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="B167" s="80"/>
-      <c r="C167" s="86" t="s">
+      <c r="B167" s="79"/>
+      <c r="C167" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="D167" s="86" t="str">
+      <c r="D167" s="85" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-07-27</v>
-      </c>
-      <c r="E167" s="86"/>
-      <c r="F167" s="86">
+        <v>2023-09-06</v>
+      </c>
+      <c r="E167" s="85"/>
+      <c r="F167" s="85">
         <v>12</v>
       </c>
-      <c r="G167" s="86" t="s">
+      <c r="G167" s="85" t="s">
         <v>414</v>
       </c>
-      <c r="H167" s="86">
+      <c r="H167" s="85">
         <f>F167</f>
         <v>12</v>
       </c>
-      <c r="I167" s="86" t="s">
+      <c r="I167" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="J167" s="86"/>
-      <c r="K167" s="86"/>
-      <c r="L167" s="86"/>
-      <c r="M167" s="86"/>
-      <c r="N167" s="86"/>
-      <c r="O167" s="86"/>
-      <c r="P167" s="86"/>
-      <c r="Q167" s="86"/>
-      <c r="R167" s="86"/>
-      <c r="S167" s="86" t="s">
+      <c r="J167" s="85"/>
+      <c r="K167" s="85"/>
+      <c r="L167" s="85"/>
+      <c r="M167" s="85"/>
+      <c r="N167" s="85"/>
+      <c r="O167" s="85"/>
+      <c r="P167" s="85"/>
+      <c r="Q167" s="85"/>
+      <c r="R167" s="85"/>
+      <c r="S167" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="T167" s="86" t="s">
+      <c r="T167" s="85" t="s">
         <v>338</v>
       </c>
-      <c r="U167" s="86">
+      <c r="U167" s="85">
         <v>8797366188</v>
       </c>
-      <c r="V167" s="86" t="s">
+      <c r="V167" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="W167" s="86" t="s">
+      <c r="W167" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="X167" s="86" t="s">
+      <c r="X167" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="Y167" s="86" t="s">
+      <c r="Y167" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="Z167" s="86"/>
+      <c r="Z167" s="85"/>
       <c r="AU167" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="AV167" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
     </row>
     <row r="169" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A169" s="144" t="s">
+      <c r="A169" s="160" t="s">
         <v>451</v>
       </c>
-      <c r="B169" s="144"/>
-      <c r="C169" s="144"/>
-      <c r="D169" s="144"/>
-      <c r="E169" s="144"/>
+      <c r="B169" s="160"/>
+      <c r="C169" s="160"/>
+      <c r="D169" s="160"/>
+      <c r="E169" s="160"/>
     </row>
     <row r="170" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A170" s="130" t="s">
+      <c r="A170" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="B170" s="131"/>
-      <c r="C170" s="131"/>
-      <c r="D170" s="131"/>
-      <c r="E170" s="131"/>
-      <c r="F170" s="131"/>
-      <c r="G170" s="131"/>
-      <c r="H170" s="131"/>
+      <c r="B170" s="125"/>
+      <c r="C170" s="125"/>
+      <c r="D170" s="125"/>
+      <c r="E170" s="125"/>
+      <c r="F170" s="125"/>
+      <c r="G170" s="125"/>
+      <c r="H170" s="125"/>
     </row>
     <row r="171" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A171" s="44" t="s">
+      <c r="A171" s="43" t="s">
         <v>453</v>
       </c>
-      <c r="B171" s="44" t="s">
+      <c r="B171" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="C171" s="44" t="s">
+      <c r="C171" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="D171" s="44" t="s">
+      <c r="D171" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="E171" s="44" t="s">
+      <c r="E171" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="F171" s="44" t="s">
+      <c r="F171" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="G171" s="44" t="s">
+      <c r="G171" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="H171" s="44"/>
+      <c r="H171" s="43"/>
     </row>
     <row r="172" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A172" s="77">
+      <c r="A172" s="76">
         <v>10</v>
       </c>
-      <c r="B172" s="77" t="s">
+      <c r="B172" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="C172" s="77">
+      <c r="C172" s="76">
         <v>1000</v>
       </c>
-      <c r="D172" s="77" t="s">
+      <c r="D172" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="E172" s="77"/>
-      <c r="F172" s="77" t="s">
+      <c r="E172" s="76"/>
+      <c r="F172" s="76" t="s">
         <v>459</v>
       </c>
-      <c r="G172" s="77" t="s">
+      <c r="G172" s="76" t="s">
         <v>354</v>
       </c>
-      <c r="H172" s="77"/>
+      <c r="H172" s="76"/>
     </row>
     <row r="173" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A173" s="77">
+      <c r="A173" s="76">
         <v>20</v>
       </c>
-      <c r="B173" s="77" t="s">
+      <c r="B173" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="C173" s="77">
+      <c r="C173" s="76">
         <v>1000</v>
       </c>
-      <c r="D173" s="77" t="s">
+      <c r="D173" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77" t="s">
+      <c r="E173" s="76"/>
+      <c r="F173" s="76" t="s">
         <v>460</v>
       </c>
-      <c r="G173" s="77" t="s">
+      <c r="G173" s="76" t="s">
         <v>354</v>
       </c>
-      <c r="H173" s="77"/>
+      <c r="H173" s="76"/>
     </row>
     <row r="174" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A174" s="77">
+      <c r="A174" s="76">
         <v>30</v>
       </c>
-      <c r="B174" s="77" t="s">
+      <c r="B174" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="C174" s="77">
+      <c r="C174" s="76">
         <v>1000</v>
       </c>
-      <c r="D174" s="77" t="s">
+      <c r="D174" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="E174" s="77"/>
-      <c r="F174" s="77" t="s">
+      <c r="E174" s="76"/>
+      <c r="F174" s="76" t="s">
         <v>461</v>
       </c>
-      <c r="G174" s="77" t="s">
+      <c r="G174" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="H174" s="77"/>
+      <c r="H174" s="76"/>
     </row>
     <row r="175" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A175" s="77">
+      <c r="A175" s="76">
         <v>40</v>
       </c>
-      <c r="B175" s="77" t="s">
+      <c r="B175" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="C175" s="77">
+      <c r="C175" s="76">
         <v>1000</v>
       </c>
-      <c r="D175" s="77" t="s">
+      <c r="D175" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="E175" s="77"/>
-      <c r="F175" s="77" t="s">
+      <c r="E175" s="76"/>
+      <c r="F175" s="76" t="s">
         <v>462</v>
       </c>
-      <c r="G175" s="77" t="s">
+      <c r="G175" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="H175" s="77"/>
+      <c r="H175" s="76"/>
     </row>
     <row r="177" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A177" s="108" t="s">
+      <c r="A177" s="107" t="s">
         <v>371</v>
       </c>
-      <c r="B177" s="109"/>
-      <c r="C177" s="109"/>
-      <c r="D177" s="109"/>
-      <c r="E177" s="109"/>
-      <c r="F177" s="109"/>
-      <c r="G177" s="109"/>
-      <c r="H177" s="109"/>
-      <c r="I177" s="109"/>
-      <c r="J177" s="109"/>
-      <c r="K177" s="47"/>
-      <c r="L177" s="47"/>
-      <c r="M177" s="47"/>
-      <c r="N177" s="47"/>
-      <c r="O177" s="47"/>
-      <c r="P177" s="47"/>
-      <c r="Q177" s="47"/>
-      <c r="R177" s="47"/>
-      <c r="S177" s="47"/>
+      <c r="B177" s="108"/>
+      <c r="C177" s="108"/>
+      <c r="D177" s="108"/>
+      <c r="E177" s="108"/>
+      <c r="F177" s="108"/>
+      <c r="G177" s="108"/>
+      <c r="H177" s="108"/>
+      <c r="I177" s="108"/>
+      <c r="J177" s="108"/>
+      <c r="K177" s="46"/>
+      <c r="L177" s="46"/>
+      <c r="M177" s="46"/>
+      <c r="N177" s="46"/>
+      <c r="O177" s="46"/>
+      <c r="P177" s="46"/>
+      <c r="Q177" s="46"/>
+      <c r="R177" s="46"/>
+      <c r="S177" s="46"/>
     </row>
     <row r="178" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A178" s="101"/>
-      <c r="B178" s="102"/>
-      <c r="C178" s="105" t="s">
+      <c r="A178" s="100"/>
+      <c r="B178" s="101"/>
+      <c r="C178" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="D178" s="105"/>
-      <c r="E178" s="105"/>
-      <c r="F178" s="105"/>
-      <c r="G178" s="105"/>
-      <c r="H178" s="105"/>
-      <c r="I178" s="105"/>
-      <c r="J178" s="105"/>
-      <c r="K178" s="105"/>
-      <c r="L178" s="105"/>
-      <c r="M178" s="105"/>
-      <c r="N178" s="105"/>
-      <c r="O178" s="106"/>
-      <c r="P178" s="118" t="s">
+      <c r="D178" s="104"/>
+      <c r="E178" s="104"/>
+      <c r="F178" s="104"/>
+      <c r="G178" s="104"/>
+      <c r="H178" s="104"/>
+      <c r="I178" s="104"/>
+      <c r="J178" s="104"/>
+      <c r="K178" s="104"/>
+      <c r="L178" s="104"/>
+      <c r="M178" s="104"/>
+      <c r="N178" s="104"/>
+      <c r="O178" s="105"/>
+      <c r="P178" s="117" t="s">
         <v>466</v>
       </c>
-      <c r="Q178" s="119"/>
-      <c r="R178" s="119"/>
-      <c r="S178" s="119"/>
+      <c r="Q178" s="118"/>
+      <c r="R178" s="118"/>
+      <c r="S178" s="118"/>
     </row>
     <row r="179" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A179" s="110" t="s">
+      <c r="A179" s="109" t="s">
         <v>349</v>
       </c>
-      <c r="B179" s="110" t="s">
+      <c r="B179" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="C179" s="111" t="s">
+      <c r="C179" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="D179" s="112"/>
-      <c r="E179" s="112"/>
-      <c r="F179" s="113"/>
-      <c r="G179" s="114" t="s">
+      <c r="D179" s="111"/>
+      <c r="E179" s="111"/>
+      <c r="F179" s="112"/>
+      <c r="G179" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="H179" s="115"/>
-      <c r="I179" s="115"/>
-      <c r="J179" s="116"/>
-      <c r="K179" s="121" t="s">
+      <c r="H179" s="114"/>
+      <c r="I179" s="114"/>
+      <c r="J179" s="115"/>
+      <c r="K179" s="122" t="s">
         <v>504</v>
       </c>
-      <c r="L179" s="121" t="s">
+      <c r="L179" s="122" t="s">
         <v>507</v>
       </c>
-      <c r="M179" s="121" t="s">
+      <c r="M179" s="122" t="s">
         <v>505</v>
       </c>
-      <c r="N179" s="121" t="s">
+      <c r="N179" s="122" t="s">
         <v>506</v>
       </c>
-      <c r="O179" s="123" t="s">
+      <c r="O179" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="P179" s="118" t="s">
+      <c r="P179" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="Q179" s="119"/>
-      <c r="R179" s="120"/>
-      <c r="S179" s="120"/>
+      <c r="Q179" s="118"/>
+      <c r="R179" s="119"/>
+      <c r="S179" s="119"/>
     </row>
     <row r="180" spans="1:78" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="117"/>
-      <c r="B180" s="117"/>
-      <c r="C180" s="66" t="s">
+      <c r="A180" s="116"/>
+      <c r="B180" s="116"/>
+      <c r="C180" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="D180" s="66" t="s">
+      <c r="D180" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="E180" s="66" t="s">
+      <c r="E180" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="F180" s="66" t="s">
+      <c r="F180" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="G180" s="67" t="s">
+      <c r="G180" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="H180" s="67" t="s">
+      <c r="H180" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="I180" s="67" t="s">
+      <c r="I180" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="J180" s="67" t="s">
+      <c r="J180" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="K180" s="122"/>
-      <c r="L180" s="122"/>
-      <c r="M180" s="122"/>
-      <c r="N180" s="122"/>
-      <c r="O180" s="124"/>
-      <c r="P180" s="97" t="s">
+      <c r="K180" s="123"/>
+      <c r="L180" s="123"/>
+      <c r="M180" s="123"/>
+      <c r="N180" s="123"/>
+      <c r="O180" s="127"/>
+      <c r="P180" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="Q180" s="97" t="s">
+      <c r="Q180" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="R180" s="97" t="s">
+      <c r="R180" s="96" t="s">
         <v>356</v>
       </c>
-      <c r="S180" s="97" t="s">
+      <c r="S180" s="96" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A181" s="42" t="s">
+      <c r="A181" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="42" t="s">
+      <c r="B181" s="41" t="s">
         <v>359</v>
       </c>
       <c r="C181" s="30" t="str">
@@ -11342,107 +11234,107 @@
       <c r="L181" s="30"/>
       <c r="M181" s="30"/>
       <c r="N181" s="30"/>
-      <c r="O181" s="42" t="s">
+      <c r="O181" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="P181" s="107"/>
-      <c r="Q181" s="107"/>
-      <c r="R181" s="107"/>
-      <c r="S181" s="107"/>
+      <c r="P181" s="106"/>
+      <c r="Q181" s="106"/>
+      <c r="R181" s="106"/>
+      <c r="S181" s="106"/>
     </row>
     <row r="183" spans="1:78" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="130" t="s">
+      <c r="A183" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="B183" s="131"/>
-      <c r="C183" s="131"/>
-      <c r="D183" s="131"/>
-      <c r="E183" s="131"/>
-      <c r="F183" s="131"/>
-      <c r="G183" s="131"/>
-      <c r="H183" s="131"/>
-      <c r="I183" s="131"/>
-      <c r="J183" s="131"/>
-      <c r="K183" s="131"/>
-      <c r="L183" s="131"/>
+      <c r="B183" s="125"/>
+      <c r="C183" s="125"/>
+      <c r="D183" s="125"/>
+      <c r="E183" s="125"/>
+      <c r="F183" s="125"/>
+      <c r="G183" s="125"/>
+      <c r="H183" s="125"/>
+      <c r="I183" s="125"/>
+      <c r="J183" s="125"/>
+      <c r="K183" s="125"/>
+      <c r="L183" s="125"/>
     </row>
     <row r="184" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A184" s="132" t="s">
+      <c r="A184" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="B184" s="132" t="s">
+      <c r="B184" s="140" t="s">
         <v>361</v>
       </c>
-      <c r="C184" s="135" t="s">
+      <c r="C184" s="143" t="s">
         <v>362</v>
       </c>
-      <c r="D184" s="138" t="s">
+      <c r="D184" s="146" t="s">
         <v>363</v>
       </c>
-      <c r="E184" s="141" t="s">
+      <c r="E184" s="128" t="s">
         <v>348</v>
       </c>
-      <c r="F184" s="141"/>
-      <c r="G184" s="141"/>
-      <c r="H184" s="141"/>
-      <c r="I184" s="125" t="s">
+      <c r="F184" s="128"/>
+      <c r="G184" s="128"/>
+      <c r="H184" s="128"/>
+      <c r="I184" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="J184" s="125"/>
-      <c r="K184" s="125"/>
-      <c r="L184" s="125"/>
+      <c r="J184" s="129"/>
+      <c r="K184" s="129"/>
+      <c r="L184" s="129"/>
     </row>
     <row r="185" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A185" s="133"/>
-      <c r="B185" s="133"/>
-      <c r="C185" s="136"/>
-      <c r="D185" s="139"/>
-      <c r="E185" s="126" t="s">
+      <c r="A185" s="141"/>
+      <c r="B185" s="141"/>
+      <c r="C185" s="144"/>
+      <c r="D185" s="147"/>
+      <c r="E185" s="130" t="s">
         <v>365</v>
       </c>
-      <c r="F185" s="127"/>
-      <c r="G185" s="128" t="s">
+      <c r="F185" s="131"/>
+      <c r="G185" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="H185" s="129"/>
-      <c r="I185" s="126" t="s">
+      <c r="H185" s="133"/>
+      <c r="I185" s="130" t="s">
         <v>365</v>
       </c>
-      <c r="J185" s="127"/>
-      <c r="K185" s="128" t="s">
+      <c r="J185" s="131"/>
+      <c r="K185" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="L185" s="129"/>
+      <c r="L185" s="133"/>
     </row>
     <row r="186" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A186" s="134"/>
-      <c r="B186" s="134" t="s">
+      <c r="A186" s="142"/>
+      <c r="B186" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="C186" s="137"/>
-      <c r="D186" s="140"/>
-      <c r="E186" s="66" t="s">
+      <c r="C186" s="145"/>
+      <c r="D186" s="148"/>
+      <c r="E186" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="F186" s="66" t="s">
+      <c r="F186" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="G186" s="67" t="s">
+      <c r="G186" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="H186" s="67" t="s">
+      <c r="H186" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="I186" s="66" t="s">
+      <c r="I186" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="J186" s="66" t="s">
+      <c r="J186" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="K186" s="67" t="s">
+      <c r="K186" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="L186" s="67" t="s">
+      <c r="L186" s="66" t="s">
         <v>369</v>
       </c>
     </row>
@@ -11450,470 +11342,470 @@
       <c r="A187" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="B187" s="42" t="s">
+      <c r="B187" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C187" s="57" t="s">
+      <c r="C187" s="56" t="s">
         <v>370</v>
       </c>
       <c r="D187" s="30" t="str">
         <f>TEXT(597.23,"0.00")</f>
         <v>597.23</v>
       </c>
-      <c r="E187" s="69" t="str">
+      <c r="E187" s="68" t="str">
         <f>"$"&amp;TEXT(59382.86,"0.00")</f>
         <v>$59382.86</v>
       </c>
-      <c r="F187" s="69" t="str">
+      <c r="F187" s="68" t="str">
         <f>"$"&amp;TEXT(2041,"0.00")</f>
         <v>$2041.00</v>
       </c>
-      <c r="G187" s="69" t="str">
+      <c r="G187" s="68" t="str">
         <f>"$"&amp;TEXT(8517,"0.00")</f>
         <v>$8517.00</v>
       </c>
-      <c r="H187" s="69" t="str">
+      <c r="H187" s="68" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
-      <c r="I187" s="70" t="str">
+      <c r="I187" s="69" t="str">
         <f>"$"&amp;TEXT(59382.86,"0.00")</f>
         <v>$59382.86</v>
       </c>
-      <c r="J187" s="70" t="str">
+      <c r="J187" s="69" t="str">
         <f>"$"&amp;TEXT(2041,"0.00")</f>
         <v>$2041.00</v>
       </c>
-      <c r="K187" s="70" t="str">
+      <c r="K187" s="69" t="str">
         <f>"$"&amp;TEXT(8517,"0.00")</f>
         <v>$8517.00</v>
       </c>
-      <c r="L187" s="70" t="str">
+      <c r="L187" s="69" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
     </row>
     <row r="188" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A188" s="57" t="s">
+      <c r="A188" s="56" t="s">
         <v>479</v>
       </c>
-      <c r="B188" s="42" t="s">
+      <c r="B188" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C188" s="57" t="s">
+      <c r="C188" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="D188" s="68" t="str">
+      <c r="D188" s="67" t="str">
         <f>TEXT(237.02,"0.00")</f>
         <v>237.02</v>
       </c>
-      <c r="E188" s="69" t="str">
+      <c r="E188" s="68" t="str">
         <f>"$"&amp;TEXT(22258.34,"0.00")</f>
         <v>$22258.34</v>
       </c>
-      <c r="F188" s="69" t="str">
+      <c r="F188" s="68" t="str">
         <f>"$"&amp;TEXT(1300,"0.00")</f>
         <v>$1300.00</v>
       </c>
-      <c r="G188" s="69" t="str">
+      <c r="G188" s="68" t="str">
         <f>"$"&amp;TEXT(6604.5,"0.00")</f>
         <v>$6604.50</v>
       </c>
-      <c r="H188" s="69" t="str">
+      <c r="H188" s="68" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
-      <c r="I188" s="70" t="str">
+      <c r="I188" s="69" t="str">
         <f>"$"&amp;TEXT(22258.34,"0.00")</f>
         <v>$22258.34</v>
       </c>
-      <c r="J188" s="70" t="str">
+      <c r="J188" s="69" t="str">
         <f>"$"&amp;TEXT(1300,"0.00")</f>
         <v>$1300.00</v>
       </c>
-      <c r="K188" s="70" t="str">
+      <c r="K188" s="69" t="str">
         <f>"$"&amp;TEXT(6604.5,"0.00")</f>
         <v>$6604.50</v>
       </c>
-      <c r="L188" s="70" t="str">
+      <c r="L188" s="69" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
     </row>
     <row r="189" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A189" s="57" t="s">
+      <c r="A189" s="56" t="s">
         <v>480</v>
       </c>
-      <c r="B189" s="42" t="s">
+      <c r="B189" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C189" s="57" t="s">
+      <c r="C189" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="D189" s="68" t="str">
+      <c r="D189" s="67" t="str">
         <f>TEXT(2154.88,"0.00")</f>
         <v>2154.88</v>
       </c>
-      <c r="E189" s="69" t="str">
+      <c r="E189" s="68" t="str">
         <f>"$"&amp;TEXT(14374.84,"0.00")</f>
         <v>$14374.84</v>
       </c>
-      <c r="F189" s="69" t="str">
+      <c r="F189" s="68" t="str">
         <f>"$"&amp;TEXT(247,"0.00")</f>
         <v>$247.00</v>
       </c>
-      <c r="G189" s="69" t="str">
+      <c r="G189" s="68" t="str">
         <f>"$"&amp;TEXT(637.5,"0.00")</f>
         <v>$637.50</v>
       </c>
-      <c r="H189" s="69" t="str">
+      <c r="H189" s="68" t="str">
         <f>"$"&amp;TEXT(0,"0.00")</f>
         <v>$0.00</v>
       </c>
-      <c r="I189" s="70" t="str">
+      <c r="I189" s="69" t="str">
         <f>"$"&amp;TEXT(14374.84,"0.00")</f>
         <v>$14374.84</v>
       </c>
-      <c r="J189" s="70" t="str">
+      <c r="J189" s="69" t="str">
         <f>"$"&amp;TEXT(247,"0.00")</f>
         <v>$247.00</v>
       </c>
-      <c r="K189" s="70" t="str">
+      <c r="K189" s="69" t="str">
         <f>"$"&amp;TEXT(637.5,"0.00")</f>
         <v>$637.50</v>
       </c>
-      <c r="L189" s="70" t="str">
+      <c r="L189" s="69" t="str">
         <f>"$"&amp;TEXT(0,"0.00")</f>
         <v>$0.00</v>
       </c>
     </row>
     <row r="191" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A191" s="46" t="s">
+      <c r="A191" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="B191" s="47"/>
-      <c r="C191" s="47"/>
-      <c r="D191" s="47"/>
-      <c r="E191" s="47"/>
-      <c r="F191" s="47"/>
-      <c r="G191" s="47"/>
-      <c r="H191" s="47"/>
-      <c r="I191" s="47"/>
-      <c r="J191" s="47"/>
-      <c r="K191" s="47"/>
-      <c r="L191" s="47"/>
-      <c r="M191" s="47"/>
-      <c r="N191" s="47"/>
-      <c r="O191" s="47"/>
-      <c r="P191" s="47"/>
-      <c r="Q191" s="47"/>
-      <c r="R191" s="47"/>
-      <c r="S191" s="47"/>
-      <c r="T191" s="47"/>
-      <c r="U191" s="47"/>
-      <c r="V191" s="47"/>
-      <c r="W191" s="47"/>
-      <c r="X191" s="47"/>
-      <c r="Y191" s="47"/>
-      <c r="Z191" s="47"/>
-      <c r="AA191" s="47"/>
-      <c r="AB191" s="47"/>
-      <c r="AC191" s="47"/>
-      <c r="AD191" s="47"/>
-      <c r="AE191" s="47"/>
-      <c r="AF191" s="47"/>
-      <c r="AG191" s="47"/>
-      <c r="AH191" s="47"/>
-      <c r="AI191" s="47"/>
+      <c r="B191" s="46"/>
+      <c r="C191" s="46"/>
+      <c r="D191" s="46"/>
+      <c r="E191" s="46"/>
+      <c r="F191" s="46"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="46"/>
+      <c r="I191" s="46"/>
+      <c r="J191" s="46"/>
+      <c r="K191" s="46"/>
+      <c r="L191" s="46"/>
+      <c r="M191" s="46"/>
+      <c r="N191" s="46"/>
+      <c r="O191" s="46"/>
+      <c r="P191" s="46"/>
+      <c r="Q191" s="46"/>
+      <c r="R191" s="46"/>
+      <c r="S191" s="46"/>
+      <c r="T191" s="46"/>
+      <c r="U191" s="46"/>
+      <c r="V191" s="46"/>
+      <c r="W191" s="46"/>
+      <c r="X191" s="46"/>
+      <c r="Y191" s="46"/>
+      <c r="Z191" s="46"/>
+      <c r="AA191" s="46"/>
+      <c r="AB191" s="46"/>
+      <c r="AC191" s="46"/>
+      <c r="AD191" s="46"/>
+      <c r="AE191" s="46"/>
+      <c r="AF191" s="46"/>
+      <c r="AG191" s="46"/>
+      <c r="AH191" s="46"/>
+      <c r="AI191" s="46"/>
     </row>
     <row r="192" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A192" s="48" t="s">
+      <c r="A192" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="B192" s="48" t="s">
+      <c r="B192" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="C192" s="48" t="s">
+      <c r="C192" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="D192" s="48" t="s">
+      <c r="D192" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="E192" s="48" t="s">
+      <c r="E192" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="F192" s="48" t="s">
+      <c r="F192" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="G192" s="48" t="s">
+      <c r="G192" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="H192" s="48" t="s">
+      <c r="H192" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="I192" s="48" t="s">
+      <c r="I192" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="J192" s="48" t="s">
+      <c r="J192" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="K192" s="48" t="s">
+      <c r="K192" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="L192" s="48" t="s">
+      <c r="L192" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="M192" s="48" t="s">
+      <c r="M192" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="N192" s="48" t="s">
+      <c r="N192" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="O192" s="48" t="s">
+      <c r="O192" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="P192" s="48" t="s">
+      <c r="P192" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="Q192" s="48" t="s">
+      <c r="Q192" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="R192" s="48" t="s">
+      <c r="R192" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="S192" s="49" t="s">
+      <c r="S192" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="T192" s="158" t="s">
+      <c r="T192" s="134" t="s">
         <v>296</v>
       </c>
-      <c r="U192" s="159"/>
-      <c r="V192" s="160"/>
-      <c r="W192" s="158" t="s">
+      <c r="U192" s="135"/>
+      <c r="V192" s="136"/>
+      <c r="W192" s="134" t="s">
         <v>297</v>
       </c>
-      <c r="X192" s="160"/>
-      <c r="Y192" s="95"/>
-      <c r="Z192" s="155" t="s">
+      <c r="X192" s="136"/>
+      <c r="Y192" s="94"/>
+      <c r="Z192" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="AA192" s="156"/>
-      <c r="AB192" s="156"/>
-      <c r="AC192" s="156"/>
-      <c r="AD192" s="156"/>
-      <c r="AE192" s="156"/>
-      <c r="AF192" s="157"/>
-      <c r="AG192" s="155" t="s">
+      <c r="AA192" s="138"/>
+      <c r="AB192" s="138"/>
+      <c r="AC192" s="138"/>
+      <c r="AD192" s="138"/>
+      <c r="AE192" s="138"/>
+      <c r="AF192" s="139"/>
+      <c r="AG192" s="137" t="s">
         <v>299</v>
       </c>
-      <c r="AH192" s="156"/>
-      <c r="AI192" s="156"/>
-      <c r="AJ192" s="156"/>
-      <c r="AK192" s="156"/>
-      <c r="AL192" s="157"/>
-      <c r="AM192" s="51"/>
-      <c r="AN192" s="52"/>
-      <c r="AO192" s="52"/>
-      <c r="AP192" s="52"/>
-      <c r="AS192" s="53"/>
-      <c r="AT192" s="53"/>
-      <c r="AU192" s="53"/>
-      <c r="AV192" s="53"/>
-      <c r="AW192" s="53"/>
-      <c r="AX192" s="53"/>
-      <c r="AY192" s="53"/>
-      <c r="AZ192" s="53"/>
-      <c r="BA192" s="53"/>
-      <c r="BB192" s="53"/>
-      <c r="BC192" s="53"/>
-      <c r="BD192" s="53"/>
-      <c r="BE192" s="53"/>
-      <c r="BF192" s="53"/>
-      <c r="BG192" s="53"/>
-      <c r="BH192" s="53"/>
-      <c r="BI192" s="53"/>
-      <c r="BJ192" s="53"/>
-      <c r="BK192" s="53"/>
-      <c r="BL192" s="53"/>
-      <c r="BM192" s="53"/>
-      <c r="BN192" s="53"/>
-      <c r="BO192" s="53"/>
-      <c r="BP192" s="53"/>
-      <c r="BQ192" s="53"/>
-      <c r="BR192" s="53"/>
-      <c r="BS192" s="53"/>
-      <c r="BT192" s="53"/>
-      <c r="BU192" s="53"/>
-      <c r="BV192" s="53"/>
-      <c r="BW192" s="53"/>
-      <c r="BX192" s="53"/>
-      <c r="BY192" s="53"/>
-      <c r="BZ192" s="53"/>
+      <c r="AH192" s="138"/>
+      <c r="AI192" s="138"/>
+      <c r="AJ192" s="138"/>
+      <c r="AK192" s="138"/>
+      <c r="AL192" s="139"/>
+      <c r="AM192" s="50"/>
+      <c r="AN192" s="51"/>
+      <c r="AO192" s="51"/>
+      <c r="AP192" s="51"/>
+      <c r="AS192" s="52"/>
+      <c r="AT192" s="52"/>
+      <c r="AU192" s="52"/>
+      <c r="AV192" s="52"/>
+      <c r="AW192" s="52"/>
+      <c r="AX192" s="52"/>
+      <c r="AY192" s="52"/>
+      <c r="AZ192" s="52"/>
+      <c r="BA192" s="52"/>
+      <c r="BB192" s="52"/>
+      <c r="BC192" s="52"/>
+      <c r="BD192" s="52"/>
+      <c r="BE192" s="52"/>
+      <c r="BF192" s="52"/>
+      <c r="BG192" s="52"/>
+      <c r="BH192" s="52"/>
+      <c r="BI192" s="52"/>
+      <c r="BJ192" s="52"/>
+      <c r="BK192" s="52"/>
+      <c r="BL192" s="52"/>
+      <c r="BM192" s="52"/>
+      <c r="BN192" s="52"/>
+      <c r="BO192" s="52"/>
+      <c r="BP192" s="52"/>
+      <c r="BQ192" s="52"/>
+      <c r="BR192" s="52"/>
+      <c r="BS192" s="52"/>
+      <c r="BT192" s="52"/>
+      <c r="BU192" s="52"/>
+      <c r="BV192" s="52"/>
+      <c r="BW192" s="52"/>
+      <c r="BX192" s="52"/>
+      <c r="BY192" s="52"/>
+      <c r="BZ192" s="52"/>
     </row>
     <row r="193" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A193" s="54"/>
-      <c r="B193" s="54"/>
-      <c r="C193" s="54"/>
-      <c r="D193" s="54"/>
-      <c r="E193" s="54"/>
-      <c r="F193" s="54"/>
-      <c r="G193" s="54"/>
-      <c r="H193" s="54"/>
-      <c r="I193" s="54"/>
-      <c r="J193" s="54"/>
-      <c r="K193" s="54"/>
-      <c r="L193" s="54"/>
-      <c r="M193" s="54"/>
-      <c r="N193" s="54"/>
-      <c r="O193" s="54"/>
-      <c r="P193" s="54"/>
-      <c r="Q193" s="54"/>
-      <c r="R193" s="54"/>
-      <c r="S193" s="54"/>
-      <c r="T193" s="55" t="s">
+      <c r="A193" s="53"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="53"/>
+      <c r="D193" s="53"/>
+      <c r="E193" s="53"/>
+      <c r="F193" s="53"/>
+      <c r="G193" s="53"/>
+      <c r="H193" s="53"/>
+      <c r="I193" s="53"/>
+      <c r="J193" s="53"/>
+      <c r="K193" s="53"/>
+      <c r="L193" s="53"/>
+      <c r="M193" s="53"/>
+      <c r="N193" s="53"/>
+      <c r="O193" s="53"/>
+      <c r="P193" s="53"/>
+      <c r="Q193" s="53"/>
+      <c r="R193" s="53"/>
+      <c r="S193" s="53"/>
+      <c r="T193" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="U193" s="55" t="s">
+      <c r="U193" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="V193" s="55" t="s">
+      <c r="V193" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="W193" s="55" t="s">
+      <c r="W193" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="X193" s="55" t="s">
+      <c r="X193" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="Y193" s="55" t="s">
+      <c r="Y193" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="Z193" s="55" t="s">
+      <c r="Z193" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="AA193" s="55" t="s">
+      <c r="AA193" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="AB193" s="55" t="s">
+      <c r="AB193" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="AC193" s="55" t="s">
+      <c r="AC193" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="AD193" s="55" t="s">
+      <c r="AD193" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="AE193" s="55" t="s">
+      <c r="AE193" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="AF193" s="55" t="s">
+      <c r="AF193" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="AG193" s="55" t="s">
+      <c r="AG193" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="AH193" s="55" t="s">
+      <c r="AH193" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="AI193" s="55" t="s">
+      <c r="AI193" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="AJ193" s="55" t="s">
+      <c r="AJ193" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="AK193" s="55" t="s">
+      <c r="AK193" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="AL193" s="55" t="s">
+      <c r="AL193" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="AM193" s="54" t="s">
+      <c r="AM193" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="AN193" s="55" t="s">
+      <c r="AN193" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="AO193" s="55" t="s">
+      <c r="AO193" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="AP193" s="56" t="s">
+      <c r="AP193" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="AS193" s="53"/>
-      <c r="AT193" s="53"/>
-      <c r="AU193" s="53"/>
-      <c r="AV193" s="53"/>
-      <c r="AW193" s="53"/>
-      <c r="AX193" s="53"/>
-      <c r="AY193" s="53"/>
-      <c r="AZ193" s="53"/>
-      <c r="BA193" s="53"/>
-      <c r="BB193" s="53"/>
-      <c r="BC193" s="53"/>
-      <c r="BD193" s="53"/>
-      <c r="BE193" s="53"/>
-      <c r="BF193" s="53"/>
-      <c r="BG193" s="53"/>
-      <c r="BH193" s="53"/>
-      <c r="BI193" s="53"/>
-      <c r="BJ193" s="53"/>
-      <c r="BK193" s="53"/>
-      <c r="BL193" s="53"/>
-      <c r="BM193" s="53"/>
-      <c r="BN193" s="53"/>
-      <c r="BO193" s="53"/>
-      <c r="BP193" s="53"/>
-      <c r="BQ193" s="53"/>
-      <c r="BR193" s="53"/>
-      <c r="BS193" s="53"/>
-      <c r="BT193" s="53"/>
-      <c r="BU193" s="53"/>
-      <c r="BV193" s="53"/>
-      <c r="BW193" s="53"/>
-      <c r="BX193" s="53"/>
-      <c r="BY193" s="53"/>
-      <c r="BZ193" s="53"/>
+      <c r="AS193" s="52"/>
+      <c r="AT193" s="52"/>
+      <c r="AU193" s="52"/>
+      <c r="AV193" s="52"/>
+      <c r="AW193" s="52"/>
+      <c r="AX193" s="52"/>
+      <c r="AY193" s="52"/>
+      <c r="AZ193" s="52"/>
+      <c r="BA193" s="52"/>
+      <c r="BB193" s="52"/>
+      <c r="BC193" s="52"/>
+      <c r="BD193" s="52"/>
+      <c r="BE193" s="52"/>
+      <c r="BF193" s="52"/>
+      <c r="BG193" s="52"/>
+      <c r="BH193" s="52"/>
+      <c r="BI193" s="52"/>
+      <c r="BJ193" s="52"/>
+      <c r="BK193" s="52"/>
+      <c r="BL193" s="52"/>
+      <c r="BM193" s="52"/>
+      <c r="BN193" s="52"/>
+      <c r="BO193" s="52"/>
+      <c r="BP193" s="52"/>
+      <c r="BQ193" s="52"/>
+      <c r="BR193" s="52"/>
+      <c r="BS193" s="52"/>
+      <c r="BT193" s="52"/>
+      <c r="BU193" s="52"/>
+      <c r="BV193" s="52"/>
+      <c r="BW193" s="52"/>
+      <c r="BX193" s="52"/>
+      <c r="BY193" s="52"/>
+      <c r="BZ193" s="52"/>
     </row>
     <row r="194" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A194" s="57" t="s">
+      <c r="A194" s="56" t="s">
         <v>323</v>
       </c>
       <c r="B194" s="28">
         <v>8797366188</v>
       </c>
-      <c r="C194" s="57" t="s">
+      <c r="C194" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="D194" s="58" t="s">
+      <c r="D194" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="E194" s="42" t="s">
+      <c r="E194" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F194" s="57" t="s">
+      <c r="F194" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="G194" s="59" t="str">
+      <c r="G194" s="58" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="H194" s="59" t="str">
+        <v>2023-08-07</v>
+      </c>
+      <c r="H194" s="58" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="I194" s="57">
+        <v>2023-08-07</v>
+      </c>
+      <c r="I194" s="56">
         <v>12</v>
       </c>
-      <c r="J194" s="57">
+      <c r="J194" s="56">
         <v>12</v>
       </c>
-      <c r="K194" s="57">
+      <c r="K194" s="56">
         <v>12</v>
       </c>
-      <c r="L194" s="57" t="s">
+      <c r="L194" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="M194" s="57" t="s">
+      <c r="M194" s="56" t="s">
         <v>346</v>
       </c>
       <c r="N194" s="30" t="s">
@@ -11931,533 +11823,533 @@
       <c r="R194" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="S194" s="42"/>
-      <c r="T194" s="42" t="s">
+      <c r="S194" s="41"/>
+      <c r="T194" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="U194" s="42" t="s">
+      <c r="U194" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="V194" s="42"/>
-      <c r="W194" s="42" t="s">
+      <c r="V194" s="41"/>
+      <c r="W194" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="X194" s="42" t="s">
+      <c r="X194" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="Y194" s="42"/>
-      <c r="Z194" s="42"/>
-      <c r="AA194" s="42"/>
-      <c r="AB194" s="42"/>
-      <c r="AC194" s="42"/>
-      <c r="AD194" s="42" t="s">
+      <c r="Y194" s="41"/>
+      <c r="Z194" s="41"/>
+      <c r="AA194" s="41"/>
+      <c r="AB194" s="41"/>
+      <c r="AC194" s="41"/>
+      <c r="AD194" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AE194" s="42" t="s">
+      <c r="AE194" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AF194" s="42" t="s">
+      <c r="AF194" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AG194" s="42"/>
-      <c r="AH194" s="42"/>
-      <c r="AI194" s="42"/>
-      <c r="AJ194" s="42" t="s">
+      <c r="AG194" s="41"/>
+      <c r="AH194" s="41"/>
+      <c r="AI194" s="41"/>
+      <c r="AJ194" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AK194" s="42" t="s">
+      <c r="AK194" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AL194" s="42" t="s">
+      <c r="AL194" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AM194" s="57"/>
-      <c r="AN194" s="57">
+      <c r="AM194" s="56"/>
+      <c r="AN194" s="56">
         <v>26</v>
       </c>
-      <c r="AO194" s="57">
+      <c r="AO194" s="56">
         <v>35</v>
       </c>
-      <c r="AP194" s="57">
+      <c r="AP194" s="56">
         <v>24</v>
       </c>
-      <c r="AS194" s="53"/>
-      <c r="AT194" s="53"/>
-      <c r="AU194" s="53"/>
-      <c r="AV194" s="53"/>
-      <c r="AW194" s="53"/>
-      <c r="AX194" s="53"/>
-      <c r="AY194" s="53"/>
-      <c r="AZ194" s="53"/>
-      <c r="BA194" s="53"/>
-      <c r="BB194" s="53"/>
-      <c r="BC194" s="53"/>
-      <c r="BD194" s="53"/>
-      <c r="BE194" s="53"/>
-      <c r="BF194" s="53"/>
-      <c r="BG194" s="53"/>
-      <c r="BH194" s="53"/>
-      <c r="BI194" s="53"/>
-      <c r="BJ194" s="53"/>
-      <c r="BK194" s="53"/>
-      <c r="BL194" s="53"/>
-      <c r="BM194" s="53"/>
-      <c r="BN194" s="53"/>
-      <c r="BO194" s="53"/>
-      <c r="BP194" s="53"/>
-      <c r="BQ194" s="53"/>
-      <c r="BR194" s="53"/>
-      <c r="BS194" s="53"/>
-      <c r="BT194" s="53"/>
-      <c r="BU194" s="53"/>
-      <c r="BV194" s="53"/>
-      <c r="BW194" s="53"/>
-      <c r="BX194" s="53"/>
-      <c r="BY194" s="53"/>
-      <c r="BZ194" s="53"/>
+      <c r="AS194" s="52"/>
+      <c r="AT194" s="52"/>
+      <c r="AU194" s="52"/>
+      <c r="AV194" s="52"/>
+      <c r="AW194" s="52"/>
+      <c r="AX194" s="52"/>
+      <c r="AY194" s="52"/>
+      <c r="AZ194" s="52"/>
+      <c r="BA194" s="52"/>
+      <c r="BB194" s="52"/>
+      <c r="BC194" s="52"/>
+      <c r="BD194" s="52"/>
+      <c r="BE194" s="52"/>
+      <c r="BF194" s="52"/>
+      <c r="BG194" s="52"/>
+      <c r="BH194" s="52"/>
+      <c r="BI194" s="52"/>
+      <c r="BJ194" s="52"/>
+      <c r="BK194" s="52"/>
+      <c r="BL194" s="52"/>
+      <c r="BM194" s="52"/>
+      <c r="BN194" s="52"/>
+      <c r="BO194" s="52"/>
+      <c r="BP194" s="52"/>
+      <c r="BQ194" s="52"/>
+      <c r="BR194" s="52"/>
+      <c r="BS194" s="52"/>
+      <c r="BT194" s="52"/>
+      <c r="BU194" s="52"/>
+      <c r="BV194" s="52"/>
+      <c r="BW194" s="52"/>
+      <c r="BX194" s="52"/>
+      <c r="BY194" s="52"/>
+      <c r="BZ194" s="52"/>
     </row>
     <row r="196" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A196" s="46" t="s">
+      <c r="A196" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="B196" s="47"/>
-      <c r="C196" s="47"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="46"/>
     </row>
     <row r="197" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A197" s="44" t="s">
+      <c r="A197" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="B197" s="44" t="s">
+      <c r="B197" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="C197" s="44" t="s">
+      <c r="C197" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="D197" s="44" t="s">
+      <c r="D197" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="E197" s="44" t="s">
+      <c r="E197" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F197" s="44" t="s">
+      <c r="F197" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="G197" s="44" t="s">
+      <c r="G197" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="H197" s="44" t="s">
+      <c r="H197" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="I197" s="44" t="s">
+      <c r="I197" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="J197" s="44" t="s">
+      <c r="J197" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="K197" s="44" t="s">
+      <c r="K197" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="L197" s="44" t="s">
+      <c r="L197" s="43" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="198" spans="1:78" ht="58" x14ac:dyDescent="0.35">
-      <c r="A198" s="73" t="s">
+      <c r="A198" s="72" t="s">
         <v>484</v>
       </c>
-      <c r="B198" s="74" t="s">
+      <c r="B198" s="73" t="s">
         <v>449</v>
       </c>
-      <c r="C198" s="74" t="s">
+      <c r="C198" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="D198" s="74" t="s">
+      <c r="D198" s="73" t="s">
         <v>382</v>
       </c>
-      <c r="E198" s="74" t="s">
+      <c r="E198" s="73" t="s">
         <v>382</v>
       </c>
-      <c r="F198" s="74"/>
-      <c r="G198" s="74"/>
-      <c r="H198" s="74"/>
-      <c r="I198" s="74"/>
-      <c r="J198" s="75">
+      <c r="F198" s="73"/>
+      <c r="G198" s="73"/>
+      <c r="H198" s="73"/>
+      <c r="I198" s="73"/>
+      <c r="J198" s="74">
         <f ca="1">TODAY()</f>
-        <v>45104</v>
-      </c>
-      <c r="K198" s="75">
+        <v>45145</v>
+      </c>
+      <c r="K198" s="74">
         <v>234</v>
       </c>
-      <c r="L198" s="74" t="s">
+      <c r="L198" s="73" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A200" s="142" t="s">
+      <c r="A200" s="120" t="s">
         <v>433</v>
       </c>
-      <c r="B200" s="143"/>
-      <c r="C200" s="143"/>
-      <c r="D200" s="143"/>
-      <c r="E200" s="143"/>
-      <c r="F200" s="143"/>
-      <c r="G200" s="143"/>
-      <c r="H200" s="143"/>
-      <c r="I200" s="143"/>
-      <c r="J200" s="143"/>
-      <c r="K200" s="143"/>
-      <c r="L200" s="143"/>
-      <c r="M200" s="143"/>
-      <c r="N200" s="143"/>
-      <c r="O200" s="143"/>
-      <c r="P200" s="143"/>
-      <c r="Q200" s="143"/>
-      <c r="R200" s="143"/>
-      <c r="S200" s="96"/>
-      <c r="T200" s="96"/>
-      <c r="U200" s="96"/>
-      <c r="V200" s="96"/>
-      <c r="W200" s="96"/>
-      <c r="X200" s="96"/>
-      <c r="Y200" s="96"/>
-      <c r="Z200" s="96"/>
+      <c r="B200" s="121"/>
+      <c r="C200" s="121"/>
+      <c r="D200" s="121"/>
+      <c r="E200" s="121"/>
+      <c r="F200" s="121"/>
+      <c r="G200" s="121"/>
+      <c r="H200" s="121"/>
+      <c r="I200" s="121"/>
+      <c r="J200" s="121"/>
+      <c r="K200" s="121"/>
+      <c r="L200" s="121"/>
+      <c r="M200" s="121"/>
+      <c r="N200" s="121"/>
+      <c r="O200" s="121"/>
+      <c r="P200" s="121"/>
+      <c r="Q200" s="121"/>
+      <c r="R200" s="121"/>
+      <c r="S200" s="95"/>
+      <c r="T200" s="95"/>
+      <c r="U200" s="95"/>
+      <c r="V200" s="95"/>
+      <c r="W200" s="95"/>
+      <c r="X200" s="95"/>
+      <c r="Y200" s="95"/>
+      <c r="Z200" s="95"/>
     </row>
     <row r="201" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A201" s="78" t="s">
+      <c r="A201" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="B201" s="78" t="s">
+      <c r="B201" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="C201" s="78" t="s">
+      <c r="C201" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D201" s="78" t="s">
+      <c r="D201" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="E201" s="78" t="s">
+      <c r="E201" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F201" s="78" t="s">
+      <c r="F201" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G201" s="78" t="s">
+      <c r="G201" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="H201" s="78" t="s">
+      <c r="H201" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="I201" s="78" t="s">
+      <c r="I201" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="J201" s="78" t="s">
+      <c r="J201" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="K201" s="78" t="s">
+      <c r="K201" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="L201" s="78" t="s">
+      <c r="L201" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="M201" s="78" t="s">
+      <c r="M201" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="N201" s="78" t="s">
+      <c r="N201" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="O201" s="78" t="s">
+      <c r="O201" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="P201" s="78" t="s">
+      <c r="P201" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="Q201" s="78" t="s">
+      <c r="Q201" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="R201" s="78" t="s">
+      <c r="R201" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="S201" s="78" t="s">
+      <c r="S201" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="T201" s="78" t="s">
+      <c r="T201" s="77" t="s">
         <v>335</v>
       </c>
-      <c r="U201" s="78" t="s">
+      <c r="U201" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="V201" s="78" t="s">
+      <c r="V201" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="W201" s="78" t="s">
+      <c r="W201" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="X201" s="78" t="s">
+      <c r="X201" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="Y201" s="78" t="s">
+      <c r="Y201" s="77" t="s">
         <v>411</v>
       </c>
-      <c r="Z201" s="78" t="s">
+      <c r="Z201" s="77" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:78" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="79" t="s">
+      <c r="A202" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B202" s="80"/>
-      <c r="C202" s="81" t="s">
+      <c r="B202" s="79"/>
+      <c r="C202" s="80" t="s">
         <v>464</v>
       </c>
-      <c r="D202" s="81"/>
-      <c r="E202" s="81"/>
-      <c r="F202" s="81" t="s">
+      <c r="D202" s="80"/>
+      <c r="E202" s="80"/>
+      <c r="F202" s="80" t="s">
         <v>465</v>
       </c>
-      <c r="G202" s="81" t="str">
+      <c r="G202" s="80" t="str">
         <f>CONCATENATE("USD,FLAT ",TEXT(F202,"0.00"))</f>
         <v>USD,FLAT 12.00</v>
       </c>
-      <c r="H202" s="81" t="s">
+      <c r="H202" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="I202" s="81" t="s">
+      <c r="I202" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="J202" s="81"/>
-      <c r="K202" s="81"/>
-      <c r="L202" s="81"/>
-      <c r="M202" s="81"/>
-      <c r="N202" s="81"/>
-      <c r="O202" s="81"/>
-      <c r="P202" s="81"/>
-      <c r="Q202" s="81"/>
-      <c r="R202" s="81"/>
-      <c r="S202" s="87" t="s">
+      <c r="J202" s="80"/>
+      <c r="K202" s="80"/>
+      <c r="L202" s="80"/>
+      <c r="M202" s="80"/>
+      <c r="N202" s="80"/>
+      <c r="O202" s="80"/>
+      <c r="P202" s="80"/>
+      <c r="Q202" s="80"/>
+      <c r="R202" s="80"/>
+      <c r="S202" s="86" t="s">
         <v>426</v>
       </c>
-      <c r="T202" s="81" t="s">
+      <c r="T202" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="U202" s="81">
+      <c r="U202" s="80">
         <v>8797366188</v>
       </c>
-      <c r="V202" s="81" t="s">
+      <c r="V202" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="W202" s="81" t="s">
+      <c r="W202" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="X202" s="81" t="s">
+      <c r="X202" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="Y202" s="81" t="s">
+      <c r="Y202" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="Z202" s="81"/>
+      <c r="Z202" s="80"/>
       <c r="AU202" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="AV202" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
     </row>
     <row r="203" spans="1:78" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="79" t="s">
+      <c r="A203" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B203" s="80"/>
-      <c r="C203" s="81" t="s">
+      <c r="B203" s="79"/>
+      <c r="C203" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="D203" s="81"/>
-      <c r="E203" s="81"/>
-      <c r="F203" s="81" t="s">
+      <c r="D203" s="80"/>
+      <c r="E203" s="80"/>
+      <c r="F203" s="80" t="s">
         <v>465</v>
       </c>
-      <c r="G203" s="81"/>
-      <c r="H203" s="81" t="s">
+      <c r="G203" s="80"/>
+      <c r="H203" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="I203" s="81"/>
-      <c r="J203" s="81"/>
-      <c r="K203" s="81"/>
-      <c r="L203" s="81"/>
-      <c r="M203" s="81"/>
-      <c r="N203" s="81"/>
-      <c r="O203" s="81"/>
-      <c r="P203" s="81"/>
-      <c r="Q203" s="81"/>
-      <c r="R203" s="81"/>
-      <c r="S203" s="87" t="s">
+      <c r="I203" s="80"/>
+      <c r="J203" s="80"/>
+      <c r="K203" s="80"/>
+      <c r="L203" s="80"/>
+      <c r="M203" s="80"/>
+      <c r="N203" s="80"/>
+      <c r="O203" s="80"/>
+      <c r="P203" s="80"/>
+      <c r="Q203" s="80"/>
+      <c r="R203" s="80"/>
+      <c r="S203" s="86" t="s">
         <v>426</v>
       </c>
-      <c r="T203" s="81" t="s">
+      <c r="T203" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="U203" s="81">
+      <c r="U203" s="80">
         <v>8797366188</v>
       </c>
-      <c r="V203" s="81" t="s">
+      <c r="V203" s="80" t="s">
         <v>415</v>
       </c>
-      <c r="W203" s="81" t="s">
+      <c r="W203" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="X203" s="81" t="s">
+      <c r="X203" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="Y203" s="81" t="s">
+      <c r="Y203" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="Z203" s="81"/>
+      <c r="Z203" s="80"/>
       <c r="AU203" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="AV203" t="s">
-        <v>590</v>
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A205" s="108" t="s">
+      <c r="A205" s="107" t="s">
         <v>371</v>
       </c>
-      <c r="B205" s="109"/>
-      <c r="C205" s="109"/>
-      <c r="D205" s="109"/>
-      <c r="E205" s="109"/>
-      <c r="F205" s="109"/>
-      <c r="G205" s="109"/>
-      <c r="H205" s="109"/>
-      <c r="I205" s="109"/>
-      <c r="J205" s="109"/>
-      <c r="K205" s="47"/>
-      <c r="L205" s="47"/>
-      <c r="M205" s="47"/>
-      <c r="N205" s="47"/>
-      <c r="O205" s="47"/>
-      <c r="P205" s="47"/>
-      <c r="Q205" s="47"/>
-      <c r="R205" s="47"/>
-      <c r="S205" s="47"/>
+      <c r="B205" s="108"/>
+      <c r="C205" s="108"/>
+      <c r="D205" s="108"/>
+      <c r="E205" s="108"/>
+      <c r="F205" s="108"/>
+      <c r="G205" s="108"/>
+      <c r="H205" s="108"/>
+      <c r="I205" s="108"/>
+      <c r="J205" s="108"/>
+      <c r="K205" s="46"/>
+      <c r="L205" s="46"/>
+      <c r="M205" s="46"/>
+      <c r="N205" s="46"/>
+      <c r="O205" s="46"/>
+      <c r="P205" s="46"/>
+      <c r="Q205" s="46"/>
+      <c r="R205" s="46"/>
+      <c r="S205" s="46"/>
     </row>
     <row r="206" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A206" s="101"/>
-      <c r="B206" s="102"/>
-      <c r="C206" s="105" t="s">
+      <c r="A206" s="100"/>
+      <c r="B206" s="101"/>
+      <c r="C206" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="D206" s="105"/>
-      <c r="E206" s="105"/>
-      <c r="F206" s="105"/>
-      <c r="G206" s="105"/>
-      <c r="H206" s="105"/>
-      <c r="I206" s="105"/>
-      <c r="J206" s="105"/>
-      <c r="K206" s="105"/>
-      <c r="L206" s="105"/>
-      <c r="M206" s="105"/>
-      <c r="N206" s="105"/>
-      <c r="O206" s="106"/>
-      <c r="P206" s="118" t="s">
+      <c r="D206" s="104"/>
+      <c r="E206" s="104"/>
+      <c r="F206" s="104"/>
+      <c r="G206" s="104"/>
+      <c r="H206" s="104"/>
+      <c r="I206" s="104"/>
+      <c r="J206" s="104"/>
+      <c r="K206" s="104"/>
+      <c r="L206" s="104"/>
+      <c r="M206" s="104"/>
+      <c r="N206" s="104"/>
+      <c r="O206" s="105"/>
+      <c r="P206" s="117" t="s">
         <v>466</v>
       </c>
-      <c r="Q206" s="119"/>
-      <c r="R206" s="119"/>
-      <c r="S206" s="119"/>
+      <c r="Q206" s="118"/>
+      <c r="R206" s="118"/>
+      <c r="S206" s="118"/>
     </row>
     <row r="207" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A207" s="110" t="s">
+      <c r="A207" s="109" t="s">
         <v>349</v>
       </c>
-      <c r="B207" s="110" t="s">
+      <c r="B207" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="C207" s="111" t="s">
+      <c r="C207" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="D207" s="112"/>
-      <c r="E207" s="112"/>
-      <c r="F207" s="113"/>
-      <c r="G207" s="114" t="s">
+      <c r="D207" s="111"/>
+      <c r="E207" s="111"/>
+      <c r="F207" s="112"/>
+      <c r="G207" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="H207" s="115"/>
-      <c r="I207" s="115"/>
-      <c r="J207" s="116"/>
-      <c r="K207" s="121" t="s">
+      <c r="H207" s="114"/>
+      <c r="I207" s="114"/>
+      <c r="J207" s="115"/>
+      <c r="K207" s="122" t="s">
         <v>504</v>
       </c>
-      <c r="L207" s="121" t="s">
+      <c r="L207" s="122" t="s">
         <v>507</v>
       </c>
-      <c r="M207" s="121" t="s">
+      <c r="M207" s="122" t="s">
         <v>505</v>
       </c>
-      <c r="N207" s="121" t="s">
+      <c r="N207" s="122" t="s">
         <v>506</v>
       </c>
-      <c r="O207" s="123" t="s">
+      <c r="O207" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="P207" s="118" t="s">
+      <c r="P207" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="Q207" s="119"/>
-      <c r="R207" s="120"/>
-      <c r="S207" s="120"/>
+      <c r="Q207" s="118"/>
+      <c r="R207" s="119"/>
+      <c r="S207" s="119"/>
     </row>
     <row r="208" spans="1:78" x14ac:dyDescent="0.35">
-      <c r="A208" s="117"/>
-      <c r="B208" s="117"/>
-      <c r="C208" s="66" t="s">
+      <c r="A208" s="116"/>
+      <c r="B208" s="116"/>
+      <c r="C208" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="D208" s="66" t="s">
+      <c r="D208" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="E208" s="66" t="s">
+      <c r="E208" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="F208" s="66" t="s">
+      <c r="F208" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="G208" s="67" t="s">
+      <c r="G208" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="H208" s="67" t="s">
+      <c r="H208" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="I208" s="67" t="s">
+      <c r="I208" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="J208" s="67" t="s">
+      <c r="J208" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="K208" s="122"/>
-      <c r="L208" s="122"/>
-      <c r="M208" s="122"/>
-      <c r="N208" s="122"/>
-      <c r="O208" s="124"/>
-      <c r="P208" s="97" t="s">
+      <c r="K208" s="123"/>
+      <c r="L208" s="123"/>
+      <c r="M208" s="123"/>
+      <c r="N208" s="123"/>
+      <c r="O208" s="127"/>
+      <c r="P208" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="Q208" s="97" t="s">
+      <c r="Q208" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="R208" s="97" t="s">
+      <c r="R208" s="96" t="s">
         <v>356</v>
       </c>
-      <c r="S208" s="97" t="s">
+      <c r="S208" s="96" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A209" s="42" t="s">
+      <c r="A209" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="B209" s="42" t="s">
+      <c r="B209" s="41" t="s">
         <v>359</v>
       </c>
       <c r="C209" s="30" t="str">
@@ -12499,7 +12391,7 @@
       <c r="L209" s="30"/>
       <c r="M209" s="30"/>
       <c r="N209" s="30"/>
-      <c r="O209" s="42" t="s">
+      <c r="O209" s="41" t="s">
         <v>155</v>
       </c>
       <c r="P209" s="30" t="str">
@@ -12517,98 +12409,98 @@
       </c>
     </row>
     <row r="211" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="130" t="s">
+      <c r="A211" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="B211" s="131"/>
-      <c r="C211" s="131"/>
-      <c r="D211" s="131"/>
-      <c r="E211" s="131"/>
-      <c r="F211" s="131"/>
-      <c r="G211" s="131"/>
-      <c r="H211" s="131"/>
-      <c r="I211" s="131"/>
-      <c r="J211" s="131"/>
-      <c r="K211" s="131"/>
-      <c r="L211" s="131"/>
+      <c r="B211" s="125"/>
+      <c r="C211" s="125"/>
+      <c r="D211" s="125"/>
+      <c r="E211" s="125"/>
+      <c r="F211" s="125"/>
+      <c r="G211" s="125"/>
+      <c r="H211" s="125"/>
+      <c r="I211" s="125"/>
+      <c r="J211" s="125"/>
+      <c r="K211" s="125"/>
+      <c r="L211" s="125"/>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A212" s="132" t="s">
+      <c r="A212" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="B212" s="132" t="s">
+      <c r="B212" s="140" t="s">
         <v>361</v>
       </c>
-      <c r="C212" s="135" t="s">
+      <c r="C212" s="143" t="s">
         <v>362</v>
       </c>
-      <c r="D212" s="138" t="s">
+      <c r="D212" s="146" t="s">
         <v>363</v>
       </c>
-      <c r="E212" s="141" t="s">
+      <c r="E212" s="128" t="s">
         <v>348</v>
       </c>
-      <c r="F212" s="141"/>
-      <c r="G212" s="141"/>
-      <c r="H212" s="141"/>
-      <c r="I212" s="125" t="s">
+      <c r="F212" s="128"/>
+      <c r="G212" s="128"/>
+      <c r="H212" s="128"/>
+      <c r="I212" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="J212" s="125"/>
-      <c r="K212" s="125"/>
-      <c r="L212" s="125"/>
+      <c r="J212" s="129"/>
+      <c r="K212" s="129"/>
+      <c r="L212" s="129"/>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A213" s="133"/>
-      <c r="B213" s="133"/>
-      <c r="C213" s="136"/>
-      <c r="D213" s="139"/>
-      <c r="E213" s="126" t="s">
+      <c r="A213" s="141"/>
+      <c r="B213" s="141"/>
+      <c r="C213" s="144"/>
+      <c r="D213" s="147"/>
+      <c r="E213" s="130" t="s">
         <v>365</v>
       </c>
-      <c r="F213" s="127"/>
-      <c r="G213" s="128" t="s">
+      <c r="F213" s="131"/>
+      <c r="G213" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="H213" s="129"/>
-      <c r="I213" s="126" t="s">
+      <c r="H213" s="133"/>
+      <c r="I213" s="130" t="s">
         <v>365</v>
       </c>
-      <c r="J213" s="127"/>
-      <c r="K213" s="128" t="s">
+      <c r="J213" s="131"/>
+      <c r="K213" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="L213" s="129"/>
+      <c r="L213" s="133"/>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A214" s="134"/>
-      <c r="B214" s="134" t="s">
+      <c r="A214" s="142"/>
+      <c r="B214" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="C214" s="137"/>
-      <c r="D214" s="140"/>
-      <c r="E214" s="66" t="s">
+      <c r="C214" s="145"/>
+      <c r="D214" s="148"/>
+      <c r="E214" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="F214" s="66" t="s">
+      <c r="F214" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="G214" s="67" t="s">
+      <c r="G214" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="H214" s="67" t="s">
+      <c r="H214" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="I214" s="66" t="s">
+      <c r="I214" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="J214" s="66" t="s">
+      <c r="J214" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="K214" s="67" t="s">
+      <c r="K214" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="L214" s="67" t="s">
+      <c r="L214" s="66" t="s">
         <v>369</v>
       </c>
     </row>
@@ -12616,358 +12508,358 @@
       <c r="A215" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="B215" s="42" t="s">
+      <c r="B215" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C215" s="57" t="s">
+      <c r="C215" s="56" t="s">
         <v>370</v>
       </c>
       <c r="D215" s="30" t="str">
         <f>TEXT(572.98,"0.00")</f>
         <v>572.98</v>
       </c>
-      <c r="E215" s="69" t="str">
+      <c r="E215" s="68" t="str">
         <f>"$"&amp;TEXT(57317.36,"0.00")</f>
         <v>$57317.36</v>
       </c>
-      <c r="F215" s="69" t="str">
+      <c r="F215" s="68" t="str">
         <f>"$"&amp;TEXT(2041,"0.00")</f>
         <v>$2041.00</v>
       </c>
-      <c r="G215" s="69" t="str">
+      <c r="G215" s="68" t="str">
         <f>"$"&amp;TEXT(8517,"0.00")</f>
         <v>$8517.00</v>
       </c>
-      <c r="H215" s="69" t="str">
+      <c r="H215" s="68" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
-      <c r="I215" s="70" t="str">
+      <c r="I215" s="69" t="str">
         <f>"$"&amp;TEXT(57317.36,"0.00")</f>
         <v>$57317.36</v>
       </c>
-      <c r="J215" s="70" t="str">
+      <c r="J215" s="69" t="str">
         <f>"$"&amp;TEXT(2041,"0.00")</f>
         <v>$2041.00</v>
       </c>
-      <c r="K215" s="70" t="str">
+      <c r="K215" s="69" t="str">
         <f>"$"&amp;TEXT(8517,"0.00")</f>
         <v>$8517.00</v>
       </c>
-      <c r="L215" s="70" t="str">
+      <c r="L215" s="69" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A216" s="57" t="s">
+      <c r="A216" s="56" t="s">
         <v>479</v>
       </c>
-      <c r="B216" s="42" t="s">
+      <c r="B216" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C216" s="57" t="s">
+      <c r="C216" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="D216" s="68" t="str">
+      <c r="D216" s="67" t="str">
         <f>TEXT(206.36,"0.00")</f>
         <v>206.36</v>
       </c>
-      <c r="E216" s="69" t="str">
+      <c r="E216" s="68" t="str">
         <f>"$"&amp;TEXT(20233.34,"0.00")</f>
         <v>$20233.34</v>
       </c>
-      <c r="F216" s="69" t="str">
+      <c r="F216" s="68" t="str">
         <f>"$"&amp;TEXT(1300,"0.00")</f>
         <v>$1300.00</v>
       </c>
-      <c r="G216" s="69" t="str">
+      <c r="G216" s="68" t="str">
         <f>"$"&amp;TEXT(6604.5,"0.00")</f>
         <v>$6604.50</v>
       </c>
-      <c r="H216" s="69" t="str">
+      <c r="H216" s="68" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
-      <c r="I216" s="70" t="str">
+      <c r="I216" s="69" t="str">
         <f>"$"&amp;TEXT(20233.34,"0.00")</f>
         <v>$20233.34</v>
       </c>
-      <c r="J216" s="70" t="str">
+      <c r="J216" s="69" t="str">
         <f>"$"&amp;TEXT(1300,"0.00")</f>
         <v>$1300.00</v>
       </c>
-      <c r="K216" s="70" t="str">
+      <c r="K216" s="69" t="str">
         <f>"$"&amp;TEXT(6604.5,"0.00")</f>
         <v>$6604.50</v>
       </c>
-      <c r="L216" s="70" t="str">
+      <c r="L216" s="69" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A217" s="57" t="s">
+      <c r="A217" s="56" t="s">
         <v>480</v>
       </c>
-      <c r="B217" s="42" t="s">
+      <c r="B217" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C217" s="57" t="s">
+      <c r="C217" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="D217" s="68" t="str">
+      <c r="D217" s="67" t="str">
         <f>TEXT(2152.76,"0.00")</f>
         <v>2152.76</v>
       </c>
-      <c r="E217" s="69" t="str">
+      <c r="E217" s="68" t="str">
         <f>"$"&amp;TEXT(14361.34,"0.00")</f>
         <v>$14361.34</v>
       </c>
-      <c r="F217" s="69" t="str">
+      <c r="F217" s="68" t="str">
         <f>"$"&amp;TEXT(247,"0.00")</f>
         <v>$247.00</v>
       </c>
-      <c r="G217" s="69" t="str">
+      <c r="G217" s="68" t="str">
         <f>"$"&amp;TEXT(637.5,"0.00")</f>
         <v>$637.50</v>
       </c>
-      <c r="H217" s="69" t="str">
+      <c r="H217" s="68" t="str">
         <f>"$"&amp;TEXT(0,"0.00")</f>
         <v>$0.00</v>
       </c>
-      <c r="I217" s="70" t="str">
+      <c r="I217" s="69" t="str">
         <f>"$"&amp;TEXT(14361.34,"0.00")</f>
         <v>$14361.34</v>
       </c>
-      <c r="J217" s="70" t="str">
+      <c r="J217" s="69" t="str">
         <f>"$"&amp;TEXT(247,"0.00")</f>
         <v>$247.00</v>
       </c>
-      <c r="K217" s="70" t="str">
+      <c r="K217" s="69" t="str">
         <f>"$"&amp;TEXT(637.5,"0.00")</f>
         <v>$637.50</v>
       </c>
-      <c r="L217" s="70" t="str">
+      <c r="L217" s="69" t="str">
         <f>"$"&amp;TEXT(0,"0.00")</f>
         <v>$0.00</v>
       </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A219" s="46" t="s">
+      <c r="A219" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="B219" s="47"/>
-      <c r="C219" s="47"/>
+      <c r="B219" s="46"/>
+      <c r="C219" s="46"/>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A220" s="44" t="s">
+      <c r="A220" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="B220" s="44" t="s">
+      <c r="B220" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="C220" s="44" t="s">
+      <c r="C220" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="D220" s="44" t="s">
+      <c r="D220" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="E220" s="44" t="s">
+      <c r="E220" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F220" s="44" t="s">
+      <c r="F220" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="G220" s="44" t="s">
+      <c r="G220" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="H220" s="44" t="s">
+      <c r="H220" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="I220" s="44" t="s">
+      <c r="I220" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="J220" s="44" t="s">
+      <c r="J220" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="K220" s="44" t="s">
+      <c r="K220" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="L220" s="44" t="s">
+      <c r="L220" s="43" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:19" ht="58" x14ac:dyDescent="0.35">
-      <c r="A221" s="73" t="s">
+      <c r="A221" s="72" t="s">
         <v>484</v>
       </c>
-      <c r="B221" s="74" t="s">
+      <c r="B221" s="73" t="s">
         <v>468</v>
       </c>
-      <c r="C221" s="74" t="s">
+      <c r="C221" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="D221" s="74" t="s">
+      <c r="D221" s="73" t="s">
         <v>382</v>
       </c>
-      <c r="E221" s="74" t="s">
+      <c r="E221" s="73" t="s">
         <v>382</v>
       </c>
-      <c r="F221" s="74"/>
-      <c r="G221" s="74"/>
-      <c r="H221" s="74"/>
-      <c r="I221" s="74"/>
-      <c r="J221" s="75">
+      <c r="F221" s="73"/>
+      <c r="G221" s="73"/>
+      <c r="H221" s="73"/>
+      <c r="I221" s="73"/>
+      <c r="J221" s="74">
         <f ca="1">TODAY()</f>
-        <v>45104</v>
-      </c>
-      <c r="K221" s="75">
+        <v>45145</v>
+      </c>
+      <c r="K221" s="74">
         <v>234</v>
       </c>
-      <c r="L221" s="74" t="s">
+      <c r="L221" s="73" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A223" s="108" t="s">
+      <c r="A223" s="107" t="s">
         <v>371</v>
       </c>
-      <c r="B223" s="109"/>
-      <c r="C223" s="109"/>
-      <c r="D223" s="109"/>
-      <c r="E223" s="109"/>
-      <c r="F223" s="109"/>
-      <c r="G223" s="109"/>
-      <c r="H223" s="109"/>
-      <c r="I223" s="109"/>
-      <c r="J223" s="109"/>
-      <c r="K223" s="47"/>
-      <c r="L223" s="47"/>
-      <c r="M223" s="47"/>
-      <c r="N223" s="47"/>
-      <c r="O223" s="47"/>
-      <c r="P223" s="47"/>
-      <c r="Q223" s="47"/>
-      <c r="R223" s="47"/>
-      <c r="S223" s="47"/>
+      <c r="B223" s="108"/>
+      <c r="C223" s="108"/>
+      <c r="D223" s="108"/>
+      <c r="E223" s="108"/>
+      <c r="F223" s="108"/>
+      <c r="G223" s="108"/>
+      <c r="H223" s="108"/>
+      <c r="I223" s="108"/>
+      <c r="J223" s="108"/>
+      <c r="K223" s="46"/>
+      <c r="L223" s="46"/>
+      <c r="M223" s="46"/>
+      <c r="N223" s="46"/>
+      <c r="O223" s="46"/>
+      <c r="P223" s="46"/>
+      <c r="Q223" s="46"/>
+      <c r="R223" s="46"/>
+      <c r="S223" s="46"/>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A224" s="101"/>
-      <c r="B224" s="102"/>
-      <c r="C224" s="105" t="s">
+      <c r="A224" s="100"/>
+      <c r="B224" s="101"/>
+      <c r="C224" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="D224" s="105"/>
-      <c r="E224" s="105"/>
-      <c r="F224" s="105"/>
-      <c r="G224" s="105"/>
-      <c r="H224" s="105"/>
-      <c r="I224" s="105"/>
-      <c r="J224" s="105"/>
-      <c r="K224" s="105"/>
-      <c r="L224" s="105"/>
-      <c r="M224" s="105"/>
-      <c r="N224" s="105"/>
-      <c r="O224" s="106"/>
-      <c r="P224" s="118" t="s">
+      <c r="D224" s="104"/>
+      <c r="E224" s="104"/>
+      <c r="F224" s="104"/>
+      <c r="G224" s="104"/>
+      <c r="H224" s="104"/>
+      <c r="I224" s="104"/>
+      <c r="J224" s="104"/>
+      <c r="K224" s="104"/>
+      <c r="L224" s="104"/>
+      <c r="M224" s="104"/>
+      <c r="N224" s="104"/>
+      <c r="O224" s="105"/>
+      <c r="P224" s="117" t="s">
         <v>466</v>
       </c>
-      <c r="Q224" s="119"/>
-      <c r="R224" s="119"/>
-      <c r="S224" s="119"/>
+      <c r="Q224" s="118"/>
+      <c r="R224" s="118"/>
+      <c r="S224" s="118"/>
     </row>
     <row r="225" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A225" s="110" t="s">
+      <c r="A225" s="109" t="s">
         <v>349</v>
       </c>
-      <c r="B225" s="110" t="s">
+      <c r="B225" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="C225" s="111" t="s">
+      <c r="C225" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="D225" s="112"/>
-      <c r="E225" s="112"/>
-      <c r="F225" s="113"/>
-      <c r="G225" s="114" t="s">
+      <c r="D225" s="111"/>
+      <c r="E225" s="111"/>
+      <c r="F225" s="112"/>
+      <c r="G225" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="H225" s="115"/>
-      <c r="I225" s="115"/>
-      <c r="J225" s="116"/>
-      <c r="K225" s="121" t="s">
+      <c r="H225" s="114"/>
+      <c r="I225" s="114"/>
+      <c r="J225" s="115"/>
+      <c r="K225" s="122" t="s">
         <v>504</v>
       </c>
-      <c r="L225" s="121" t="s">
+      <c r="L225" s="122" t="s">
         <v>507</v>
       </c>
-      <c r="M225" s="121" t="s">
+      <c r="M225" s="122" t="s">
         <v>505</v>
       </c>
-      <c r="N225" s="121" t="s">
+      <c r="N225" s="122" t="s">
         <v>506</v>
       </c>
-      <c r="O225" s="123" t="s">
+      <c r="O225" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="P225" s="118" t="s">
+      <c r="P225" s="117" t="s">
         <v>348</v>
       </c>
-      <c r="Q225" s="119"/>
-      <c r="R225" s="120"/>
-      <c r="S225" s="120"/>
+      <c r="Q225" s="118"/>
+      <c r="R225" s="119"/>
+      <c r="S225" s="119"/>
     </row>
     <row r="226" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A226" s="117"/>
-      <c r="B226" s="117"/>
-      <c r="C226" s="66" t="s">
+      <c r="A226" s="116"/>
+      <c r="B226" s="116"/>
+      <c r="C226" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="D226" s="66" t="s">
+      <c r="D226" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="E226" s="66" t="s">
+      <c r="E226" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="F226" s="66" t="s">
+      <c r="F226" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="G226" s="67" t="s">
+      <c r="G226" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="H226" s="67" t="s">
+      <c r="H226" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="I226" s="67" t="s">
+      <c r="I226" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="J226" s="67" t="s">
+      <c r="J226" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="K226" s="122"/>
-      <c r="L226" s="122"/>
-      <c r="M226" s="122"/>
-      <c r="N226" s="122"/>
-      <c r="O226" s="124"/>
-      <c r="P226" s="97" t="s">
+      <c r="K226" s="123"/>
+      <c r="L226" s="123"/>
+      <c r="M226" s="123"/>
+      <c r="N226" s="123"/>
+      <c r="O226" s="127"/>
+      <c r="P226" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="Q226" s="97" t="s">
+      <c r="Q226" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="R226" s="97" t="s">
+      <c r="R226" s="96" t="s">
         <v>356</v>
       </c>
-      <c r="S226" s="97" t="s">
+      <c r="S226" s="96" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A227" s="42" t="s">
+      <c r="A227" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="B227" s="42" t="s">
+      <c r="B227" s="41" t="s">
         <v>467</v>
       </c>
       <c r="C227" s="30" t="str">
@@ -13009,7 +12901,7 @@
       <c r="L227" s="30"/>
       <c r="M227" s="30"/>
       <c r="N227" s="30"/>
-      <c r="O227" s="42" t="s">
+      <c r="O227" s="41" t="s">
         <v>155</v>
       </c>
       <c r="P227" s="30" t="str">
@@ -13027,600 +12919,625 @@
       </c>
     </row>
     <row r="229" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A229" s="130" t="s">
+      <c r="A229" s="124" t="s">
         <v>360</v>
       </c>
-      <c r="B229" s="131"/>
-      <c r="C229" s="131"/>
-      <c r="D229" s="131"/>
-      <c r="E229" s="131"/>
-      <c r="F229" s="131"/>
-      <c r="G229" s="131"/>
-      <c r="H229" s="131"/>
-      <c r="AF229" s="99"/>
-      <c r="AG229" s="99"/>
+      <c r="B229" s="125"/>
+      <c r="C229" s="125"/>
+      <c r="D229" s="125"/>
+      <c r="E229" s="125"/>
+      <c r="F229" s="125"/>
+      <c r="G229" s="125"/>
+      <c r="H229" s="125"/>
+      <c r="AF229" s="98"/>
+      <c r="AG229" s="98"/>
     </row>
     <row r="230" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A230" s="132" t="s">
+      <c r="A230" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="B230" s="132" t="s">
+      <c r="B230" s="140" t="s">
         <v>361</v>
       </c>
-      <c r="C230" s="135" t="s">
+      <c r="C230" s="143" t="s">
         <v>362</v>
       </c>
-      <c r="D230" s="138" t="s">
+      <c r="D230" s="146" t="s">
         <v>363</v>
       </c>
-      <c r="E230" s="141" t="s">
+      <c r="E230" s="128" t="s">
         <v>348</v>
       </c>
-      <c r="F230" s="141"/>
-      <c r="G230" s="141"/>
-      <c r="H230" s="141"/>
-      <c r="I230" s="125" t="s">
+      <c r="F230" s="128"/>
+      <c r="G230" s="128"/>
+      <c r="H230" s="128"/>
+      <c r="I230" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="J230" s="125"/>
-      <c r="K230" s="125"/>
-      <c r="L230" s="125"/>
-      <c r="AF230" s="99"/>
-      <c r="AG230" s="99"/>
+      <c r="J230" s="129"/>
+      <c r="K230" s="129"/>
+      <c r="L230" s="129"/>
+      <c r="AF230" s="98"/>
+      <c r="AG230" s="98"/>
     </row>
     <row r="231" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A231" s="133"/>
-      <c r="B231" s="133"/>
-      <c r="C231" s="136"/>
-      <c r="D231" s="139"/>
-      <c r="E231" s="126" t="s">
+      <c r="A231" s="141"/>
+      <c r="B231" s="141"/>
+      <c r="C231" s="144"/>
+      <c r="D231" s="147"/>
+      <c r="E231" s="130" t="s">
         <v>365</v>
       </c>
-      <c r="F231" s="127"/>
-      <c r="G231" s="128" t="s">
+      <c r="F231" s="131"/>
+      <c r="G231" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="H231" s="129"/>
-      <c r="I231" s="126" t="s">
+      <c r="H231" s="133"/>
+      <c r="I231" s="130" t="s">
         <v>365</v>
       </c>
-      <c r="J231" s="127"/>
-      <c r="K231" s="128" t="s">
+      <c r="J231" s="131"/>
+      <c r="K231" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="L231" s="129"/>
-      <c r="AF231" s="99"/>
-      <c r="AG231" s="99"/>
+      <c r="L231" s="133"/>
+      <c r="AF231" s="98"/>
+      <c r="AG231" s="98"/>
     </row>
     <row r="232" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A232" s="134"/>
-      <c r="B232" s="134" t="s">
+      <c r="A232" s="142"/>
+      <c r="B232" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="C232" s="137"/>
-      <c r="D232" s="140"/>
-      <c r="E232" s="66" t="s">
+      <c r="C232" s="145"/>
+      <c r="D232" s="148"/>
+      <c r="E232" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="F232" s="66" t="s">
+      <c r="F232" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="G232" s="67" t="s">
+      <c r="G232" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="H232" s="67" t="s">
+      <c r="H232" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="I232" s="66" t="s">
+      <c r="I232" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="J232" s="66" t="s">
+      <c r="J232" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="K232" s="67" t="s">
+      <c r="K232" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="L232" s="67" t="s">
+      <c r="L232" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="AF232" s="99"/>
-      <c r="AG232" s="99"/>
+      <c r="AF232" s="98"/>
+      <c r="AG232" s="98"/>
     </row>
     <row r="233" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A233" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="B233" s="42" t="s">
+      <c r="B233" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C233" s="42" t="s">
+      <c r="C233" s="41" t="s">
         <v>467</v>
       </c>
       <c r="D233" s="30" t="str">
         <f>TEXT(572.98,"0.00")</f>
         <v>572.98</v>
       </c>
-      <c r="E233" s="69" t="str">
+      <c r="E233" s="68" t="str">
         <f>"$"&amp;TEXT(57317.36,"0.00")</f>
         <v>$57317.36</v>
       </c>
-      <c r="F233" s="69" t="str">
+      <c r="F233" s="68" t="str">
         <f>"$"&amp;TEXT(2041,"0.00")</f>
         <v>$2041.00</v>
       </c>
-      <c r="G233" s="69" t="str">
+      <c r="G233" s="68" t="str">
         <f>"$"&amp;TEXT(8517,"0.00")</f>
         <v>$8517.00</v>
       </c>
-      <c r="H233" s="69" t="str">
+      <c r="H233" s="68" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
-      <c r="I233" s="70" t="str">
+      <c r="I233" s="69" t="str">
         <f>"$"&amp;TEXT(57317.36,"0.00")</f>
         <v>$57317.36</v>
       </c>
-      <c r="J233" s="70" t="str">
+      <c r="J233" s="69" t="str">
         <f>"$"&amp;TEXT(2041,"0.00")</f>
         <v>$2041.00</v>
       </c>
-      <c r="K233" s="70" t="str">
+      <c r="K233" s="69" t="str">
         <f>"$"&amp;TEXT(8517,"0.00")</f>
         <v>$8517.00</v>
       </c>
-      <c r="L233" s="70" t="str">
+      <c r="L233" s="69" t="str">
         <f>"$"&amp;TEXT(1092,"0.00")</f>
         <v>$1092.00</v>
       </c>
-      <c r="AF233" s="99" t="s">
+      <c r="AF233" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="AG233" s="99" t="s">
+      <c r="AG233" s="98" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A235" s="46" t="s">
+      <c r="A235" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="B235" s="47"/>
-      <c r="C235" s="47"/>
-      <c r="D235" s="47"/>
+      <c r="B235" s="46"/>
+      <c r="C235" s="46"/>
+      <c r="D235" s="46"/>
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A236" s="44" t="s">
+      <c r="A236" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="B236" s="44" t="s">
+      <c r="B236" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="C236" s="44" t="s">
+      <c r="C236" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="D236" s="44" t="s">
+      <c r="D236" s="43" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A237" s="76" t="str">
+      <c r="A237" s="75" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B237" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B237" s="99" t="s">
         <v>485</v>
       </c>
-      <c r="C237" s="100" t="s">
+      <c r="C237" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D237" s="100" t="s">
+      <c r="D237" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A238" s="76" t="str">
+      <c r="A238" s="75" t="str">
         <f t="shared" ref="A238:A262" ca="1" si="0">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B238" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B238" s="99" t="s">
         <v>486</v>
       </c>
-      <c r="C238" s="100" t="s">
+      <c r="C238" s="99" t="s">
         <v>487</v>
       </c>
-      <c r="D238" s="100" t="s">
+      <c r="D238" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="239" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A239" s="76" t="str">
+      <c r="A239" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B239" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B239" s="99" t="s">
         <v>489</v>
       </c>
-      <c r="C239" s="100" t="s">
+      <c r="C239" s="99" t="s">
         <v>487</v>
       </c>
-      <c r="D239" s="100" t="s">
+      <c r="D239" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A240" s="76" t="str">
+      <c r="A240" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B240" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B240" s="99" t="s">
         <v>490</v>
       </c>
-      <c r="C240" s="100" t="s">
+      <c r="C240" s="99" t="s">
         <v>487</v>
       </c>
-      <c r="D240" s="100" t="s">
+      <c r="D240" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="76" t="str">
+      <c r="A241" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B241" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B241" s="99" t="s">
         <v>491</v>
       </c>
-      <c r="C241" s="100" t="s">
+      <c r="C241" s="99" t="s">
         <v>487</v>
       </c>
-      <c r="D241" s="100" t="s">
+      <c r="D241" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="76" t="str">
+      <c r="A242" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B242" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B242" s="99" t="s">
         <v>492</v>
       </c>
-      <c r="C242" s="100" t="s">
+      <c r="C242" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D242" s="100" t="s">
+      <c r="D242" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="76" t="str">
+      <c r="A243" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B243" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B243" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="C243" s="100" t="s">
+      <c r="C243" s="99" t="s">
         <v>494</v>
       </c>
-      <c r="D243" s="100" t="s">
+      <c r="D243" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="76" t="str">
+      <c r="A244" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B244" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B244" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="C244" s="100" t="s">
+      <c r="C244" s="99" t="s">
         <v>494</v>
       </c>
-      <c r="D244" s="100" t="s">
+      <c r="D244" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="76" t="str">
+      <c r="A245" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B245" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B245" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="C245" s="100" t="s">
+      <c r="C245" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D245" s="100" t="s">
+      <c r="D245" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="76" t="str">
+      <c r="A246" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B246" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B246" s="99" t="s">
         <v>496</v>
       </c>
-      <c r="C246" s="100" t="s">
+      <c r="C246" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D246" s="100" t="s">
+      <c r="D246" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="76" t="str">
+      <c r="A247" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B247" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B247" s="99" t="s">
         <v>497</v>
       </c>
-      <c r="C247" s="100" t="s">
+      <c r="C247" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D247" s="100" t="s">
+      <c r="D247" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="76" t="str">
+      <c r="A248" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B248" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B248" s="99" t="s">
         <v>498</v>
       </c>
-      <c r="C248" s="100" t="s">
+      <c r="C248" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D248" s="100" t="s">
+      <c r="D248" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="76" t="str">
+      <c r="A249" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B249" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B249" s="99" t="s">
         <v>499</v>
       </c>
-      <c r="C249" s="100" t="s">
+      <c r="C249" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D249" s="100" t="s">
+      <c r="D249" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="76" t="str">
+      <c r="A250" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B250" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B250" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C250" s="100" t="s">
+      <c r="C250" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D250" s="100" t="s">
+      <c r="D250" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="76" t="str">
+      <c r="A251" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B251" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B251" s="99" t="s">
         <v>501</v>
       </c>
-      <c r="C251" s="100" t="s">
+      <c r="C251" s="99" t="s">
         <v>494</v>
       </c>
-      <c r="D251" s="100" t="s">
+      <c r="D251" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252" s="76" t="str">
+      <c r="A252" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B252" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B252" s="99" t="s">
         <v>502</v>
       </c>
-      <c r="C252" s="100" t="s">
+      <c r="C252" s="99" t="s">
         <v>494</v>
       </c>
-      <c r="D252" s="100" t="s">
+      <c r="D252" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="76" t="str">
+      <c r="A253" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B253" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B253" s="99" t="s">
         <v>503</v>
       </c>
-      <c r="C253" s="100" t="s">
+      <c r="C253" s="99" t="s">
         <v>494</v>
       </c>
-      <c r="D253" s="100" t="s">
+      <c r="D253" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="76" t="str">
+      <c r="A254" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B254" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B254" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="C254" s="100" t="s">
+      <c r="C254" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D254" s="100" t="s">
+      <c r="D254" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255" s="76" t="str">
+      <c r="A255" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B255" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B255" s="99" t="s">
         <v>496</v>
       </c>
-      <c r="C255" s="100" t="s">
+      <c r="C255" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D255" s="100" t="s">
+      <c r="D255" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="76" t="str">
+      <c r="A256" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B256" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B256" s="99" t="s">
         <v>497</v>
       </c>
-      <c r="C256" s="100" t="s">
+      <c r="C256" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D256" s="100" t="s">
+      <c r="D256" s="99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="76" t="str">
+      <c r="A257" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B257" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B257" s="99" t="s">
         <v>498</v>
       </c>
-      <c r="C257" s="100" t="s">
+      <c r="C257" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D257" s="100" t="s">
+      <c r="D257" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" s="76" t="str">
+      <c r="A258" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B258" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B258" s="99" t="s">
         <v>499</v>
       </c>
-      <c r="C258" s="100" t="s">
+      <c r="C258" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D258" s="100" t="s">
+      <c r="D258" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" s="76" t="str">
+      <c r="A259" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B259" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B259" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C259" s="100" t="s">
+      <c r="C259" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D259" s="100" t="s">
+      <c r="D259" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="76" t="str">
+      <c r="A260" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B260" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B260" s="99" t="s">
         <v>499</v>
       </c>
-      <c r="C260" s="100" t="s">
+      <c r="C260" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D260" s="100" t="s">
+      <c r="D260" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" s="76" t="str">
+      <c r="A261" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B261" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B261" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="C261" s="100" t="s">
+      <c r="C261" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D261" s="100" t="s">
+      <c r="D261" s="99" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="76" t="str">
+      <c r="A262" s="75" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2023-06-27</v>
-      </c>
-      <c r="B262" s="100" t="s">
+        <v>2023-08-07</v>
+      </c>
+      <c r="B262" s="99" t="s">
         <v>393</v>
       </c>
-      <c r="C262" s="100" t="s">
+      <c r="C262" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="D262" s="100" t="s">
+      <c r="D262" s="99" t="s">
         <v>394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A200:R200"/>
-    <mergeCell ref="L207:L208"/>
-    <mergeCell ref="A211:L211"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="M207:M208"/>
-    <mergeCell ref="N207:N208"/>
-    <mergeCell ref="O207:O208"/>
-    <mergeCell ref="E212:H212"/>
-    <mergeCell ref="I212:L212"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="I213:J213"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="T192:V192"/>
-    <mergeCell ref="W192:X192"/>
-    <mergeCell ref="Z192:AF192"/>
-    <mergeCell ref="AG192:AL192"/>
-    <mergeCell ref="A183:L183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="E184:H184"/>
-    <mergeCell ref="I184:L184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="I230:L230"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="I231:J231"/>
+    <mergeCell ref="K231:L231"/>
+    <mergeCell ref="A229:H229"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="C230:C232"/>
+    <mergeCell ref="D230:D232"/>
+    <mergeCell ref="E230:H230"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="L225:L226"/>
+    <mergeCell ref="M225:M226"/>
+    <mergeCell ref="N225:N226"/>
+    <mergeCell ref="O225:O226"/>
+    <mergeCell ref="A159:R159"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="L179:L180"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A164:R164"/>
+    <mergeCell ref="A170:H170"/>
+    <mergeCell ref="M179:M180"/>
+    <mergeCell ref="N179:N180"/>
+    <mergeCell ref="O179:O180"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="A140:R140"/>
+    <mergeCell ref="A128:R128"/>
+    <mergeCell ref="A154:R154"/>
+    <mergeCell ref="A146:R146"/>
+    <mergeCell ref="C107:K107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A134:R134"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="A122:R122"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="AG83:AL83"/>
     <mergeCell ref="T83:V83"/>
     <mergeCell ref="W83:X83"/>
@@ -13637,59 +13554,34 @@
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="D99:D101"/>
     <mergeCell ref="I99:L99"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A140:R140"/>
-    <mergeCell ref="A128:R128"/>
-    <mergeCell ref="A154:R154"/>
-    <mergeCell ref="A146:R146"/>
-    <mergeCell ref="C107:K107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A134:R134"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="A122:R122"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="M225:M226"/>
-    <mergeCell ref="N225:N226"/>
-    <mergeCell ref="O225:O226"/>
-    <mergeCell ref="A159:R159"/>
-    <mergeCell ref="K179:K180"/>
-    <mergeCell ref="L179:L180"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="A164:R164"/>
-    <mergeCell ref="A170:H170"/>
-    <mergeCell ref="M179:M180"/>
-    <mergeCell ref="N179:N180"/>
-    <mergeCell ref="O179:O180"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="D212:D214"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="I230:L230"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="G231:H231"/>
-    <mergeCell ref="I231:J231"/>
-    <mergeCell ref="K231:L231"/>
-    <mergeCell ref="A229:H229"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="D230:D232"/>
-    <mergeCell ref="E230:H230"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="L225:L226"/>
+    <mergeCell ref="T192:V192"/>
+    <mergeCell ref="W192:X192"/>
+    <mergeCell ref="Z192:AF192"/>
+    <mergeCell ref="AG192:AL192"/>
+    <mergeCell ref="A183:L183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="E184:H184"/>
+    <mergeCell ref="I184:L184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="E212:H212"/>
+    <mergeCell ref="I212:L212"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="A200:R200"/>
+    <mergeCell ref="L207:L208"/>
+    <mergeCell ref="A211:L211"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="M207:M208"/>
+    <mergeCell ref="N207:N208"/>
+    <mergeCell ref="O207:O208"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C58 NJF124:NJF126 NTB124:NTB126 OCX124:OCX126 OMT124:OMT126 OWP124:OWP126 PGL124:PGL126 PQH124:PQH126 QAD124:QAD126 QJZ124:QJZ126 QTV124:QTV126 RDR124:RDR126 RNN124:RNN126 RXJ124:RXJ126 SHF124:SHF126 SRB124:SRB126 TAX124:TAX126 TKT124:TKT126 TUP124:TUP126 UEL124:UEL126 UOH124:UOH126 UYD124:UYD126 VHZ124:VHZ126 VRV124:VRV126 WBR124:WBR126 WLN124:WLN126 WVJ124:WVJ126 IX124:IX126 ST124:ST126 ACP124:ACP126 AML124:AML126 AWH124:AWH126 BGD124:BGD126 BPZ124:BPZ126 BZV124:BZV126 CJR124:CJR126 CTN124:CTN126 DDJ124:DDJ126 DNF124:DNF126 DXB124:DXB126 EGX124:EGX126 EQT124:EQT126 FAP124:FAP126 LCD124:LCD126 FKL124:FKL126 FUH124:FUH126 GED124:GED126 GNZ124:GNZ126 GXV124:GXV126 HHR124:HHR126 HRN124:HRN126 IBJ124:IBJ126 ILF124:ILF126 IVB124:IVB126 JEX124:JEX126 JOT124:JOT126 JYP124:JYP126 KIL124:KIL126 KSH124:KSH126 LLZ124:LLZ126 LVV124:LVV126 MFR124:MFR126 MPN124:MPN126 MZJ124:MZJ126 LVV130:LVV132 LLZ130:LLZ132 KSH130:KSH132 KIL130:KIL132 JYP130:JYP132 JOT130:JOT132 JEX130:JEX132 IVB130:IVB132 ILF130:ILF132 IBJ130:IBJ132 HRN130:HRN132 HHR130:HHR132 GXV130:GXV132 GNZ130:GNZ132 GED130:GED132 FUH130:FUH132 FKL130:FKL132 LCD130:LCD132 FAP130:FAP132 EQT130:EQT132 EGX130:EGX132 DXB130:DXB132 DNF130:DNF132 DDJ130:DDJ132 CTN130:CTN132 CJR130:CJR132 BZV130:BZV132 BPZ130:BPZ132 BGD130:BGD132 AWH130:AWH132 AML130:AML132 ACP130:ACP132 ST130:ST132 IX130:IX132 WVJ130:WVJ132 WLN130:WLN132 WBR130:WBR132 VRV130:VRV132 VHZ130:VHZ132 UYD130:UYD132 UOH130:UOH132 UEL130:UEL132 TUP130:TUP132 TKT130:TKT132 TAX130:TAX132 SRB130:SRB132 SHF130:SHF132 RXJ130:RXJ132 RNN130:RNN132 RDR130:RDR132 QTV130:QTV132 QJZ130:QJZ132 QAD130:QAD132 PQH130:PQH132 PGL130:PGL132 OWP130:OWP132 OMT130:OMT132 OCX130:OCX132 NTB130:NTB132 NJF130:NJF132 MZJ130:MZJ132 MPN130:MPN132 MZJ142:MZJ144 MFR136:MFR138 LVV136:LVV138 LLZ136:LLZ138 KSH136:KSH138 KIL136:KIL138 JYP136:JYP138 JOT136:JOT138 JEX136:JEX138 IVB136:IVB138 ILF136:ILF138 IBJ136:IBJ138 HRN136:HRN138 HHR136:HHR138 GXV136:GXV138 GNZ136:GNZ138 GED136:GED138 FUH136:FUH138 FKL136:FKL138 LCD136:LCD138 FAP136:FAP138 EQT136:EQT138 EGX136:EGX138 DXB136:DXB138 DNF136:DNF138 DDJ136:DDJ138 CTN136:CTN138 CJR136:CJR138 BZV136:BZV138 BPZ136:BPZ138 BGD136:BGD138 AWH136:AWH138 AML136:AML138 ACP136:ACP138 ST136:ST138 IX136:IX138 WVJ136:WVJ138 WLN136:WLN138 WBR136:WBR138 VRV136:VRV138 VHZ136:VHZ138 UYD136:UYD138 UOH136:UOH138 UEL136:UEL138 TUP136:TUP138 TKT136:TKT138 TAX136:TAX138 SRB136:SRB138 SHF136:SHF138 RXJ136:RXJ138 RNN136:RNN138 RDR136:RDR138 QTV136:QTV138 QJZ136:QJZ138 QAD136:QAD138 PQH136:PQH138 PGL136:PGL138 OWP136:OWP138 OMT136:OMT138 OCX136:OCX138 NTB136:NTB138 NJF136:NJF138 MZJ136:MZJ138 MPN136:MPN138 NJF142:NJF144 NTB142:NTB144 OCX142:OCX144 OMT142:OMT144 OWP142:OWP144 PGL142:PGL144 PQH142:PQH144 QAD142:QAD144 QJZ142:QJZ144 QTV142:QTV144 RDR142:RDR144 RNN142:RNN144 RXJ142:RXJ144 SHF142:SHF144 SRB142:SRB144 TAX142:TAX144 TKT142:TKT144 TUP142:TUP144 UEL142:UEL144 UOH142:UOH144 UYD142:UYD144 VHZ142:VHZ144 VRV142:VRV144 WBR142:WBR144 WLN142:WLN144 WVJ142:WVJ144 IX142:IX144 ST142:ST144 ACP142:ACP144 AML142:AML144 AWH142:AWH144 BGD142:BGD144 BPZ142:BPZ144 BZV142:BZV144 CJR142:CJR144 CTN142:CTN144 DDJ142:DDJ144 DNF142:DNF144 DXB142:DXB144 EGX142:EGX144 EQT142:EQT144 FAP142:FAP144 LCD142:LCD144 FKL142:FKL144 FUH142:FUH144 GED142:GED144 GNZ142:GNZ144 GXV142:GXV144 HHR142:HHR144 HRN142:HRN144 IBJ142:IBJ144 ILF142:ILF144 IVB142:IVB144 JEX142:JEX144 JOT142:JOT144 JYP142:JYP144 KIL142:KIL144 KSH142:KSH144 LLZ142:LLZ144 LVV142:LVV144 MFR142:MFR144 MPN142:MPN144 MFR130:MFR132 MPN156:MPN157 MFR156:MFR157 LVV156:LVV157 LLZ156:LLZ157 KSH156:KSH157 KIL156:KIL157 JYP156:JYP157 JOT156:JOT157 JEX156:JEX157 IVB156:IVB157 ILF156:ILF157 IBJ156:IBJ157 HRN156:HRN157 HHR156:HHR157 GXV156:GXV157 GNZ156:GNZ157 GED156:GED157 FUH156:FUH157 FKL156:FKL157 LCD156:LCD157 FAP156:FAP157 EQT156:EQT157 EGX156:EGX157 DXB156:DXB157 DNF156:DNF157 DDJ156:DDJ157 CTN156:CTN157 CJR156:CJR157 BZV156:BZV157 BPZ156:BPZ157 BGD156:BGD157 AWH156:AWH157 AML156:AML157 ACP156:ACP157 ST156:ST157 IX156:IX157 WVJ156:WVJ157 WLN156:WLN157 WBR156:WBR157 VRV156:VRV157 VHZ156:VHZ157 UYD156:UYD157 UOH156:UOH157 UEL156:UEL157 TUP156:TUP157 TKT156:TKT157 TAX156:TAX157 SRB156:SRB157 SHF156:SHF157 RXJ156:RXJ157 RNN156:RNN157 RDR156:RDR157 QTV156:QTV157 QJZ156:QJZ157 QAD156:QAD157 PQH156:PQH157 PGL156:PGL157 OWP156:OWP157 OMT156:OMT157 OCX156:OCX157 NTB156:NTB157 NJF156:NJF157 MZJ156:MZJ157 MFR151:MFR152 LVV151:LVV152 LLZ151:LLZ152 KSH151:KSH152 KIL151:KIL152 JYP151:JYP152 JOT151:JOT152 JEX151:JEX152 IVB151:IVB152 ILF151:ILF152 IBJ151:IBJ152 HRN151:HRN152 HHR151:HHR152 GXV151:GXV152 GNZ151:GNZ152 GED151:GED152 FUH151:FUH152 FKL151:FKL152 LCD151:LCD152 FAP151:FAP152 EQT151:EQT152 EGX151:EGX152 DXB151:DXB152 DNF151:DNF152 DDJ151:DDJ152 CTN151:CTN152 CJR151:CJR152 BZV151:BZV152 BPZ151:BPZ152 BGD151:BGD152 AWH151:AWH152 AML151:AML152 ACP151:ACP152 ST151:ST152 IX151:IX152 WVJ151:WVJ152 WLN151:WLN152 WBR151:WBR152 VRV151:VRV152 VHZ151:VHZ152 UYD151:UYD152 UOH151:UOH152 UEL151:UEL152 TUP151:TUP152 TKT151:TKT152 TAX151:TAX152 SRB151:SRB152 SHF151:SHF152 RXJ151:RXJ152 RNN151:RNN152 RDR151:RDR152 QTV151:QTV152 QJZ151:QJZ152 QAD151:QAD152 PQH151:PQH152 PGL151:PGL152 OWP151:OWP152 OMT151:OMT152 OCX151:OCX152 NTB151:NTB152 NJF151:NJF152 MZJ151:MZJ152 MZJ148:MZJ149 NJF148:NJF149 NTB148:NTB149 OCX148:OCX149 OMT148:OMT149 OWP148:OWP149 PGL148:PGL149 PQH148:PQH149 QAD148:QAD149 QJZ148:QJZ149 QTV148:QTV149 RDR148:RDR149 RNN148:RNN149 RXJ148:RXJ149 SHF148:SHF149 SRB148:SRB149 TAX148:TAX149 TKT148:TKT149 TUP148:TUP149 UEL148:UEL149 UOH148:UOH149 UYD148:UYD149 VHZ148:VHZ149 VRV148:VRV149 WBR148:WBR149 WLN148:WLN149 WVJ148:WVJ149 IX148:IX149 ST148:ST149 ACP148:ACP149 AML148:AML149 AWH148:AWH149 BGD148:BGD149 BPZ148:BPZ149 BZV148:BZV149 CJR148:CJR149 CTN148:CTN149 DDJ148:DDJ149 DNF148:DNF149 DXB148:DXB149 EGX148:EGX149 EQT148:EQT149 FAP148:FAP149 LCD148:LCD149 FKL148:FKL149 FUH148:FUH149 GED148:GED149 GNZ148:GNZ149 GXV148:GXV149 HHR148:HHR149 HRN148:HRN149 IBJ148:IBJ149 ILF148:ILF149 IVB148:IVB149 JEX148:JEX149 JOT148:JOT149 JYP148:JYP149 KIL148:KIL149 KSH148:KSH149 LLZ148:LLZ149 LVV148:LVV149 MFR148:MFR149 MPN148:MPN149 MPN151:MPN152 OCX161:OCX162 OMT161:OMT162 OWP161:OWP162 PGL161:PGL162 PQH161:PQH162 QAD161:QAD162 QJZ161:QJZ162 QTV161:QTV162 RDR161:RDR162 RNN161:RNN162 RXJ161:RXJ162 SHF161:SHF162 SRB161:SRB162 TAX161:TAX162 TKT161:TKT162 TUP161:TUP162 UEL161:UEL162 UOH161:UOH162 UYD161:UYD162 VHZ161:VHZ162 VRV161:VRV162 WBR161:WBR162 WLN161:WLN162 WVJ161:WVJ162 IX161:IX162 ST161:ST162 ACP161:ACP162 AML161:AML162 AWH161:AWH162 BGD161:BGD162 BPZ161:BPZ162 BZV161:BZV162 CJR161:CJR162 CTN161:CTN162 DDJ161:DDJ162 DNF161:DNF162 DXB161:DXB162 EGX161:EGX162 EQT161:EQT162 FAP161:FAP162 LCD161:LCD162 FKL161:FKL162 FUH161:FUH162 GED161:GED162 GNZ161:GNZ162 GXV161:GXV162 HHR161:HHR162 HRN161:HRN162 IBJ161:IBJ162 ILF161:ILF162 IVB161:IVB162 JEX161:JEX162 JOT161:JOT162 JYP161:JYP162 KIL161:KIL162 KSH161:KSH162 LLZ161:LLZ162 LVV161:LVV162 MFR161:MFR162 MPN161:MPN162 MZJ161:MZJ162 NJF161:NJF162 LLZ202:LLZ203 KSH202:KSH203 KIL202:KIL203 JYP202:JYP203 JOT202:JOT203 JEX202:JEX203 IVB202:IVB203 ILF202:ILF203 IBJ202:IBJ203 HRN202:HRN203 HHR202:HHR203 GXV202:GXV203 GNZ202:GNZ203 GED202:GED203 FUH202:FUH203 FKL202:FKL203 LCD202:LCD203 FAP202:FAP203 EQT202:EQT203 EGX202:EGX203 DXB202:DXB203 DNF202:DNF203 DDJ202:DDJ203 CTN202:CTN203 CJR202:CJR203 BZV202:BZV203 BPZ202:BPZ203 BGD202:BGD203 AWH202:AWH203 AML202:AML203 ACP202:ACP203 ST202:ST203 IX202:IX203 WVJ202:WVJ203 WLN202:WLN203 WBR202:WBR203 VRV202:VRV203 VHZ202:VHZ203 UYD202:UYD203 UOH202:UOH203 UEL202:UEL203 TUP202:TUP203 TKT202:TKT203 TAX202:TAX203 SRB202:SRB203 SHF202:SHF203 RXJ202:RXJ203 RNN202:RNN203 RDR202:RDR203 QTV202:QTV203 QJZ202:QJZ203 QAD202:QAD203 PQH202:PQH203 PGL202:PGL203 OWP202:OWP203 OMT202:OMT203 OCX202:OCX203 NTB202:NTB203 NJF202:NJF203 MZJ202:MZJ203 MPN202:MPN203 MFR202:MFR203 LVV202:LVV203 NJF166:NJF167 NTB166:NTB167 OCX166:OCX167 OMT166:OMT167 OWP166:OWP167 PGL166:PGL167 PQH166:PQH167 QAD166:QAD167 QJZ166:QJZ167 QTV166:QTV167 RDR166:RDR167 RNN166:RNN167 RXJ166:RXJ167 SHF166:SHF167 SRB166:SRB167 TAX166:TAX167 TKT166:TKT167 TUP166:TUP167 UEL166:UEL167 UOH166:UOH167 UYD166:UYD167 VHZ166:VHZ167 VRV166:VRV167 WBR166:WBR167 WLN166:WLN167 WVJ166:WVJ167 IX166:IX167 ST166:ST167 ACP166:ACP167 AML166:AML167 AWH166:AWH167 BGD166:BGD167 BPZ166:BPZ167 BZV166:BZV167 CJR166:CJR167 CTN166:CTN167 DDJ166:DDJ167 DNF166:DNF167 DXB166:DXB167 EGX166:EGX167 EQT166:EQT167 FAP166:FAP167 LCD166:LCD167 FKL166:FKL167 FUH166:FUH167 GED166:GED167 GNZ166:GNZ167 GXV166:GXV167 HHR166:HHR167 HRN166:HRN167 IBJ166:IBJ167 ILF166:ILF167 IVB166:IVB167 JEX166:JEX167 JOT166:JOT167 JYP166:JYP167 KIL166:KIL167 KSH166:KSH167 LLZ166:LLZ167 LVV166:LVV167 MFR166:MFR167 MPN166:MPN167 MZJ166:MZJ167 NTB161:NTB162">
@@ -13721,13 +13613,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">
@@ -14552,7 +14444,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="162" t="s">
+      <c r="M28" s="161" t="s">
         <v>111</v>
       </c>
       <c r="N28" s="5">
@@ -14585,7 +14477,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="163"/>
+      <c r="M29" s="162"/>
       <c r="N29" s="5">
         <v>28</v>
       </c>
@@ -14919,7 +14811,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="162" t="s">
+      <c r="M41" s="161" t="s">
         <v>116</v>
       </c>
       <c r="N41" s="5">
@@ -14950,7 +14842,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="163"/>
+      <c r="M42" s="162"/>
       <c r="N42" s="5">
         <v>41</v>
       </c>
@@ -15006,7 +14898,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="162" t="s">
+      <c r="M44" s="161" t="s">
         <v>116</v>
       </c>
       <c r="N44" s="5">
@@ -15037,7 +14929,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="164"/>
+      <c r="M45" s="163"/>
       <c r="N45" s="5">
         <v>44</v>
       </c>
@@ -15066,7 +14958,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="163"/>
+      <c r="M46" s="162"/>
       <c r="N46" s="5">
         <v>45</v>
       </c>
